--- a/manuals/sequencer_figures/figures.xlsx
+++ b/manuals/sequencer_figures/figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\koike\proj\e7awg_sw\manuals\sequencer_figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\local\koike\proj\e7awg_sw_simple_multi\manuals\sequencer_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A793EA-9FF5-428B-81E1-7E8FF5FA9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D096BA27-A4B6-4DCD-8404-6ECA85FD4230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="540" windowWidth="26025" windowHeight="19935" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="ブロック図" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="82">
   <si>
     <t>エントリ ID</t>
     <phoneticPr fontId="1"/>
@@ -397,12 +397,79 @@
     <t>0x2D</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>[71:64]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[79:72]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[87:80]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[95:88]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[103:96]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[111:104]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[119:112]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[127:120]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約 (0x00000)</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWG スタートコマンド n</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +482,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -451,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -887,17 +970,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -918,17 +1040,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,13 +1052,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,14 +1100,74 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -981,6 +1187,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,95 +1202,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13946,6 +14119,202 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>65118</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>243051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366204CD-7DA3-BF8F-2144-E204203EC1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10549187" y="19536104"/>
+          <a:ext cx="118813" cy="939361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29662"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1315</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>30218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA2DCEE-E62C-0B16-9664-773731600810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="10485384" y="20005785"/>
+          <a:ext cx="182617" cy="1215916"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1314</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>14453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0FC5CF-BCCB-C0AE-4D63-AC0BDF51928D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9570983" y="20764501"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15303,10 +15672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346BD2E3-ECA9-4E3C-92C6-AEDA0AEF7FD8}">
-  <dimension ref="C3:AU101"/>
+  <dimension ref="A3:AT141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY100" sqref="AY100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15315,2911 +15684,3897 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="11" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="11" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="11" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="11" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="11" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="11" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="11" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="11" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="11" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="11" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="17" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="12" t="str">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12" t="str">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="12" t="str">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="12" t="str">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="23" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="19"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="26" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27" t="s">
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="55"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18" t="s">
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="19"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
     </row>
     <row r="21" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="20" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21" t="s">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21" t="s">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="29" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="31"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="20" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="35" t="s">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="21" t="s">
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="29" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="31"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="20" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="21" t="s">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21" t="s">
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="21" t="s">
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="29"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="29" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="31"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="32" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="34"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="41"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="29" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="31"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="20" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="35" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21" t="s">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="35" t="s">
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="29"/>
     </row>
     <row r="34" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E34" s="3"/>
-      <c r="F34" s="12" t="str">
+      <c r="E34" s="2"/>
+      <c r="F34" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="12" t="str">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="12" t="str">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="12" t="str">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="14"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="10"/>
     </row>
     <row r="35" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="23" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="18" t="s">
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="19"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="26"/>
     </row>
     <row r="36" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="26" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27" t="s">
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27" t="s">
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27" t="s">
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="28"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="55"/>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="17" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18" t="s">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="26"/>
     </row>
     <row r="38" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="20" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21" t="s">
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21" t="s">
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="22"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="29"/>
     </row>
     <row r="42" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="12" t="str">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="12" t="str">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="12" t="str">
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="12" t="str">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="12" t="str">
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="12" t="str">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="12" t="str">
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="12" t="str">
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="14"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="10"/>
     </row>
     <row r="43" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="38" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="39" t="s">
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="18" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="18"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="19"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="26"/>
     </row>
     <row r="44" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="20" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="G44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="48" t="s">
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="21" t="s">
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21" t="s">
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="22"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="19"/>
+      <c r="AL44" s="29"/>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="55" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="56"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="56"/>
-      <c r="AF45" s="56"/>
-      <c r="AG45" s="56"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="56"/>
-      <c r="AL45" s="57"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="32"/>
     </row>
     <row r="46" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="40" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="G46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41"/>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="41"/>
-      <c r="AH46" s="41"/>
-      <c r="AI46" s="41"/>
-      <c r="AJ46" s="41"/>
-      <c r="AK46" s="41"/>
-      <c r="AL46" s="43"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="39"/>
     </row>
     <row r="47" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="20" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21" t="s">
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21" t="s">
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21" t="s">
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21" t="s">
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21" t="s">
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21" t="s">
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="21" t="s">
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="22"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="29"/>
     </row>
     <row r="48" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="55" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="57"/>
-      <c r="AT48" s="54"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="32"/>
+      <c r="AT48" s="7"/>
     </row>
     <row r="49" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="40" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="G49" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="37"/>
-      <c r="O49" s="42" t="s">
+      <c r="O49" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
       <c r="AH49" s="37"/>
-      <c r="AI49" s="42" t="s">
+      <c r="AI49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="43"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="39"/>
     </row>
     <row r="50" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="20" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21" t="s">
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="48" t="s">
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="36" t="s">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AJ50" s="33"/>
-      <c r="AK50" s="33"/>
-      <c r="AL50" s="34"/>
+      <c r="AJ50" s="27"/>
+      <c r="AK50" s="27"/>
+      <c r="AL50" s="41"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="55" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="57"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="32"/>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="40" t="s">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="G52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="41"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="41"/>
-      <c r="AF52" s="41"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="41"/>
-      <c r="AK52" s="41"/>
-      <c r="AL52" s="43"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
+      <c r="AC52" s="36"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="36"/>
+      <c r="AH52" s="36"/>
+      <c r="AI52" s="36"/>
+      <c r="AJ52" s="36"/>
+      <c r="AK52" s="36"/>
+      <c r="AL52" s="39"/>
     </row>
     <row r="53" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="20" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21" t="s">
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21" t="s">
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21" t="s">
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21" t="s">
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21" t="s">
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21" t="s">
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21" t="s">
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="22"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="29"/>
     </row>
     <row r="54" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="55" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="57"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="31"/>
+      <c r="AI54" s="31"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="31"/>
+      <c r="AL54" s="32"/>
     </row>
     <row r="55" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="40" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="G55" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="37"/>
-      <c r="O55" s="42" t="s">
+      <c r="O55" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41"/>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36"/>
       <c r="AH55" s="37"/>
-      <c r="AI55" s="42" t="s">
+      <c r="AI55" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41"/>
-      <c r="AL55" s="43"/>
+      <c r="AJ55" s="36"/>
+      <c r="AK55" s="36"/>
+      <c r="AL55" s="39"/>
     </row>
     <row r="56" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="20" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21" t="s">
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="48" t="s">
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="36" t="s">
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="33"/>
-      <c r="AL56" s="34"/>
+      <c r="AJ56" s="27"/>
+      <c r="AK56" s="27"/>
+      <c r="AL56" s="41"/>
     </row>
     <row r="57" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="55" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="G57" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-      <c r="AH57" s="56"/>
-      <c r="AI57" s="56"/>
-      <c r="AJ57" s="56"/>
-      <c r="AK57" s="56"/>
-      <c r="AL57" s="57"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="31"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="31"/>
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="31"/>
+      <c r="AG57" s="31"/>
+      <c r="AH57" s="31"/>
+      <c r="AI57" s="31"/>
+      <c r="AJ57" s="31"/>
+      <c r="AK57" s="31"/>
+      <c r="AL57" s="32"/>
     </row>
     <row r="58" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="51" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="G58" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="49"/>
-      <c r="W58" s="49"/>
-      <c r="X58" s="49"/>
-      <c r="Y58" s="49"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="49"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="49"/>
-      <c r="AI58" s="49"/>
-      <c r="AJ58" s="49"/>
-      <c r="AK58" s="49"/>
-      <c r="AL58" s="50"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="43"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="43"/>
+      <c r="AH58" s="43"/>
+      <c r="AI58" s="43"/>
+      <c r="AJ58" s="43"/>
+      <c r="AK58" s="43"/>
+      <c r="AL58" s="44"/>
     </row>
     <row r="59" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="52" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="53"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="47"/>
     </row>
     <row r="60" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="55" t="s">
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-      <c r="AH60" s="56"/>
-      <c r="AI60" s="56"/>
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="56"/>
-      <c r="AL60" s="57"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="31"/>
+      <c r="Y60" s="31"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="31"/>
+      <c r="AE60" s="31"/>
+      <c r="AF60" s="31"/>
+      <c r="AG60" s="31"/>
+      <c r="AH60" s="31"/>
+      <c r="AI60" s="31"/>
+      <c r="AJ60" s="31"/>
+      <c r="AK60" s="31"/>
+      <c r="AL60" s="32"/>
     </row>
     <row r="61" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="40" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="G61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="41"/>
-      <c r="AK61" s="41"/>
-      <c r="AL61" s="43"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="36"/>
+      <c r="AJ61" s="36"/>
+      <c r="AK61" s="36"/>
+      <c r="AL61" s="39"/>
     </row>
     <row r="62" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="20" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21" t="s">
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21" t="s">
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21" t="s">
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21" t="s">
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21" t="s">
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="21" t="s">
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AF62" s="21"/>
-      <c r="AG62" s="21"/>
-      <c r="AH62" s="21"/>
-      <c r="AI62" s="21" t="s">
+      <c r="AF62" s="19"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="19"/>
+      <c r="AI62" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ62" s="21"/>
-      <c r="AK62" s="21"/>
-      <c r="AL62" s="22"/>
+      <c r="AJ62" s="19"/>
+      <c r="AK62" s="19"/>
+      <c r="AL62" s="29"/>
     </row>
     <row r="63" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="55" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="56"/>
-      <c r="V63" s="56"/>
-      <c r="W63" s="56"/>
-      <c r="X63" s="56"/>
-      <c r="Y63" s="56"/>
-      <c r="Z63" s="56"/>
-      <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-      <c r="AC63" s="56"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="56"/>
-      <c r="AF63" s="56"/>
-      <c r="AG63" s="56"/>
-      <c r="AH63" s="56"/>
-      <c r="AI63" s="56"/>
-      <c r="AJ63" s="56"/>
-      <c r="AK63" s="56"/>
-      <c r="AL63" s="57"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="31"/>
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="31"/>
+      <c r="AE63" s="31"/>
+      <c r="AF63" s="31"/>
+      <c r="AG63" s="31"/>
+      <c r="AH63" s="31"/>
+      <c r="AI63" s="31"/>
+      <c r="AJ63" s="31"/>
+      <c r="AK63" s="31"/>
+      <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="40" t="s">
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="G64" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="37"/>
-      <c r="O64" s="42" t="s">
+      <c r="O64" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
-      <c r="AB64" s="41"/>
-      <c r="AC64" s="41"/>
-      <c r="AD64" s="41"/>
-      <c r="AE64" s="41"/>
-      <c r="AF64" s="41"/>
-      <c r="AG64" s="41"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
       <c r="AH64" s="37"/>
-      <c r="AI64" s="42" t="s">
+      <c r="AI64" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ64" s="41"/>
-      <c r="AK64" s="41"/>
-      <c r="AL64" s="43"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="36"/>
+      <c r="AL64" s="39"/>
     </row>
-    <row r="65" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="20" t="s">
+    <row r="65" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21" t="s">
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="48" t="s">
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="33"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="36" t="s">
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="27"/>
+      <c r="AG65" s="27"/>
+      <c r="AH65" s="28"/>
+      <c r="AI65" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AJ65" s="33"/>
-      <c r="AK65" s="33"/>
-      <c r="AL65" s="34"/>
+      <c r="AJ65" s="27"/>
+      <c r="AK65" s="27"/>
+      <c r="AL65" s="41"/>
     </row>
-    <row r="69" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="12" t="str">
+    <row r="69" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="12" t="str">
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="12" t="str">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="12" t="str">
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="12" t="str">
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="12" t="str">
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="12" t="str">
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF69" s="13"/>
-      <c r="AG69" s="13"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="12" t="str">
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ69" s="13"/>
-      <c r="AK69" s="13"/>
-      <c r="AL69" s="14"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="10"/>
     </row>
-    <row r="70" spans="3:47" x14ac:dyDescent="0.4">
-      <c r="C70" s="15" t="s">
+    <row r="70" spans="3:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C70" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="38" t="s">
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="39" t="s">
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
-      <c r="X70" s="46"/>
-      <c r="Y70" s="46"/>
-      <c r="Z70" s="46"/>
-      <c r="AA70" s="46"/>
-      <c r="AB70" s="46"/>
-      <c r="AC70" s="46"/>
-      <c r="AD70" s="47"/>
-      <c r="AE70" s="18" t="s">
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AF70" s="18"/>
-      <c r="AG70" s="18"/>
-      <c r="AH70" s="18"/>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="19"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="26"/>
     </row>
-    <row r="71" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="48" t="s">
+    <row r="71" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="G71" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
-      <c r="AC71" s="33"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="21" t="s">
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="28"/>
+      <c r="AE71" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AF71" s="21"/>
-      <c r="AG71" s="21"/>
-      <c r="AH71" s="21"/>
-      <c r="AI71" s="21" t="s">
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="19"/>
+      <c r="AH71" s="19"/>
+      <c r="AI71" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AJ71" s="21"/>
-      <c r="AK71" s="21"/>
-      <c r="AL71" s="22"/>
+      <c r="AJ71" s="19"/>
+      <c r="AK71" s="19"/>
+      <c r="AL71" s="29"/>
     </row>
-    <row r="72" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AU72" s="54"/>
+    <row r="72" spans="3:38" x14ac:dyDescent="0.4">
+      <c r="C72" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="58"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="58"/>
+      <c r="W72" s="58"/>
+      <c r="X72" s="58"/>
+      <c r="Y72" s="58"/>
+      <c r="Z72" s="58"/>
+      <c r="AA72" s="58"/>
+      <c r="AB72" s="58"/>
+      <c r="AC72" s="58"/>
+      <c r="AD72" s="58"/>
+      <c r="AE72" s="58"/>
+      <c r="AF72" s="58"/>
+      <c r="AG72" s="58"/>
+      <c r="AH72" s="58"/>
+      <c r="AI72" s="58"/>
+      <c r="AJ72" s="58"/>
+      <c r="AK72" s="58"/>
+      <c r="AL72" s="59"/>
     </row>
-    <row r="74" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="12" t="str">
+    <row r="73" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ73" s="19"/>
+      <c r="AK73" s="19"/>
+      <c r="AL73" s="29"/>
+    </row>
+    <row r="74" spans="3:38" x14ac:dyDescent="0.4">
+      <c r="C74" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="58"/>
+      <c r="S74" s="58"/>
+      <c r="T74" s="58"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="58"/>
+      <c r="W74" s="58"/>
+      <c r="X74" s="58"/>
+      <c r="Y74" s="58"/>
+      <c r="Z74" s="58"/>
+      <c r="AA74" s="58"/>
+      <c r="AB74" s="58"/>
+      <c r="AC74" s="58"/>
+      <c r="AD74" s="58"/>
+      <c r="AE74" s="58"/>
+      <c r="AF74" s="58"/>
+      <c r="AG74" s="58"/>
+      <c r="AH74" s="58"/>
+      <c r="AI74" s="58"/>
+      <c r="AJ74" s="58"/>
+      <c r="AK74" s="58"/>
+      <c r="AL74" s="59"/>
+    </row>
+    <row r="75" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ75" s="19"/>
+      <c r="AK75" s="19"/>
+      <c r="AL75" s="29"/>
+    </row>
+    <row r="76" spans="3:38" x14ac:dyDescent="0.4">
+      <c r="C76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="58"/>
+      <c r="T76" s="58"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="58"/>
+      <c r="W76" s="58"/>
+      <c r="X76" s="58"/>
+      <c r="Y76" s="58"/>
+      <c r="Z76" s="58"/>
+      <c r="AA76" s="58"/>
+      <c r="AB76" s="58"/>
+      <c r="AC76" s="58"/>
+      <c r="AD76" s="58"/>
+      <c r="AE76" s="58"/>
+      <c r="AF76" s="58"/>
+      <c r="AG76" s="58"/>
+      <c r="AH76" s="58"/>
+      <c r="AI76" s="58"/>
+      <c r="AJ76" s="58"/>
+      <c r="AK76" s="58"/>
+      <c r="AL76" s="59"/>
+    </row>
+    <row r="77" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="19"/>
+      <c r="AL77" s="29"/>
+    </row>
+    <row r="78" spans="3:38" x14ac:dyDescent="0.4">
+      <c r="C78" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="58"/>
+      <c r="W78" s="58"/>
+      <c r="X78" s="58"/>
+      <c r="Y78" s="58"/>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="58"/>
+      <c r="AB78" s="58"/>
+      <c r="AC78" s="58"/>
+      <c r="AD78" s="58"/>
+      <c r="AE78" s="58"/>
+      <c r="AF78" s="58"/>
+      <c r="AG78" s="58"/>
+      <c r="AH78" s="58"/>
+      <c r="AI78" s="58"/>
+      <c r="AJ78" s="58"/>
+      <c r="AK78" s="58"/>
+      <c r="AL78" s="59"/>
+    </row>
+    <row r="79" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF79" s="19"/>
+      <c r="AG79" s="19"/>
+      <c r="AH79" s="19"/>
+      <c r="AI79" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ79" s="19"/>
+      <c r="AK79" s="19"/>
+      <c r="AL79" s="29"/>
+    </row>
+    <row r="80" spans="3:38" x14ac:dyDescent="0.4">
+      <c r="C80" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="G80" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="58"/>
+      <c r="R80" s="58"/>
+      <c r="S80" s="58"/>
+      <c r="T80" s="58"/>
+      <c r="U80" s="58"/>
+      <c r="V80" s="58"/>
+      <c r="W80" s="58"/>
+      <c r="X80" s="58"/>
+      <c r="Y80" s="58"/>
+      <c r="Z80" s="58"/>
+      <c r="AA80" s="58"/>
+      <c r="AB80" s="58"/>
+      <c r="AC80" s="58"/>
+      <c r="AD80" s="58"/>
+      <c r="AE80" s="58"/>
+      <c r="AF80" s="58"/>
+      <c r="AG80" s="58"/>
+      <c r="AH80" s="58"/>
+      <c r="AI80" s="58"/>
+      <c r="AJ80" s="58"/>
+      <c r="AK80" s="58"/>
+      <c r="AL80" s="59"/>
+    </row>
+    <row r="81" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
+      <c r="X81" s="46"/>
+      <c r="Y81" s="46"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="46"/>
+      <c r="AD81" s="46"/>
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="46"/>
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="47"/>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C82" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="58"/>
+      <c r="S82" s="58"/>
+      <c r="T82" s="58"/>
+      <c r="U82" s="58"/>
+      <c r="V82" s="58"/>
+      <c r="W82" s="58"/>
+      <c r="X82" s="58"/>
+      <c r="Y82" s="58"/>
+      <c r="Z82" s="58"/>
+      <c r="AA82" s="58"/>
+      <c r="AB82" s="58"/>
+      <c r="AC82" s="58"/>
+      <c r="AD82" s="58"/>
+      <c r="AE82" s="58"/>
+      <c r="AF82" s="58"/>
+      <c r="AG82" s="58"/>
+      <c r="AH82" s="58"/>
+      <c r="AI82" s="58"/>
+      <c r="AJ82" s="58"/>
+      <c r="AK82" s="58"/>
+      <c r="AL82" s="59"/>
+    </row>
+    <row r="83" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF83" s="19"/>
+      <c r="AG83" s="19"/>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ83" s="19"/>
+      <c r="AK83" s="19"/>
+      <c r="AL83" s="29"/>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C84" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="58"/>
+      <c r="S84" s="58"/>
+      <c r="T84" s="58"/>
+      <c r="U84" s="58"/>
+      <c r="V84" s="58"/>
+      <c r="W84" s="58"/>
+      <c r="X84" s="58"/>
+      <c r="Y84" s="58"/>
+      <c r="Z84" s="58"/>
+      <c r="AA84" s="58"/>
+      <c r="AB84" s="58"/>
+      <c r="AC84" s="58"/>
+      <c r="AD84" s="58"/>
+      <c r="AE84" s="58"/>
+      <c r="AF84" s="58"/>
+      <c r="AG84" s="58"/>
+      <c r="AH84" s="58"/>
+      <c r="AI84" s="58"/>
+      <c r="AJ84" s="58"/>
+      <c r="AK84" s="58"/>
+      <c r="AL84" s="59"/>
+    </row>
+    <row r="85" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19"/>
+      <c r="AE85" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF85" s="19"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="19"/>
+      <c r="AI85" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ85" s="19"/>
+      <c r="AK85" s="19"/>
+      <c r="AL85" s="29"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="66"/>
+      <c r="T87" s="66"/>
+      <c r="U87" s="66"/>
+      <c r="V87" s="66"/>
+      <c r="W87" s="66"/>
+      <c r="X87" s="66"/>
+      <c r="Y87" s="66"/>
+      <c r="Z87" s="66"/>
+      <c r="AA87" s="66"/>
+      <c r="AB87" s="66"/>
+      <c r="AC87" s="66"/>
+      <c r="AD87" s="66"/>
+      <c r="AE87" s="66"/>
+      <c r="AF87" s="66"/>
+      <c r="AG87" s="66"/>
+      <c r="AH87" s="66"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="O88" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="70"/>
+      <c r="U88" s="70"/>
+      <c r="V88" s="70"/>
+      <c r="W88" s="70"/>
+      <c r="X88" s="70"/>
+      <c r="Y88" s="70"/>
+      <c r="Z88" s="70"/>
+      <c r="AA88" s="70"/>
+      <c r="AB88" s="70"/>
+      <c r="AC88" s="70"/>
+      <c r="AD88" s="70"/>
+      <c r="AE88" s="70"/>
+      <c r="AF88" s="70"/>
+      <c r="AG88" s="70"/>
+      <c r="AH88" s="70"/>
+      <c r="AI88" s="70"/>
+      <c r="AJ88" s="70"/>
+      <c r="AK88" s="70"/>
+      <c r="AL88" s="71"/>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="O89" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
+      <c r="S89" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="T89" s="76"/>
+      <c r="U89" s="76"/>
+      <c r="V89" s="76"/>
+      <c r="W89" s="76"/>
+      <c r="X89" s="77"/>
+      <c r="Y89" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="68"/>
+      <c r="AB89" s="68"/>
+      <c r="AC89" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD89" s="73"/>
+      <c r="AE89" s="73"/>
+      <c r="AF89" s="73"/>
+      <c r="AG89" s="73"/>
+      <c r="AH89" s="73"/>
+      <c r="AI89" s="73"/>
+      <c r="AJ89" s="73"/>
+      <c r="AK89" s="73"/>
+      <c r="AL89" s="74"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="O90" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
+      <c r="R90" s="68"/>
+      <c r="S90" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="T90" s="76"/>
+      <c r="U90" s="76"/>
+      <c r="V90" s="76"/>
+      <c r="W90" s="76"/>
+      <c r="X90" s="77"/>
+      <c r="Y90" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z90" s="68"/>
+      <c r="AA90" s="68"/>
+      <c r="AB90" s="68"/>
+      <c r="AC90" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD90" s="73"/>
+      <c r="AE90" s="73"/>
+      <c r="AF90" s="73"/>
+      <c r="AG90" s="73"/>
+      <c r="AH90" s="73"/>
+      <c r="AI90" s="73"/>
+      <c r="AJ90" s="73"/>
+      <c r="AK90" s="73"/>
+      <c r="AL90" s="74"/>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A91" s="65"/>
+      <c r="B91" s="65"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="64">
+        <v>127</v>
+      </c>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="11">
+        <v>120</v>
+      </c>
+      <c r="R91" s="78"/>
+      <c r="S91" s="64">
+        <v>119</v>
+      </c>
+      <c r="T91" s="64"/>
+      <c r="W91" s="11">
+        <v>80</v>
+      </c>
+      <c r="X91" s="78"/>
+      <c r="Y91" s="64">
+        <v>79</v>
+      </c>
+      <c r="Z91" s="64"/>
+      <c r="AA91" s="11">
+        <v>64</v>
+      </c>
+      <c r="AB91" s="78"/>
+      <c r="AC91" s="64">
+        <v>63</v>
+      </c>
+      <c r="AD91" s="64"/>
+      <c r="AK91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="78"/>
+      <c r="AM91" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN91" s="65"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+    </row>
+    <row r="109" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="61" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="12" t="str">
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="61" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="12" t="str">
+      <c r="L109" s="62"/>
+      <c r="M109" s="62"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="61" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="12" t="str">
+      <c r="P109" s="62"/>
+      <c r="Q109" s="62"/>
+      <c r="R109" s="63"/>
+      <c r="S109" s="61" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="12" t="str">
+      <c r="T109" s="62"/>
+      <c r="U109" s="62"/>
+      <c r="V109" s="63"/>
+      <c r="W109" s="61" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="12" t="str">
+      <c r="X109" s="62"/>
+      <c r="Y109" s="62"/>
+      <c r="Z109" s="63"/>
+      <c r="AA109" s="61" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="14"/>
-      <c r="AD74" s="12" t="str">
+      <c r="AB109" s="62"/>
+      <c r="AC109" s="62"/>
+      <c r="AD109" s="63"/>
+      <c r="AE109" s="61" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE74" s="13"/>
-      <c r="AF74" s="13"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="12" t="str">
+      <c r="AF109" s="62"/>
+      <c r="AG109" s="62"/>
+      <c r="AH109" s="63"/>
+      <c r="AI109" s="61" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI74" s="13"/>
-      <c r="AJ74" s="13"/>
-      <c r="AK74" s="14"/>
+      <c r="AJ109" s="62"/>
+      <c r="AK109" s="62"/>
+      <c r="AL109" s="63"/>
     </row>
-    <row r="75" spans="3:47" x14ac:dyDescent="0.4">
-      <c r="C75" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="38" t="s">
+    <row r="110" spans="3:38" x14ac:dyDescent="0.4">
+      <c r="C110" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="39" t="s">
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
-      <c r="X75" s="46"/>
-      <c r="Y75" s="46"/>
-      <c r="Z75" s="46"/>
-      <c r="AA75" s="46"/>
-      <c r="AB75" s="46"/>
-      <c r="AC75" s="46"/>
-      <c r="AD75" s="46"/>
-      <c r="AE75" s="46"/>
-      <c r="AF75" s="46"/>
-      <c r="AG75" s="46"/>
-      <c r="AH75" s="46"/>
-      <c r="AI75" s="46"/>
-      <c r="AJ75" s="46"/>
-      <c r="AK75" s="60"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="16"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="16"/>
+      <c r="Y110" s="16"/>
+      <c r="Z110" s="16"/>
+      <c r="AA110" s="16"/>
+      <c r="AB110" s="16"/>
+      <c r="AC110" s="16"/>
+      <c r="AD110" s="24"/>
+      <c r="AE110" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF110" s="25"/>
+      <c r="AG110" s="25"/>
+      <c r="AH110" s="25"/>
+      <c r="AI110" s="25"/>
+      <c r="AJ110" s="25"/>
+      <c r="AK110" s="25"/>
+      <c r="AL110" s="26"/>
     </row>
-    <row r="76" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="48" t="s">
+    <row r="111" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="61"/>
-      <c r="U76" s="61"/>
-      <c r="V76" s="61"/>
-      <c r="W76" s="61"/>
-      <c r="X76" s="61"/>
-      <c r="Y76" s="61"/>
-      <c r="Z76" s="61"/>
-      <c r="AA76" s="61"/>
-      <c r="AB76" s="61"/>
-      <c r="AC76" s="61"/>
-      <c r="AD76" s="61"/>
-      <c r="AE76" s="61"/>
-      <c r="AF76" s="61"/>
-      <c r="AG76" s="61"/>
-      <c r="AH76" s="61"/>
-      <c r="AI76" s="61"/>
-      <c r="AJ76" s="61"/>
-      <c r="AK76" s="62"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="27"/>
+      <c r="R111" s="27"/>
+      <c r="S111" s="27"/>
+      <c r="T111" s="27"/>
+      <c r="U111" s="27"/>
+      <c r="V111" s="27"/>
+      <c r="W111" s="27"/>
+      <c r="X111" s="27"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="27"/>
+      <c r="AA111" s="27"/>
+      <c r="AB111" s="27"/>
+      <c r="AC111" s="27"/>
+      <c r="AD111" s="28"/>
+      <c r="AE111" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF111" s="19"/>
+      <c r="AG111" s="19"/>
+      <c r="AH111" s="19"/>
+      <c r="AI111" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ111" s="19"/>
+      <c r="AK111" s="19"/>
+      <c r="AL111" s="29"/>
     </row>
-    <row r="79" spans="3:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="12" t="str">
+    <row r="114" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="12" t="str">
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="12" t="str">
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="12" t="str">
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="12" t="str">
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="14"/>
-      <c r="Z79" s="12" t="str">
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="10"/>
+      <c r="Z114" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="14"/>
-      <c r="AD79" s="12" t="str">
+      <c r="AA114" s="9"/>
+      <c r="AB114" s="9"/>
+      <c r="AC114" s="10"/>
+      <c r="AD114" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE79" s="13"/>
-      <c r="AF79" s="13"/>
-      <c r="AG79" s="14"/>
-      <c r="AH79" s="12" t="str">
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="9"/>
+      <c r="AG114" s="10"/>
+      <c r="AH114" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI79" s="13"/>
-      <c r="AJ79" s="13"/>
-      <c r="AK79" s="14"/>
+      <c r="AI114" s="9"/>
+      <c r="AJ114" s="9"/>
+      <c r="AK114" s="10"/>
     </row>
-    <row r="80" spans="3:47" x14ac:dyDescent="0.4">
-      <c r="C80" s="16" t="s">
+    <row r="115" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C115" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="38" t="s">
+      <c r="D115" s="11"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="39" t="s">
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
-      <c r="X80" s="46"/>
-      <c r="Y80" s="46"/>
-      <c r="Z80" s="46"/>
-      <c r="AA80" s="46"/>
-      <c r="AB80" s="46"/>
-      <c r="AC80" s="46"/>
-      <c r="AD80" s="46"/>
-      <c r="AE80" s="46"/>
-      <c r="AF80" s="46"/>
-      <c r="AG80" s="46"/>
-      <c r="AH80" s="46"/>
-      <c r="AI80" s="46"/>
-      <c r="AJ80" s="46"/>
-      <c r="AK80" s="60"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="16"/>
+      <c r="W115" s="16"/>
+      <c r="X115" s="16"/>
+      <c r="Y115" s="16"/>
+      <c r="Z115" s="16"/>
+      <c r="AA115" s="16"/>
+      <c r="AB115" s="16"/>
+      <c r="AC115" s="16"/>
+      <c r="AD115" s="16"/>
+      <c r="AE115" s="16"/>
+      <c r="AF115" s="16"/>
+      <c r="AG115" s="16"/>
+      <c r="AH115" s="16"/>
+      <c r="AI115" s="16"/>
+      <c r="AJ115" s="16"/>
+      <c r="AK115" s="17"/>
     </row>
-    <row r="81" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="48" t="s">
+    <row r="116" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
-      <c r="S81" s="61"/>
-      <c r="T81" s="61"/>
-      <c r="U81" s="61"/>
-      <c r="V81" s="61"/>
-      <c r="W81" s="61"/>
-      <c r="X81" s="61"/>
-      <c r="Y81" s="61"/>
-      <c r="Z81" s="61"/>
-      <c r="AA81" s="61"/>
-      <c r="AB81" s="61"/>
-      <c r="AC81" s="61"/>
-      <c r="AD81" s="61"/>
-      <c r="AE81" s="61"/>
-      <c r="AF81" s="61"/>
-      <c r="AG81" s="61"/>
-      <c r="AH81" s="61"/>
-      <c r="AI81" s="61"/>
-      <c r="AJ81" s="61"/>
-      <c r="AK81" s="62"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+      <c r="AH116" s="21"/>
+      <c r="AI116" s="21"/>
+      <c r="AJ116" s="21"/>
+      <c r="AK116" s="22"/>
     </row>
-    <row r="84" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="12" t="str">
+    <row r="119" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="12" t="str">
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="12" t="str">
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="12" t="str">
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="12" t="str">
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="12" t="str">
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="13"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="12" t="str">
+      <c r="AA119" s="9"/>
+      <c r="AB119" s="9"/>
+      <c r="AC119" s="10"/>
+      <c r="AD119" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE84" s="13"/>
-      <c r="AF84" s="13"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="12" t="str">
+      <c r="AE119" s="9"/>
+      <c r="AF119" s="9"/>
+      <c r="AG119" s="10"/>
+      <c r="AH119" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI84" s="13"/>
-      <c r="AJ84" s="13"/>
-      <c r="AK84" s="14"/>
+      <c r="AI119" s="9"/>
+      <c r="AJ119" s="9"/>
+      <c r="AK119" s="10"/>
     </row>
-    <row r="85" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C85" s="16" t="s">
+    <row r="120" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C120" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="38" t="s">
+      <c r="D120" s="11"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="39" t="s">
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="46"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="46"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="46"/>
-      <c r="X85" s="46"/>
-      <c r="Y85" s="46"/>
-      <c r="Z85" s="46"/>
-      <c r="AA85" s="46"/>
-      <c r="AB85" s="46"/>
-      <c r="AC85" s="46"/>
-      <c r="AD85" s="46"/>
-      <c r="AE85" s="46"/>
-      <c r="AF85" s="46"/>
-      <c r="AG85" s="46"/>
-      <c r="AH85" s="46"/>
-      <c r="AI85" s="46"/>
-      <c r="AJ85" s="46"/>
-      <c r="AK85" s="60"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
+      <c r="Z120" s="16"/>
+      <c r="AA120" s="16"/>
+      <c r="AB120" s="16"/>
+      <c r="AC120" s="16"/>
+      <c r="AD120" s="16"/>
+      <c r="AE120" s="16"/>
+      <c r="AF120" s="16"/>
+      <c r="AG120" s="16"/>
+      <c r="AH120" s="16"/>
+      <c r="AI120" s="16"/>
+      <c r="AJ120" s="16"/>
+      <c r="AK120" s="17"/>
     </row>
-    <row r="86" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="48" t="s">
+    <row r="121" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="61"/>
-      <c r="S86" s="61"/>
-      <c r="T86" s="61"/>
-      <c r="U86" s="61"/>
-      <c r="V86" s="61"/>
-      <c r="W86" s="61"/>
-      <c r="X86" s="61"/>
-      <c r="Y86" s="61"/>
-      <c r="Z86" s="61"/>
-      <c r="AA86" s="61"/>
-      <c r="AB86" s="61"/>
-      <c r="AC86" s="61"/>
-      <c r="AD86" s="61"/>
-      <c r="AE86" s="61"/>
-      <c r="AF86" s="61"/>
-      <c r="AG86" s="61"/>
-      <c r="AH86" s="61"/>
-      <c r="AI86" s="61"/>
-      <c r="AJ86" s="61"/>
-      <c r="AK86" s="62"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+      <c r="AH121" s="21"/>
+      <c r="AI121" s="21"/>
+      <c r="AJ121" s="21"/>
+      <c r="AK121" s="22"/>
     </row>
-    <row r="89" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="12" t="str">
+    <row r="124" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="12" t="str">
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="12" t="str">
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="12" t="str">
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="12" t="str">
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="10"/>
+      <c r="V124" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-      <c r="Y89" s="14"/>
-      <c r="Z89" s="12" t="str">
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="10"/>
+      <c r="Z124" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA89" s="13"/>
-      <c r="AB89" s="13"/>
-      <c r="AC89" s="14"/>
-      <c r="AD89" s="12" t="str">
+      <c r="AA124" s="9"/>
+      <c r="AB124" s="9"/>
+      <c r="AC124" s="10"/>
+      <c r="AD124" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE89" s="13"/>
-      <c r="AF89" s="13"/>
-      <c r="AG89" s="14"/>
-      <c r="AH89" s="12" t="str">
+      <c r="AE124" s="9"/>
+      <c r="AF124" s="9"/>
+      <c r="AG124" s="10"/>
+      <c r="AH124" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI89" s="13"/>
-      <c r="AJ89" s="13"/>
-      <c r="AK89" s="14"/>
+      <c r="AI124" s="9"/>
+      <c r="AJ124" s="9"/>
+      <c r="AK124" s="10"/>
     </row>
-    <row r="90" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C90" s="16" t="s">
+    <row r="125" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C125" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="38" t="s">
+      <c r="D125" s="11"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="39" t="s">
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="46"/>
-      <c r="S90" s="46"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="46"/>
-      <c r="W90" s="46"/>
-      <c r="X90" s="46"/>
-      <c r="Y90" s="46"/>
-      <c r="Z90" s="46"/>
-      <c r="AA90" s="46"/>
-      <c r="AB90" s="46"/>
-      <c r="AC90" s="46"/>
-      <c r="AD90" s="46"/>
-      <c r="AE90" s="46"/>
-      <c r="AF90" s="46"/>
-      <c r="AG90" s="46"/>
-      <c r="AH90" s="46"/>
-      <c r="AI90" s="46"/>
-      <c r="AJ90" s="46"/>
-      <c r="AK90" s="60"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
+      <c r="W125" s="16"/>
+      <c r="X125" s="16"/>
+      <c r="Y125" s="16"/>
+      <c r="Z125" s="16"/>
+      <c r="AA125" s="16"/>
+      <c r="AB125" s="16"/>
+      <c r="AC125" s="16"/>
+      <c r="AD125" s="16"/>
+      <c r="AE125" s="16"/>
+      <c r="AF125" s="16"/>
+      <c r="AG125" s="16"/>
+      <c r="AH125" s="16"/>
+      <c r="AI125" s="16"/>
+      <c r="AJ125" s="16"/>
+      <c r="AK125" s="17"/>
     </row>
-    <row r="91" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="48" t="s">
+    <row r="126" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K91" s="61"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="61"/>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="61"/>
-      <c r="S91" s="61"/>
-      <c r="T91" s="61"/>
-      <c r="U91" s="61"/>
-      <c r="V91" s="61"/>
-      <c r="W91" s="61"/>
-      <c r="X91" s="61"/>
-      <c r="Y91" s="61"/>
-      <c r="Z91" s="61"/>
-      <c r="AA91" s="61"/>
-      <c r="AB91" s="61"/>
-      <c r="AC91" s="61"/>
-      <c r="AD91" s="61"/>
-      <c r="AE91" s="61"/>
-      <c r="AF91" s="61"/>
-      <c r="AG91" s="61"/>
-      <c r="AH91" s="61"/>
-      <c r="AI91" s="61"/>
-      <c r="AJ91" s="61"/>
-      <c r="AK91" s="62"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
+      <c r="AD126" s="21"/>
+      <c r="AE126" s="21"/>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+      <c r="AH126" s="21"/>
+      <c r="AI126" s="21"/>
+      <c r="AJ126" s="21"/>
+      <c r="AK126" s="22"/>
     </row>
-    <row r="94" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="12" t="str">
+    <row r="129" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="12" t="str">
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="12" t="str">
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="12" t="str">
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="12" t="str">
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="10"/>
+      <c r="V129" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="12" t="str">
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="10"/>
+      <c r="Z129" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA94" s="13"/>
-      <c r="AB94" s="13"/>
-      <c r="AC94" s="14"/>
-      <c r="AD94" s="12" t="str">
+      <c r="AA129" s="9"/>
+      <c r="AB129" s="9"/>
+      <c r="AC129" s="10"/>
+      <c r="AD129" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE94" s="13"/>
-      <c r="AF94" s="13"/>
-      <c r="AG94" s="14"/>
-      <c r="AH94" s="12" t="str">
+      <c r="AE129" s="9"/>
+      <c r="AF129" s="9"/>
+      <c r="AG129" s="10"/>
+      <c r="AH129" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI94" s="13"/>
-      <c r="AJ94" s="13"/>
-      <c r="AK94" s="14"/>
+      <c r="AI129" s="9"/>
+      <c r="AJ129" s="9"/>
+      <c r="AK129" s="10"/>
     </row>
-    <row r="95" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C95" s="16" t="s">
+    <row r="130" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C130" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="38" t="s">
+      <c r="D130" s="11"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="39" t="s">
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="46"/>
-      <c r="V95" s="46"/>
-      <c r="W95" s="46"/>
-      <c r="X95" s="46"/>
-      <c r="Y95" s="46"/>
-      <c r="Z95" s="46"/>
-      <c r="AA95" s="46"/>
-      <c r="AB95" s="46"/>
-      <c r="AC95" s="46"/>
-      <c r="AD95" s="46"/>
-      <c r="AE95" s="46"/>
-      <c r="AF95" s="46"/>
-      <c r="AG95" s="46"/>
-      <c r="AH95" s="46"/>
-      <c r="AI95" s="46"/>
-      <c r="AJ95" s="46"/>
-      <c r="AK95" s="60"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="16"/>
+      <c r="V130" s="16"/>
+      <c r="W130" s="16"/>
+      <c r="X130" s="16"/>
+      <c r="Y130" s="16"/>
+      <c r="Z130" s="16"/>
+      <c r="AA130" s="16"/>
+      <c r="AB130" s="16"/>
+      <c r="AC130" s="16"/>
+      <c r="AD130" s="16"/>
+      <c r="AE130" s="16"/>
+      <c r="AF130" s="16"/>
+      <c r="AG130" s="16"/>
+      <c r="AH130" s="16"/>
+      <c r="AI130" s="16"/>
+      <c r="AJ130" s="16"/>
+      <c r="AK130" s="17"/>
     </row>
-    <row r="96" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="48" t="s">
+    <row r="131" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K96" s="61"/>
-      <c r="L96" s="61"/>
-      <c r="M96" s="61"/>
-      <c r="N96" s="61"/>
-      <c r="O96" s="61"/>
-      <c r="P96" s="61"/>
-      <c r="Q96" s="61"/>
-      <c r="R96" s="61"/>
-      <c r="S96" s="61"/>
-      <c r="T96" s="61"/>
-      <c r="U96" s="61"/>
-      <c r="V96" s="61"/>
-      <c r="W96" s="61"/>
-      <c r="X96" s="61"/>
-      <c r="Y96" s="61"/>
-      <c r="Z96" s="61"/>
-      <c r="AA96" s="61"/>
-      <c r="AB96" s="61"/>
-      <c r="AC96" s="61"/>
-      <c r="AD96" s="61"/>
-      <c r="AE96" s="61"/>
-      <c r="AF96" s="61"/>
-      <c r="AG96" s="61"/>
-      <c r="AH96" s="61"/>
-      <c r="AI96" s="61"/>
-      <c r="AJ96" s="61"/>
-      <c r="AK96" s="62"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="21"/>
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21"/>
+      <c r="S131" s="21"/>
+      <c r="T131" s="21"/>
+      <c r="U131" s="21"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+      <c r="Y131" s="21"/>
+      <c r="Z131" s="21"/>
+      <c r="AA131" s="21"/>
+      <c r="AB131" s="21"/>
+      <c r="AC131" s="21"/>
+      <c r="AD131" s="21"/>
+      <c r="AE131" s="21"/>
+      <c r="AF131" s="21"/>
+      <c r="AG131" s="21"/>
+      <c r="AH131" s="21"/>
+      <c r="AI131" s="21"/>
+      <c r="AJ131" s="21"/>
+      <c r="AK131" s="22"/>
     </row>
-    <row r="99" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="12" t="str">
+    <row r="134" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="12" t="str">
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="12" t="str">
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="12" t="str">
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="12" t="str">
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W99" s="13"/>
-      <c r="X99" s="13"/>
-      <c r="Y99" s="14"/>
-      <c r="Z99" s="12" t="str">
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA99" s="13"/>
-      <c r="AB99" s="13"/>
-      <c r="AC99" s="14"/>
-      <c r="AD99" s="12" t="str">
+      <c r="AA134" s="9"/>
+      <c r="AB134" s="9"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE99" s="13"/>
-      <c r="AF99" s="13"/>
-      <c r="AG99" s="14"/>
-      <c r="AH99" s="12" t="str">
+      <c r="AE134" s="9"/>
+      <c r="AF134" s="9"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI99" s="13"/>
-      <c r="AJ99" s="13"/>
-      <c r="AK99" s="14"/>
+      <c r="AI134" s="9"/>
+      <c r="AJ134" s="9"/>
+      <c r="AK134" s="10"/>
     </row>
-    <row r="100" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C100" s="16" t="s">
+    <row r="135" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C135" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="38" t="s">
+      <c r="D135" s="11"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="39" t="s">
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K100" s="46"/>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="46"/>
-      <c r="R100" s="46"/>
-      <c r="S100" s="46"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="46"/>
-      <c r="V100" s="46"/>
-      <c r="W100" s="46"/>
-      <c r="X100" s="46"/>
-      <c r="Y100" s="46"/>
-      <c r="Z100" s="46"/>
-      <c r="AA100" s="46"/>
-      <c r="AB100" s="46"/>
-      <c r="AC100" s="46"/>
-      <c r="AD100" s="46"/>
-      <c r="AE100" s="46"/>
-      <c r="AF100" s="46"/>
-      <c r="AG100" s="46"/>
-      <c r="AH100" s="46"/>
-      <c r="AI100" s="46"/>
-      <c r="AJ100" s="46"/>
-      <c r="AK100" s="60"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="16"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="16"/>
+      <c r="U135" s="16"/>
+      <c r="V135" s="16"/>
+      <c r="W135" s="16"/>
+      <c r="X135" s="16"/>
+      <c r="Y135" s="16"/>
+      <c r="Z135" s="16"/>
+      <c r="AA135" s="16"/>
+      <c r="AB135" s="16"/>
+      <c r="AC135" s="16"/>
+      <c r="AD135" s="16"/>
+      <c r="AE135" s="16"/>
+      <c r="AF135" s="16"/>
+      <c r="AG135" s="16"/>
+      <c r="AH135" s="16"/>
+      <c r="AI135" s="16"/>
+      <c r="AJ135" s="16"/>
+      <c r="AK135" s="17"/>
     </row>
-    <row r="101" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="20" t="s">
+    <row r="136" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="21"/>
+      <c r="P136" s="21"/>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
+      <c r="U136" s="21"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="21"/>
+      <c r="X136" s="21"/>
+      <c r="Y136" s="21"/>
+      <c r="Z136" s="21"/>
+      <c r="AA136" s="21"/>
+      <c r="AB136" s="21"/>
+      <c r="AC136" s="21"/>
+      <c r="AD136" s="21"/>
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="21"/>
+      <c r="AG136" s="21"/>
+      <c r="AH136" s="21"/>
+      <c r="AI136" s="21"/>
+      <c r="AJ136" s="21"/>
+      <c r="AK136" s="22"/>
+    </row>
+    <row r="139" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="8" t="str">
+        <f>"+0"</f>
+        <v>+0</v>
+      </c>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="8" t="str">
+        <f>"+1"</f>
+        <v>+1</v>
+      </c>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="8" t="str">
+        <f>"+2"</f>
+        <v>+2</v>
+      </c>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="8" t="str">
+        <f>"+3"</f>
+        <v>+3</v>
+      </c>
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="8" t="str">
+        <f>"+4"</f>
+        <v>+4</v>
+      </c>
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="8" t="str">
+        <f>"+5"</f>
+        <v>+5</v>
+      </c>
+      <c r="AA139" s="9"/>
+      <c r="AB139" s="9"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="8" t="str">
+        <f>"+6"</f>
+        <v>+6</v>
+      </c>
+      <c r="AE139" s="9"/>
+      <c r="AF139" s="9"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="8" t="str">
+        <f>"+7"</f>
+        <v>+7</v>
+      </c>
+      <c r="AI139" s="9"/>
+      <c r="AJ139" s="9"/>
+      <c r="AK139" s="10"/>
+    </row>
+    <row r="140" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C140" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+      <c r="R140" s="16"/>
+      <c r="S140" s="16"/>
+      <c r="T140" s="16"/>
+      <c r="U140" s="16"/>
+      <c r="V140" s="16"/>
+      <c r="W140" s="16"/>
+      <c r="X140" s="16"/>
+      <c r="Y140" s="16"/>
+      <c r="Z140" s="16"/>
+      <c r="AA140" s="16"/>
+      <c r="AB140" s="16"/>
+      <c r="AC140" s="16"/>
+      <c r="AD140" s="16"/>
+      <c r="AE140" s="16"/>
+      <c r="AF140" s="16"/>
+      <c r="AG140" s="16"/>
+      <c r="AH140" s="16"/>
+      <c r="AI140" s="16"/>
+      <c r="AJ140" s="16"/>
+      <c r="AK140" s="17"/>
+    </row>
+    <row r="141" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="48" t="s">
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K101" s="61"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
-      <c r="N101" s="61"/>
-      <c r="O101" s="61"/>
-      <c r="P101" s="61"/>
-      <c r="Q101" s="61"/>
-      <c r="R101" s="61"/>
-      <c r="S101" s="61"/>
-      <c r="T101" s="61"/>
-      <c r="U101" s="61"/>
-      <c r="V101" s="61"/>
-      <c r="W101" s="61"/>
-      <c r="X101" s="61"/>
-      <c r="Y101" s="61"/>
-      <c r="Z101" s="61"/>
-      <c r="AA101" s="61"/>
-      <c r="AB101" s="61"/>
-      <c r="AC101" s="61"/>
-      <c r="AD101" s="61"/>
-      <c r="AE101" s="61"/>
-      <c r="AF101" s="61"/>
-      <c r="AG101" s="61"/>
-      <c r="AH101" s="61"/>
-      <c r="AI101" s="61"/>
-      <c r="AJ101" s="61"/>
-      <c r="AK101" s="62"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21"/>
+      <c r="O141" s="21"/>
+      <c r="P141" s="21"/>
+      <c r="Q141" s="21"/>
+      <c r="R141" s="21"/>
+      <c r="S141" s="21"/>
+      <c r="T141" s="21"/>
+      <c r="U141" s="21"/>
+      <c r="V141" s="21"/>
+      <c r="W141" s="21"/>
+      <c r="X141" s="21"/>
+      <c r="Y141" s="21"/>
+      <c r="Z141" s="21"/>
+      <c r="AA141" s="21"/>
+      <c r="AB141" s="21"/>
+      <c r="AC141" s="21"/>
+      <c r="AD141" s="21"/>
+      <c r="AE141" s="21"/>
+      <c r="AF141" s="21"/>
+      <c r="AG141" s="21"/>
+      <c r="AH141" s="21"/>
+      <c r="AI141" s="21"/>
+      <c r="AJ141" s="21"/>
+      <c r="AK141" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="R99:U99"/>
-    <mergeCell ref="V99:Y99"/>
-    <mergeCell ref="Z99:AC99"/>
-    <mergeCell ref="AD99:AG99"/>
-    <mergeCell ref="AH99:AK99"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:AK100"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:AK101"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="Z94:AC94"/>
-    <mergeCell ref="AD94:AG94"/>
-    <mergeCell ref="AH94:AK94"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:AK95"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:AK96"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="V89:Y89"/>
-    <mergeCell ref="Z89:AC89"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AH89:AK89"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:AK90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:AK91"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:AK85"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:AK86"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="V79:Y79"/>
-    <mergeCell ref="Z79:AC79"/>
-    <mergeCell ref="AD79:AG79"/>
-    <mergeCell ref="AH79:AK79"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:AK80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:AK81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="V74:Y74"/>
-    <mergeCell ref="Z74:AC74"/>
-    <mergeCell ref="AD74:AG74"/>
-    <mergeCell ref="AH74:AK74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J75:AK75"/>
-    <mergeCell ref="J76:AK76"/>
-    <mergeCell ref="C75:D76"/>
+  <mergeCells count="351">
+    <mergeCell ref="O88:AL88"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="AM91:AN91"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="Y90:AB90"/>
+    <mergeCell ref="AC89:AL89"/>
+    <mergeCell ref="Y89:AB89"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AK91:AL91"/>
+    <mergeCell ref="AC90:AL90"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="S90:X90"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="AE85:AH85"/>
+    <mergeCell ref="C84:E85"/>
+    <mergeCell ref="G84:AL84"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:Z69"/>
+    <mergeCell ref="AA69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="AI69:AL69"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="AI85:AL85"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="G80:AL80"/>
+    <mergeCell ref="G81:AL81"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="G82:AL82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
+    <mergeCell ref="AI83:AL83"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="G78:AL78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="AI79:AL79"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="AE79:AH79"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="G76:AL76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="AE77:AH77"/>
+    <mergeCell ref="AI77:AL77"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="G74:AL74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="AI75:AL75"/>
     <mergeCell ref="C70:E71"/>
     <mergeCell ref="G70:J70"/>
     <mergeCell ref="K70:AD70"/>
@@ -18228,38 +19583,126 @@
     <mergeCell ref="K71:AD71"/>
     <mergeCell ref="AE71:AH71"/>
     <mergeCell ref="AI71:AL71"/>
-    <mergeCell ref="G57:AL57"/>
-    <mergeCell ref="C57:E59"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W69:Z69"/>
-    <mergeCell ref="AA69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="AI69:AL69"/>
-    <mergeCell ref="C63:E65"/>
-    <mergeCell ref="G63:AL63"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="O64:AH64"/>
-    <mergeCell ref="AI64:AL64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:AH65"/>
-    <mergeCell ref="AI65:AL65"/>
-    <mergeCell ref="G58:AL58"/>
-    <mergeCell ref="G59:AL59"/>
-    <mergeCell ref="C60:E62"/>
-    <mergeCell ref="G60:AL60"/>
-    <mergeCell ref="G61:AL61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="AI62:AL62"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="G72:AL72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="W73:Z73"/>
+    <mergeCell ref="AA73:AD73"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="AI73:AL73"/>
+    <mergeCell ref="AI42:AL42"/>
+    <mergeCell ref="K43:AD43"/>
+    <mergeCell ref="K44:AD44"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="C51:E53"/>
+    <mergeCell ref="G51:AL51"/>
+    <mergeCell ref="G52:AL52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="W53:Z53"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="AI53:AL53"/>
+    <mergeCell ref="C54:E56"/>
+    <mergeCell ref="G54:AL54"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="O55:AH55"/>
+    <mergeCell ref="C48:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="G48:AL48"/>
+    <mergeCell ref="G49:N49"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="O49:AH49"/>
+    <mergeCell ref="O50:AH50"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="C45:E47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="G45:AL45"/>
+    <mergeCell ref="G46:AL46"/>
+    <mergeCell ref="W47:Z47"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AE47:AH47"/>
+    <mergeCell ref="AI47:AL47"/>
+    <mergeCell ref="AE43:AL43"/>
+    <mergeCell ref="AE44:AH44"/>
+    <mergeCell ref="AI44:AL44"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="AE42:AH42"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:U35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="N37:U37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="G28:V28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="G24:V24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="G26:V26"/>
+    <mergeCell ref="G27:V27"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="G22:V22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:V18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
     <mergeCell ref="AI55:AL55"/>
     <mergeCell ref="O56:AH56"/>
     <mergeCell ref="AI56:AL56"/>
@@ -18284,119 +19727,128 @@
     <mergeCell ref="E6:O6"/>
     <mergeCell ref="E7:O7"/>
     <mergeCell ref="E8:O8"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:V18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="G22:V22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="G24:V24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="G26:V26"/>
-    <mergeCell ref="G27:V27"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="G28:V28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:U35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="N37:U37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="C45:E47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="G45:AL45"/>
-    <mergeCell ref="G46:AL46"/>
-    <mergeCell ref="W47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AE47:AH47"/>
-    <mergeCell ref="AI47:AL47"/>
-    <mergeCell ref="C48:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="G48:AL48"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="O49:AH49"/>
-    <mergeCell ref="O50:AH50"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="C51:E53"/>
-    <mergeCell ref="G51:AL51"/>
-    <mergeCell ref="G52:AL52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="W53:Z53"/>
-    <mergeCell ref="AA53:AD53"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="AI53:AL53"/>
-    <mergeCell ref="C54:E56"/>
-    <mergeCell ref="G54:AL54"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="O55:AH55"/>
-    <mergeCell ref="AE43:AL43"/>
-    <mergeCell ref="AE44:AH44"/>
-    <mergeCell ref="AI44:AL44"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="AE42:AH42"/>
-    <mergeCell ref="AI42:AL42"/>
-    <mergeCell ref="K43:AD43"/>
-    <mergeCell ref="K44:AD44"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:AH65"/>
+    <mergeCell ref="AI65:AL65"/>
+    <mergeCell ref="G58:AL58"/>
+    <mergeCell ref="G59:AL59"/>
+    <mergeCell ref="C60:E62"/>
+    <mergeCell ref="G60:AL60"/>
+    <mergeCell ref="G61:AL61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="AI62:AL62"/>
+    <mergeCell ref="C110:E111"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="K110:AD110"/>
+    <mergeCell ref="AE110:AL110"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="K111:AD111"/>
+    <mergeCell ref="AE111:AH111"/>
+    <mergeCell ref="AI111:AL111"/>
+    <mergeCell ref="G57:AL57"/>
+    <mergeCell ref="C57:E59"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="K109:N109"/>
+    <mergeCell ref="O109:R109"/>
+    <mergeCell ref="S109:V109"/>
+    <mergeCell ref="W109:Z109"/>
+    <mergeCell ref="AA109:AD109"/>
+    <mergeCell ref="AE109:AH109"/>
+    <mergeCell ref="AI109:AL109"/>
+    <mergeCell ref="C63:E65"/>
+    <mergeCell ref="G63:AL63"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="O64:AH64"/>
+    <mergeCell ref="AI64:AL64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:AK121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:Y114"/>
+    <mergeCell ref="Z114:AC114"/>
+    <mergeCell ref="AD114:AG114"/>
+    <mergeCell ref="AH114:AK114"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J115:AK115"/>
+    <mergeCell ref="J116:AK116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:Y119"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AG119"/>
+    <mergeCell ref="AH119:AK119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:AK120"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="J125:AK125"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="J126:AK126"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="J129:M129"/>
+    <mergeCell ref="N129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:Y129"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="AD129:AG129"/>
+    <mergeCell ref="AH129:AK129"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="J130:AK130"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="J131:AK131"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="J135:AK135"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="J136:AK136"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="J139:M139"/>
+    <mergeCell ref="N139:Q139"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="V139:Y139"/>
+    <mergeCell ref="Z139:AC139"/>
+    <mergeCell ref="AD139:AG139"/>
+    <mergeCell ref="AH139:AK139"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:AK140"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="J141:AK141"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/manuals/sequencer_figures/figures.xlsx
+++ b/manuals/sequencer_figures/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\local\koike\proj\e7awg_sw_simple_multi\manuals\sequencer_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D096BA27-A4B6-4DCD-8404-6ECA85FD4230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0047DE-9BE3-4A01-9F13-3398C7081AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
+    <workbookView xWindow="-17775" yWindow="-1155" windowWidth="16740" windowHeight="19530" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="ブロック図" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
   <si>
     <t>エントリ ID</t>
     <phoneticPr fontId="1"/>
@@ -269,18 +269,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アドレス (A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Byte 4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイト数 (B)</t>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -289,14 +278,6 @@
   </si>
   <si>
     <t>Byte 12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x13</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -366,35 +347,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Byte 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x2C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x2D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -454,14 +407,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約 (0x00000)</t>
+    <t>AWG スタートコマンド n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 12h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス [= A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト数 [= B]</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 13h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約 [= 0000000000h]</t>
     <rPh sb="0" eb="2">
       <t>ヨヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AWG スタートコマンド n</t>
+    <t>タイプ [= 22h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 23h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 24h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約 [= 00000000000000h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド総バイト数</t>
+    <rPh sb="4" eb="5">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 25h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 28h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 29h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 2Ch]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 2Dh]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWG スタートコマンド N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド総バイト数 [= 16N]</t>
+    <rPh sb="4" eb="5">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byte 16N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byte (16N-8)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -534,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -652,19 +699,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1012,13 +1046,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,10 +1115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1040,8 +1127,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,70 +1160,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1124,7 +1193,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,31 +1214,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,14 +1247,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,46 +1265,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,6 +1289,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,6 +1306,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1253,7 +1322,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15674,8 +15779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346BD2E3-ECA9-4E3C-92C6-AEDA0AEF7FD8}">
   <dimension ref="A3:AT141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY100" sqref="AY100"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ142" sqref="BJ142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15684,3816 +15789,3763 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="48" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="48"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="48" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="48" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="48"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="48" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="48"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="48" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="48"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="48" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="48"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="48" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="48"/>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="48" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="48"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="48" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="48"/>
+      <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="48" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="48"/>
+      <c r="Q13" s="45"/>
     </row>
     <row r="17" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="8" t="str">
+      <c r="G17" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="8" t="str">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="8" t="str">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="8" t="str">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="17"/>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="3:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
+      <c r="G18" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54" t="s">
+      <c r="G19" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54" t="s">
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54" t="s">
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="52"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
+      <c r="G20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19" t="s">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="29"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="59"/>
+      <c r="G22" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
     </row>
     <row r="23" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="28" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19" t="s">
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="19" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="29"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="59"/>
+      <c r="G24" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
     </row>
     <row r="25" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="19" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19" t="s">
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="19" t="s">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="29"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="23"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="59"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
     </row>
     <row r="27" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="41"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="38"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="C28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="G28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
     </row>
     <row r="29" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="28" t="s">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="28" t="s">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="29"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="34" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="2"/>
-      <c r="F34" s="8" t="str">
+      <c r="F34" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8" t="str">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="8" t="str">
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8" t="str">
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="10"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17"/>
     </row>
     <row r="35" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="26"/>
+      <c r="F35" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="20"/>
     </row>
     <row r="36" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54" t="s">
+      <c r="F36" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54" t="s">
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54" t="s">
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="55"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="11"/>
+      <c r="C37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="26"/>
+      <c r="F37" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="20"/>
     </row>
     <row r="38" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19" t="s">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19" t="s">
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19" t="s">
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="29"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="23"/>
     </row>
     <row r="42" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="8" t="str">
+      <c r="G42" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="8" t="str">
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="8" t="str">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="8" t="str">
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="8" t="str">
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="8" t="str">
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="8" t="str">
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="8" t="str">
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="10"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="17"/>
     </row>
     <row r="43" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="26"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="20"/>
     </row>
     <row r="44" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="G44" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="19" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="75"/>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19" t="s">
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="29"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="23"/>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C45" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="C45" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="32"/>
+      <c r="G45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AJ45" s="25"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="26"/>
     </row>
     <row r="46" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="G46" s="35" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="G46" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="39"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="33"/>
+      <c r="AF46" s="33"/>
+      <c r="AG46" s="33"/>
+      <c r="AH46" s="33"/>
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="33"/>
+      <c r="AK46" s="33"/>
+      <c r="AL46" s="36"/>
     </row>
     <row r="47" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19" t="s">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19" t="s">
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19" t="s">
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19" t="s">
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19" t="s">
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19" t="s">
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="29"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="23"/>
     </row>
     <row r="48" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="C48" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-      <c r="AL48" s="32"/>
+      <c r="G48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="26"/>
       <c r="AT48" s="7"/>
     </row>
     <row r="49" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="G49" s="35" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="G49" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="38" t="s">
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="38" t="s">
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="39"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="33"/>
+      <c r="AL49" s="36"/>
     </row>
     <row r="50" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19" t="s">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="40" t="s">
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="41"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="38"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C51" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="C51" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="31"/>
-      <c r="AL51" s="32"/>
+      <c r="G51" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
+      <c r="AL51" s="26"/>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="G52" s="35" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="G52" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-      <c r="AC52" s="36"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="36"/>
-      <c r="AF52" s="36"/>
-      <c r="AG52" s="36"/>
-      <c r="AH52" s="36"/>
-      <c r="AI52" s="36"/>
-      <c r="AJ52" s="36"/>
-      <c r="AK52" s="36"/>
-      <c r="AL52" s="39"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="33"/>
+      <c r="AL52" s="36"/>
     </row>
     <row r="53" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19" t="s">
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19" t="s">
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19" t="s">
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19" t="s">
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19" t="s">
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19" t="s">
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="29"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="23"/>
     </row>
     <row r="54" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C54" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="C54" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="31"/>
-      <c r="AG54" s="31"/>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
-      <c r="AK54" s="31"/>
-      <c r="AL54" s="32"/>
+      <c r="G54" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
+      <c r="AG54" s="25"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="25"/>
+      <c r="AJ54" s="25"/>
+      <c r="AK54" s="25"/>
+      <c r="AL54" s="26"/>
     </row>
     <row r="55" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="G55" s="35" t="s">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="G55" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="38" t="s">
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="38" t="s">
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="34"/>
+      <c r="AI55" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="39"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="36"/>
     </row>
     <row r="56" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19" t="s">
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="40" t="s">
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="27"/>
-      <c r="AL56" s="41"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="38"/>
     </row>
     <row r="57" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="G57" s="30" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="G57" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31"/>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-      <c r="AK57" s="31"/>
-      <c r="AL57" s="32"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="25"/>
+      <c r="AJ57" s="25"/>
+      <c r="AK57" s="25"/>
+      <c r="AL57" s="26"/>
     </row>
     <row r="58" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="G58" s="42" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="G58" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="43"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="43"/>
-      <c r="AD58" s="43"/>
-      <c r="AE58" s="43"/>
-      <c r="AF58" s="43"/>
-      <c r="AG58" s="43"/>
-      <c r="AH58" s="43"/>
-      <c r="AI58" s="43"/>
-      <c r="AJ58" s="43"/>
-      <c r="AK58" s="43"/>
-      <c r="AL58" s="44"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+      <c r="AB58" s="40"/>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="40"/>
+      <c r="AE58" s="40"/>
+      <c r="AF58" s="40"/>
+      <c r="AG58" s="40"/>
+      <c r="AH58" s="40"/>
+      <c r="AI58" s="40"/>
+      <c r="AJ58" s="40"/>
+      <c r="AK58" s="40"/>
+      <c r="AL58" s="41"/>
     </row>
     <row r="59" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
-      <c r="X59" s="46"/>
-      <c r="Y59" s="46"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="46"/>
-      <c r="AB59" s="46"/>
-      <c r="AC59" s="46"/>
-      <c r="AD59" s="46"/>
-      <c r="AE59" s="46"/>
-      <c r="AF59" s="46"/>
-      <c r="AG59" s="46"/>
-      <c r="AH59" s="46"/>
-      <c r="AI59" s="46"/>
-      <c r="AJ59" s="46"/>
-      <c r="AK59" s="46"/>
-      <c r="AL59" s="47"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="43"/>
+      <c r="AC59" s="43"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="43"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="43"/>
+      <c r="AJ59" s="43"/>
+      <c r="AK59" s="43"/>
+      <c r="AL59" s="44"/>
     </row>
     <row r="60" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C60" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+      <c r="C60" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
-      <c r="AD60" s="31"/>
-      <c r="AE60" s="31"/>
-      <c r="AF60" s="31"/>
-      <c r="AG60" s="31"/>
-      <c r="AH60" s="31"/>
-      <c r="AI60" s="31"/>
-      <c r="AJ60" s="31"/>
-      <c r="AK60" s="31"/>
-      <c r="AL60" s="32"/>
+      <c r="G60" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="25"/>
+      <c r="AH60" s="25"/>
+      <c r="AI60" s="25"/>
+      <c r="AJ60" s="25"/>
+      <c r="AK60" s="25"/>
+      <c r="AL60" s="26"/>
     </row>
     <row r="61" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="G61" s="35" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="G61" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="36"/>
-      <c r="AC61" s="36"/>
-      <c r="AD61" s="36"/>
-      <c r="AE61" s="36"/>
-      <c r="AF61" s="36"/>
-      <c r="AG61" s="36"/>
-      <c r="AH61" s="36"/>
-      <c r="AI61" s="36"/>
-      <c r="AJ61" s="36"/>
-      <c r="AK61" s="36"/>
-      <c r="AL61" s="39"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="33"/>
+      <c r="AL61" s="36"/>
     </row>
     <row r="62" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19" t="s">
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19" t="s">
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19" t="s">
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19" t="s">
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19" t="s">
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19" t="s">
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19" t="s">
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="29"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="23"/>
     </row>
     <row r="63" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C63" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+      <c r="C63" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
-      <c r="AD63" s="31"/>
-      <c r="AE63" s="31"/>
-      <c r="AF63" s="31"/>
-      <c r="AG63" s="31"/>
-      <c r="AH63" s="31"/>
-      <c r="AI63" s="31"/>
-      <c r="AJ63" s="31"/>
-      <c r="AK63" s="31"/>
-      <c r="AL63" s="32"/>
+      <c r="G63" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="25"/>
+      <c r="AJ63" s="25"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="26"/>
     </row>
     <row r="64" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="G64" s="35" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="G64" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="38" t="s">
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="36"/>
-      <c r="AA64" s="36"/>
-      <c r="AB64" s="36"/>
-      <c r="AC64" s="36"/>
-      <c r="AD64" s="36"/>
-      <c r="AE64" s="36"/>
-      <c r="AF64" s="36"/>
-      <c r="AG64" s="36"/>
-      <c r="AH64" s="37"/>
-      <c r="AI64" s="38" t="s">
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="34"/>
+      <c r="AI64" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AJ64" s="36"/>
-      <c r="AK64" s="36"/>
-      <c r="AL64" s="39"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="36"/>
     </row>
     <row r="65" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19" t="s">
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AH65" s="28"/>
-      <c r="AI65" s="40" t="s">
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AJ65" s="27"/>
-      <c r="AK65" s="27"/>
-      <c r="AL65" s="41"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="38"/>
     </row>
     <row r="69" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="8" t="str">
+      <c r="G69" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="8" t="str">
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="8" t="str">
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="8" t="str">
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="8" t="str">
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="8" t="str">
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="8" t="str">
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="8" t="str">
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ69" s="9"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="10"/>
+      <c r="AJ69" s="16"/>
+      <c r="AK69" s="16"/>
+      <c r="AL69" s="17"/>
     </row>
     <row r="70" spans="3:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AH70" s="25"/>
-      <c r="AI70" s="25"/>
-      <c r="AJ70" s="25"/>
-      <c r="AK70" s="25"/>
-      <c r="AL70" s="26"/>
+      <c r="G70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="73"/>
+      <c r="W70" s="73"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="73"/>
+      <c r="Z70" s="73"/>
+      <c r="AA70" s="73"/>
+      <c r="AB70" s="73"/>
+      <c r="AC70" s="73"/>
+      <c r="AD70" s="76"/>
+      <c r="AE70" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF70" s="19"/>
+      <c r="AG70" s="19"/>
+      <c r="AH70" s="19"/>
+      <c r="AI70" s="19"/>
+      <c r="AJ70" s="19"/>
+      <c r="AK70" s="19"/>
+      <c r="AL70" s="20"/>
     </row>
     <row r="71" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="G71" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="28"/>
-      <c r="AE71" s="19" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="G71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="75"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
+      <c r="W71" s="75"/>
+      <c r="X71" s="75"/>
+      <c r="Y71" s="75"/>
+      <c r="Z71" s="75"/>
+      <c r="AA71" s="75"/>
+      <c r="AB71" s="75"/>
+      <c r="AC71" s="75"/>
+      <c r="AD71" s="77"/>
+      <c r="AE71" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19" t="s">
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="13"/>
+      <c r="AI71" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AJ71" s="19"/>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="29"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="13"/>
+      <c r="AL71" s="23"/>
     </row>
     <row r="72" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C72" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="C72" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="58"/>
-      <c r="P72" s="58"/>
-      <c r="Q72" s="58"/>
-      <c r="R72" s="58"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="58"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="58"/>
-      <c r="W72" s="58"/>
-      <c r="X72" s="58"/>
-      <c r="Y72" s="58"/>
-      <c r="Z72" s="58"/>
-      <c r="AA72" s="58"/>
-      <c r="AB72" s="58"/>
-      <c r="AC72" s="58"/>
-      <c r="AD72" s="58"/>
-      <c r="AE72" s="58"/>
-      <c r="AF72" s="58"/>
-      <c r="AG72" s="58"/>
-      <c r="AH72" s="58"/>
-      <c r="AI72" s="58"/>
-      <c r="AJ72" s="58"/>
-      <c r="AK72" s="58"/>
-      <c r="AL72" s="59"/>
+      <c r="G72" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="55"/>
+      <c r="X72" s="55"/>
+      <c r="Y72" s="55"/>
+      <c r="Z72" s="55"/>
+      <c r="AA72" s="55"/>
+      <c r="AB72" s="55"/>
+      <c r="AC72" s="55"/>
+      <c r="AD72" s="55"/>
+      <c r="AE72" s="55"/>
+      <c r="AF72" s="55"/>
+      <c r="AG72" s="55"/>
+      <c r="AH72" s="55"/>
+      <c r="AI72" s="55"/>
+      <c r="AJ72" s="55"/>
+      <c r="AK72" s="55"/>
+      <c r="AL72" s="56"/>
     </row>
     <row r="73" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19" t="s">
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19" t="s">
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19" t="s">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19" t="s">
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19" t="s">
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="19" t="s">
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="19"/>
-      <c r="AH73" s="19"/>
-      <c r="AI73" s="19" t="s">
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="13"/>
+      <c r="AI73" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ73" s="19"/>
-      <c r="AK73" s="19"/>
-      <c r="AL73" s="29"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="13"/>
+      <c r="AL73" s="23"/>
     </row>
     <row r="74" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C74" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="C74" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="58"/>
-      <c r="W74" s="58"/>
-      <c r="X74" s="58"/>
-      <c r="Y74" s="58"/>
-      <c r="Z74" s="58"/>
-      <c r="AA74" s="58"/>
-      <c r="AB74" s="58"/>
-      <c r="AC74" s="58"/>
-      <c r="AD74" s="58"/>
-      <c r="AE74" s="58"/>
-      <c r="AF74" s="58"/>
-      <c r="AG74" s="58"/>
-      <c r="AH74" s="58"/>
-      <c r="AI74" s="58"/>
-      <c r="AJ74" s="58"/>
-      <c r="AK74" s="58"/>
-      <c r="AL74" s="59"/>
+      <c r="G74" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
+      <c r="W74" s="55"/>
+      <c r="X74" s="55"/>
+      <c r="Y74" s="55"/>
+      <c r="Z74" s="55"/>
+      <c r="AA74" s="55"/>
+      <c r="AB74" s="55"/>
+      <c r="AC74" s="55"/>
+      <c r="AD74" s="55"/>
+      <c r="AE74" s="55"/>
+      <c r="AF74" s="55"/>
+      <c r="AG74" s="55"/>
+      <c r="AH74" s="55"/>
+      <c r="AI74" s="55"/>
+      <c r="AJ74" s="55"/>
+      <c r="AK74" s="55"/>
+      <c r="AL74" s="56"/>
     </row>
     <row r="75" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF75" s="19"/>
-      <c r="AG75" s="19"/>
-      <c r="AH75" s="19"/>
-      <c r="AI75" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ75" s="19"/>
-      <c r="AK75" s="19"/>
-      <c r="AL75" s="29"/>
+      <c r="G75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="13"/>
+      <c r="AI75" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="13"/>
+      <c r="AL75" s="23"/>
     </row>
     <row r="76" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
+      <c r="C76" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="58"/>
-      <c r="S76" s="58"/>
-      <c r="T76" s="58"/>
-      <c r="U76" s="58"/>
-      <c r="V76" s="58"/>
-      <c r="W76" s="58"/>
-      <c r="X76" s="58"/>
-      <c r="Y76" s="58"/>
-      <c r="Z76" s="58"/>
-      <c r="AA76" s="58"/>
-      <c r="AB76" s="58"/>
-      <c r="AC76" s="58"/>
-      <c r="AD76" s="58"/>
-      <c r="AE76" s="58"/>
-      <c r="AF76" s="58"/>
-      <c r="AG76" s="58"/>
-      <c r="AH76" s="58"/>
-      <c r="AI76" s="58"/>
-      <c r="AJ76" s="58"/>
-      <c r="AK76" s="58"/>
-      <c r="AL76" s="59"/>
+      <c r="G76" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="55"/>
+      <c r="X76" s="55"/>
+      <c r="Y76" s="55"/>
+      <c r="Z76" s="55"/>
+      <c r="AA76" s="55"/>
+      <c r="AB76" s="55"/>
+      <c r="AC76" s="55"/>
+      <c r="AD76" s="55"/>
+      <c r="AE76" s="55"/>
+      <c r="AF76" s="55"/>
+      <c r="AG76" s="55"/>
+      <c r="AH76" s="55"/>
+      <c r="AI76" s="55"/>
+      <c r="AJ76" s="55"/>
+      <c r="AK76" s="55"/>
+      <c r="AL76" s="56"/>
     </row>
     <row r="77" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19" t="s">
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19" t="s">
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19" t="s">
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="19" t="s">
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="19" t="s">
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB77" s="19"/>
-      <c r="AC77" s="19"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19" t="s">
+      <c r="AB77" s="13"/>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="19"/>
-      <c r="AH77" s="19"/>
-      <c r="AI77" s="19" t="s">
+      <c r="AF77" s="13"/>
+      <c r="AG77" s="13"/>
+      <c r="AH77" s="13"/>
+      <c r="AI77" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ77" s="19"/>
-      <c r="AK77" s="19"/>
-      <c r="AL77" s="29"/>
+      <c r="AJ77" s="13"/>
+      <c r="AK77" s="13"/>
+      <c r="AL77" s="23"/>
     </row>
     <row r="78" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C78" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="C78" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
-      <c r="P78" s="58"/>
-      <c r="Q78" s="58"/>
-      <c r="R78" s="58"/>
-      <c r="S78" s="58"/>
-      <c r="T78" s="58"/>
-      <c r="U78" s="58"/>
-      <c r="V78" s="58"/>
-      <c r="W78" s="58"/>
-      <c r="X78" s="58"/>
-      <c r="Y78" s="58"/>
-      <c r="Z78" s="58"/>
-      <c r="AA78" s="58"/>
-      <c r="AB78" s="58"/>
-      <c r="AC78" s="58"/>
-      <c r="AD78" s="58"/>
-      <c r="AE78" s="58"/>
-      <c r="AF78" s="58"/>
-      <c r="AG78" s="58"/>
-      <c r="AH78" s="58"/>
-      <c r="AI78" s="58"/>
-      <c r="AJ78" s="58"/>
-      <c r="AK78" s="58"/>
-      <c r="AL78" s="59"/>
+      <c r="G78" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="55"/>
+      <c r="W78" s="55"/>
+      <c r="X78" s="55"/>
+      <c r="Y78" s="55"/>
+      <c r="Z78" s="55"/>
+      <c r="AA78" s="55"/>
+      <c r="AB78" s="55"/>
+      <c r="AC78" s="55"/>
+      <c r="AD78" s="55"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="55"/>
+      <c r="AG78" s="55"/>
+      <c r="AH78" s="55"/>
+      <c r="AI78" s="55"/>
+      <c r="AJ78" s="55"/>
+      <c r="AK78" s="55"/>
+      <c r="AL78" s="56"/>
     </row>
     <row r="79" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="19"/>
-      <c r="AH79" s="19"/>
-      <c r="AI79" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ79" s="19"/>
-      <c r="AK79" s="19"/>
-      <c r="AL79" s="29"/>
+      <c r="G79" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="13"/>
+      <c r="AH79" s="13"/>
+      <c r="AI79" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="13"/>
+      <c r="AL79" s="23"/>
     </row>
     <row r="80" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="G80" s="57" t="s">
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="G80" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="58"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="58"/>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="58"/>
-      <c r="S80" s="58"/>
-      <c r="T80" s="58"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="58"/>
-      <c r="W80" s="58"/>
-      <c r="X80" s="58"/>
-      <c r="Y80" s="58"/>
-      <c r="Z80" s="58"/>
-      <c r="AA80" s="58"/>
-      <c r="AB80" s="58"/>
-      <c r="AC80" s="58"/>
-      <c r="AD80" s="58"/>
-      <c r="AE80" s="58"/>
-      <c r="AF80" s="58"/>
-      <c r="AG80" s="58"/>
-      <c r="AH80" s="58"/>
-      <c r="AI80" s="58"/>
-      <c r="AJ80" s="58"/>
-      <c r="AK80" s="58"/>
-      <c r="AL80" s="59"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+      <c r="AA80" s="55"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="55"/>
+      <c r="AD80" s="55"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="55"/>
+      <c r="AG80" s="55"/>
+      <c r="AH80" s="55"/>
+      <c r="AI80" s="55"/>
+      <c r="AJ80" s="55"/>
+      <c r="AK80" s="55"/>
+      <c r="AL80" s="56"/>
     </row>
     <row r="81" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="45" t="s">
+      <c r="G81" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
-      <c r="X81" s="46"/>
-      <c r="Y81" s="46"/>
-      <c r="Z81" s="46"/>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="46"/>
-      <c r="AC81" s="46"/>
-      <c r="AD81" s="46"/>
-      <c r="AE81" s="46"/>
-      <c r="AF81" s="46"/>
-      <c r="AG81" s="46"/>
-      <c r="AH81" s="46"/>
-      <c r="AI81" s="46"/>
-      <c r="AJ81" s="46"/>
-      <c r="AK81" s="46"/>
-      <c r="AL81" s="47"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="43"/>
+      <c r="AD81" s="43"/>
+      <c r="AE81" s="43"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="43"/>
+      <c r="AH81" s="43"/>
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="44"/>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C82" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="C82" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
-      <c r="S82" s="58"/>
-      <c r="T82" s="58"/>
-      <c r="U82" s="58"/>
-      <c r="V82" s="58"/>
-      <c r="W82" s="58"/>
-      <c r="X82" s="58"/>
-      <c r="Y82" s="58"/>
-      <c r="Z82" s="58"/>
-      <c r="AA82" s="58"/>
-      <c r="AB82" s="58"/>
-      <c r="AC82" s="58"/>
-      <c r="AD82" s="58"/>
-      <c r="AE82" s="58"/>
-      <c r="AF82" s="58"/>
-      <c r="AG82" s="58"/>
-      <c r="AH82" s="58"/>
-      <c r="AI82" s="58"/>
-      <c r="AJ82" s="58"/>
-      <c r="AK82" s="58"/>
-      <c r="AL82" s="59"/>
+      <c r="G82" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+      <c r="AA82" s="55"/>
+      <c r="AB82" s="55"/>
+      <c r="AC82" s="55"/>
+      <c r="AD82" s="55"/>
+      <c r="AE82" s="55"/>
+      <c r="AF82" s="55"/>
+      <c r="AG82" s="55"/>
+      <c r="AH82" s="55"/>
+      <c r="AI82" s="55"/>
+      <c r="AJ82" s="55"/>
+      <c r="AK82" s="55"/>
+      <c r="AL82" s="56"/>
     </row>
     <row r="83" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19" t="s">
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19" t="s">
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19" t="s">
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="19" t="s">
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="19"/>
-      <c r="Z83" s="19"/>
-      <c r="AA83" s="19" t="s">
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB83" s="19"/>
-      <c r="AC83" s="19"/>
-      <c r="AD83" s="19"/>
-      <c r="AE83" s="19" t="s">
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF83" s="19"/>
-      <c r="AG83" s="19"/>
-      <c r="AH83" s="19"/>
-      <c r="AI83" s="19" t="s">
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ83" s="19"/>
-      <c r="AK83" s="19"/>
-      <c r="AL83" s="29"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="23"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C84" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="58"/>
-      <c r="S84" s="58"/>
-      <c r="T84" s="58"/>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
-      <c r="W84" s="58"/>
-      <c r="X84" s="58"/>
-      <c r="Y84" s="58"/>
-      <c r="Z84" s="58"/>
-      <c r="AA84" s="58"/>
-      <c r="AB84" s="58"/>
-      <c r="AC84" s="58"/>
-      <c r="AD84" s="58"/>
-      <c r="AE84" s="58"/>
-      <c r="AF84" s="58"/>
-      <c r="AG84" s="58"/>
-      <c r="AH84" s="58"/>
-      <c r="AI84" s="58"/>
-      <c r="AJ84" s="58"/>
-      <c r="AK84" s="58"/>
-      <c r="AL84" s="59"/>
+      <c r="G84" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="55"/>
+      <c r="AA84" s="55"/>
+      <c r="AB84" s="55"/>
+      <c r="AC84" s="55"/>
+      <c r="AD84" s="55"/>
+      <c r="AE84" s="55"/>
+      <c r="AF84" s="55"/>
+      <c r="AG84" s="55"/>
+      <c r="AH84" s="55"/>
+      <c r="AI84" s="55"/>
+      <c r="AJ84" s="55"/>
+      <c r="AK84" s="55"/>
+      <c r="AL84" s="56"/>
     </row>
     <row r="85" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X85" s="19"/>
-      <c r="Y85" s="19"/>
-      <c r="Z85" s="19"/>
-      <c r="AA85" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB85" s="19"/>
-      <c r="AC85" s="19"/>
-      <c r="AD85" s="19"/>
-      <c r="AE85" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF85" s="19"/>
-      <c r="AG85" s="19"/>
-      <c r="AH85" s="19"/>
-      <c r="AI85" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ85" s="19"/>
-      <c r="AK85" s="19"/>
-      <c r="AL85" s="29"/>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
-      <c r="M87" s="66"/>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="66"/>
-      <c r="Q87" s="66"/>
-      <c r="R87" s="66"/>
-      <c r="S87" s="66"/>
-      <c r="T87" s="66"/>
-      <c r="U87" s="66"/>
-      <c r="V87" s="66"/>
-      <c r="W87" s="66"/>
-      <c r="X87" s="66"/>
-      <c r="Y87" s="66"/>
-      <c r="Z87" s="66"/>
-      <c r="AA87" s="66"/>
-      <c r="AB87" s="66"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="66"/>
+      <c r="G85" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+      <c r="AH85" s="13"/>
+      <c r="AI85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ85" s="13"/>
+      <c r="AK85" s="13"/>
+      <c r="AL85" s="23"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O88" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="70"/>
-      <c r="T88" s="70"/>
-      <c r="U88" s="70"/>
-      <c r="V88" s="70"/>
-      <c r="W88" s="70"/>
-      <c r="X88" s="70"/>
-      <c r="Y88" s="70"/>
-      <c r="Z88" s="70"/>
-      <c r="AA88" s="70"/>
-      <c r="AB88" s="70"/>
-      <c r="AC88" s="70"/>
-      <c r="AD88" s="70"/>
-      <c r="AE88" s="70"/>
-      <c r="AF88" s="70"/>
-      <c r="AG88" s="70"/>
-      <c r="AH88" s="70"/>
-      <c r="AI88" s="70"/>
-      <c r="AJ88" s="70"/>
-      <c r="AK88" s="70"/>
-      <c r="AL88" s="71"/>
+      <c r="O88" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+      <c r="AC88" s="59"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="60"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O89" s="67" t="s">
+      <c r="O89" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="P89" s="68"/>
-      <c r="Q89" s="68"/>
-      <c r="R89" s="68"/>
-      <c r="S89" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="T89" s="76"/>
-      <c r="U89" s="76"/>
-      <c r="V89" s="76"/>
-      <c r="W89" s="76"/>
-      <c r="X89" s="77"/>
-      <c r="Y89" s="67" t="s">
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="71"/>
+      <c r="Y89" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="Z89" s="68"/>
-      <c r="AA89" s="68"/>
-      <c r="AB89" s="68"/>
-      <c r="AC89" s="72" t="s">
+      <c r="Z89" s="63"/>
+      <c r="AA89" s="63"/>
+      <c r="AB89" s="63"/>
+      <c r="AC89" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="AD89" s="73"/>
-      <c r="AE89" s="73"/>
-      <c r="AF89" s="73"/>
-      <c r="AG89" s="73"/>
-      <c r="AH89" s="73"/>
-      <c r="AI89" s="73"/>
-      <c r="AJ89" s="73"/>
-      <c r="AK89" s="73"/>
-      <c r="AL89" s="74"/>
+      <c r="AD89" s="65"/>
+      <c r="AE89" s="65"/>
+      <c r="AF89" s="65"/>
+      <c r="AG89" s="65"/>
+      <c r="AH89" s="65"/>
+      <c r="AI89" s="65"/>
+      <c r="AJ89" s="65"/>
+      <c r="AK89" s="65"/>
+      <c r="AL89" s="66"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O90" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="P90" s="68"/>
-      <c r="Q90" s="68"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="T90" s="76"/>
-      <c r="U90" s="76"/>
-      <c r="V90" s="76"/>
-      <c r="W90" s="76"/>
-      <c r="X90" s="77"/>
-      <c r="Y90" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z90" s="68"/>
-      <c r="AA90" s="68"/>
-      <c r="AB90" s="68"/>
-      <c r="AC90" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD90" s="73"/>
-      <c r="AE90" s="73"/>
-      <c r="AF90" s="73"/>
-      <c r="AG90" s="73"/>
-      <c r="AH90" s="73"/>
-      <c r="AI90" s="73"/>
-      <c r="AJ90" s="73"/>
-      <c r="AK90" s="73"/>
-      <c r="AL90" s="74"/>
+      <c r="O90" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P90" s="63"/>
+      <c r="Q90" s="63"/>
+      <c r="R90" s="63"/>
+      <c r="S90" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="T90" s="70"/>
+      <c r="U90" s="70"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="70"/>
+      <c r="X90" s="71"/>
+      <c r="Y90" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z90" s="63"/>
+      <c r="AA90" s="63"/>
+      <c r="AB90" s="63"/>
+      <c r="AC90" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD90" s="65"/>
+      <c r="AE90" s="65"/>
+      <c r="AF90" s="65"/>
+      <c r="AG90" s="65"/>
+      <c r="AH90" s="65"/>
+      <c r="AI90" s="65"/>
+      <c r="AJ90" s="65"/>
+      <c r="AK90" s="65"/>
+      <c r="AL90" s="66"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="66"/>
-      <c r="M91" s="66"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="64">
+      <c r="O91" s="68">
         <v>127</v>
       </c>
-      <c r="P91" s="64"/>
-      <c r="Q91" s="11">
+      <c r="P91" s="68"/>
+      <c r="Q91" s="8">
         <v>120</v>
       </c>
-      <c r="R91" s="78"/>
-      <c r="S91" s="64">
+      <c r="R91" s="67"/>
+      <c r="S91" s="68">
         <v>119</v>
       </c>
-      <c r="T91" s="64"/>
-      <c r="W91" s="11">
+      <c r="T91" s="68"/>
+      <c r="W91" s="8">
         <v>80</v>
       </c>
-      <c r="X91" s="78"/>
-      <c r="Y91" s="64">
+      <c r="X91" s="67"/>
+      <c r="Y91" s="68">
         <v>79</v>
       </c>
-      <c r="Z91" s="64"/>
-      <c r="AA91" s="11">
+      <c r="Z91" s="68"/>
+      <c r="AA91" s="8">
         <v>64</v>
       </c>
-      <c r="AB91" s="78"/>
-      <c r="AC91" s="64">
+      <c r="AB91" s="67"/>
+      <c r="AC91" s="68">
         <v>63</v>
       </c>
-      <c r="AD91" s="64"/>
-      <c r="AK91" s="11">
+      <c r="AD91" s="68"/>
+      <c r="AK91" s="8">
         <v>0</v>
       </c>
-      <c r="AL91" s="78"/>
-      <c r="AM91" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN91" s="65"/>
+      <c r="AL91" s="67"/>
+      <c r="AM91" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN91" s="61"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
     </row>
-    <row r="109" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="61" t="str">
+      <c r="E109" s="2"/>
+      <c r="F109" s="29" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="63"/>
-      <c r="K109" s="61" t="str">
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="29" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
-      <c r="N109" s="63"/>
-      <c r="O109" s="61" t="str">
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="29" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="62"/>
-      <c r="R109" s="63"/>
-      <c r="S109" s="61" t="str">
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="31"/>
+      <c r="R109" s="29" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T109" s="62"/>
-      <c r="U109" s="62"/>
-      <c r="V109" s="63"/>
-      <c r="W109" s="61" t="str">
+      <c r="S109" s="30"/>
+      <c r="T109" s="30"/>
+      <c r="U109" s="31"/>
+      <c r="V109" s="29" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X109" s="62"/>
-      <c r="Y109" s="62"/>
-      <c r="Z109" s="63"/>
-      <c r="AA109" s="61" t="str">
+      <c r="W109" s="30"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="31"/>
+      <c r="Z109" s="29" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB109" s="62"/>
-      <c r="AC109" s="62"/>
-      <c r="AD109" s="63"/>
-      <c r="AE109" s="61" t="str">
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="31"/>
+      <c r="AD109" s="29" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF109" s="62"/>
-      <c r="AG109" s="62"/>
-      <c r="AH109" s="63"/>
-      <c r="AI109" s="61" t="str">
+      <c r="AE109" s="30"/>
+      <c r="AF109" s="30"/>
+      <c r="AG109" s="31"/>
+      <c r="AH109" s="29" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ109" s="62"/>
-      <c r="AK109" s="62"/>
-      <c r="AL109" s="63"/>
+      <c r="AI109" s="30"/>
+      <c r="AJ109" s="30"/>
+      <c r="AK109" s="31"/>
     </row>
-    <row r="110" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C110" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="16"/>
-      <c r="S110" s="16"/>
-      <c r="T110" s="16"/>
-      <c r="U110" s="16"/>
-      <c r="V110" s="16"/>
-      <c r="W110" s="16"/>
-      <c r="X110" s="16"/>
-      <c r="Y110" s="16"/>
-      <c r="Z110" s="16"/>
-      <c r="AA110" s="16"/>
-      <c r="AB110" s="16"/>
-      <c r="AC110" s="16"/>
-      <c r="AD110" s="24"/>
-      <c r="AE110" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF110" s="25"/>
-      <c r="AG110" s="25"/>
-      <c r="AH110" s="25"/>
-      <c r="AI110" s="25"/>
-      <c r="AJ110" s="25"/>
-      <c r="AK110" s="25"/>
-      <c r="AL110" s="26"/>
+    <row r="110" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C110" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="K110" s="73"/>
+      <c r="L110" s="73"/>
+      <c r="M110" s="73"/>
+      <c r="N110" s="73"/>
+      <c r="O110" s="73"/>
+      <c r="P110" s="73"/>
+      <c r="Q110" s="73"/>
+      <c r="R110" s="73"/>
+      <c r="S110" s="73"/>
+      <c r="T110" s="73"/>
+      <c r="U110" s="73"/>
+      <c r="V110" s="73"/>
+      <c r="W110" s="73"/>
+      <c r="X110" s="73"/>
+      <c r="Y110" s="73"/>
+      <c r="Z110" s="73"/>
+      <c r="AA110" s="73"/>
+      <c r="AB110" s="73"/>
+      <c r="AC110" s="76"/>
+      <c r="AD110" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE110" s="19"/>
+      <c r="AF110" s="19"/>
+      <c r="AG110" s="19"/>
+      <c r="AH110" s="19"/>
+      <c r="AI110" s="19"/>
+      <c r="AJ110" s="19"/>
+      <c r="AK110" s="20"/>
     </row>
-    <row r="111" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="27"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
-      <c r="T111" s="27"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="27"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="27"/>
-      <c r="AC111" s="27"/>
-      <c r="AD111" s="28"/>
-      <c r="AE111" s="19" t="s">
+    <row r="111" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="75"/>
+      <c r="N111" s="75"/>
+      <c r="O111" s="75"/>
+      <c r="P111" s="75"/>
+      <c r="Q111" s="75"/>
+      <c r="R111" s="75"/>
+      <c r="S111" s="75"/>
+      <c r="T111" s="75"/>
+      <c r="U111" s="75"/>
+      <c r="V111" s="75"/>
+      <c r="W111" s="75"/>
+      <c r="X111" s="75"/>
+      <c r="Y111" s="75"/>
+      <c r="Z111" s="75"/>
+      <c r="AA111" s="75"/>
+      <c r="AB111" s="75"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AF111" s="19"/>
-      <c r="AG111" s="19"/>
-      <c r="AH111" s="19"/>
-      <c r="AI111" s="19" t="s">
+      <c r="AE111" s="13"/>
+      <c r="AF111" s="13"/>
+      <c r="AG111" s="13"/>
+      <c r="AH111" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AJ111" s="19"/>
-      <c r="AK111" s="19"/>
-      <c r="AL111" s="29"/>
+      <c r="AI111" s="13"/>
+      <c r="AJ111" s="13"/>
+      <c r="AK111" s="23"/>
     </row>
     <row r="114" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="8" t="str">
+      <c r="F114" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="8" t="str">
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="8" t="str">
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="10"/>
-      <c r="R114" s="8" t="str">
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="8" t="str">
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="17"/>
+      <c r="V114" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="10"/>
-      <c r="Z114" s="8" t="str">
+      <c r="W114" s="16"/>
+      <c r="X114" s="16"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA114" s="9"/>
-      <c r="AB114" s="9"/>
-      <c r="AC114" s="10"/>
-      <c r="AD114" s="8" t="str">
+      <c r="AA114" s="16"/>
+      <c r="AB114" s="16"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE114" s="9"/>
-      <c r="AF114" s="9"/>
-      <c r="AG114" s="10"/>
-      <c r="AH114" s="8" t="str">
+      <c r="AE114" s="16"/>
+      <c r="AF114" s="16"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI114" s="9"/>
-      <c r="AJ114" s="9"/>
-      <c r="AK114" s="10"/>
+      <c r="AI114" s="16"/>
+      <c r="AJ114" s="16"/>
+      <c r="AK114" s="17"/>
     </row>
     <row r="115" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C115" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D115" s="11"/>
+      <c r="C115" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="8"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="16"/>
-      <c r="T115" s="16"/>
-      <c r="U115" s="16"/>
-      <c r="V115" s="16"/>
-      <c r="W115" s="16"/>
-      <c r="X115" s="16"/>
-      <c r="Y115" s="16"/>
-      <c r="Z115" s="16"/>
-      <c r="AA115" s="16"/>
-      <c r="AB115" s="16"/>
-      <c r="AC115" s="16"/>
-      <c r="AD115" s="16"/>
-      <c r="AE115" s="16"/>
-      <c r="AF115" s="16"/>
-      <c r="AG115" s="16"/>
-      <c r="AH115" s="16"/>
-      <c r="AI115" s="16"/>
-      <c r="AJ115" s="16"/>
-      <c r="AK115" s="17"/>
+      <c r="F115" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K115" s="73"/>
+      <c r="L115" s="73"/>
+      <c r="M115" s="73"/>
+      <c r="N115" s="73"/>
+      <c r="O115" s="73"/>
+      <c r="P115" s="73"/>
+      <c r="Q115" s="73"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
+      <c r="U115" s="73"/>
+      <c r="V115" s="73"/>
+      <c r="W115" s="73"/>
+      <c r="X115" s="73"/>
+      <c r="Y115" s="73"/>
+      <c r="Z115" s="73"/>
+      <c r="AA115" s="73"/>
+      <c r="AB115" s="73"/>
+      <c r="AC115" s="73"/>
+      <c r="AD115" s="73"/>
+      <c r="AE115" s="73"/>
+      <c r="AF115" s="73"/>
+      <c r="AG115" s="73"/>
+      <c r="AH115" s="73"/>
+      <c r="AI115" s="73"/>
+      <c r="AJ115" s="73"/>
+      <c r="AK115" s="80"/>
     </row>
     <row r="116" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="21"/>
-      <c r="V116" s="21"/>
-      <c r="W116" s="21"/>
-      <c r="X116" s="21"/>
-      <c r="Y116" s="21"/>
-      <c r="Z116" s="21"/>
-      <c r="AA116" s="21"/>
-      <c r="AB116" s="21"/>
-      <c r="AC116" s="21"/>
-      <c r="AD116" s="21"/>
-      <c r="AE116" s="21"/>
-      <c r="AF116" s="21"/>
-      <c r="AG116" s="21"/>
-      <c r="AH116" s="21"/>
-      <c r="AI116" s="21"/>
-      <c r="AJ116" s="21"/>
-      <c r="AK116" s="22"/>
+      <c r="F116" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="75"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
+      <c r="P116" s="75"/>
+      <c r="Q116" s="75"/>
+      <c r="R116" s="75"/>
+      <c r="S116" s="75"/>
+      <c r="T116" s="75"/>
+      <c r="U116" s="75"/>
+      <c r="V116" s="75"/>
+      <c r="W116" s="75"/>
+      <c r="X116" s="75"/>
+      <c r="Y116" s="75"/>
+      <c r="Z116" s="75"/>
+      <c r="AA116" s="75"/>
+      <c r="AB116" s="75"/>
+      <c r="AC116" s="75"/>
+      <c r="AD116" s="75"/>
+      <c r="AE116" s="75"/>
+      <c r="AF116" s="75"/>
+      <c r="AG116" s="75"/>
+      <c r="AH116" s="75"/>
+      <c r="AI116" s="75"/>
+      <c r="AJ116" s="75"/>
+      <c r="AK116" s="81"/>
     </row>
     <row r="119" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="8" t="str">
+      <c r="F119" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="8" t="str">
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="8" t="str">
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="10"/>
-      <c r="R119" s="8" t="str">
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="8" t="str">
+      <c r="S119" s="16"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="17"/>
+      <c r="V119" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
-      <c r="Y119" s="10"/>
-      <c r="Z119" s="8" t="str">
+      <c r="W119" s="16"/>
+      <c r="X119" s="16"/>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA119" s="9"/>
-      <c r="AB119" s="9"/>
-      <c r="AC119" s="10"/>
-      <c r="AD119" s="8" t="str">
+      <c r="AA119" s="16"/>
+      <c r="AB119" s="16"/>
+      <c r="AC119" s="17"/>
+      <c r="AD119" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE119" s="9"/>
-      <c r="AF119" s="9"/>
-      <c r="AG119" s="10"/>
-      <c r="AH119" s="8" t="str">
+      <c r="AE119" s="16"/>
+      <c r="AF119" s="16"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI119" s="9"/>
-      <c r="AJ119" s="9"/>
-      <c r="AK119" s="10"/>
+      <c r="AI119" s="16"/>
+      <c r="AJ119" s="16"/>
+      <c r="AK119" s="17"/>
     </row>
     <row r="120" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C120" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D120" s="11"/>
+      <c r="C120" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="8"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-      <c r="U120" s="16"/>
-      <c r="V120" s="16"/>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-      <c r="Z120" s="16"/>
-      <c r="AA120" s="16"/>
-      <c r="AB120" s="16"/>
-      <c r="AC120" s="16"/>
-      <c r="AD120" s="16"/>
-      <c r="AE120" s="16"/>
-      <c r="AF120" s="16"/>
-      <c r="AG120" s="16"/>
-      <c r="AH120" s="16"/>
-      <c r="AI120" s="16"/>
-      <c r="AJ120" s="16"/>
-      <c r="AK120" s="17"/>
+      <c r="F120" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" s="79"/>
+      <c r="H120" s="79"/>
+      <c r="I120" s="79"/>
+      <c r="J120" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K120" s="73"/>
+      <c r="L120" s="73"/>
+      <c r="M120" s="73"/>
+      <c r="N120" s="73"/>
+      <c r="O120" s="73"/>
+      <c r="P120" s="73"/>
+      <c r="Q120" s="73"/>
+      <c r="R120" s="73"/>
+      <c r="S120" s="73"/>
+      <c r="T120" s="73"/>
+      <c r="U120" s="73"/>
+      <c r="V120" s="73"/>
+      <c r="W120" s="73"/>
+      <c r="X120" s="73"/>
+      <c r="Y120" s="73"/>
+      <c r="Z120" s="73"/>
+      <c r="AA120" s="73"/>
+      <c r="AB120" s="73"/>
+      <c r="AC120" s="73"/>
+      <c r="AD120" s="73"/>
+      <c r="AE120" s="73"/>
+      <c r="AF120" s="73"/>
+      <c r="AG120" s="73"/>
+      <c r="AH120" s="73"/>
+      <c r="AI120" s="73"/>
+      <c r="AJ120" s="73"/>
+      <c r="AK120" s="80"/>
     </row>
     <row r="121" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="21"/>
-      <c r="P121" s="21"/>
-      <c r="Q121" s="21"/>
-      <c r="R121" s="21"/>
-      <c r="S121" s="21"/>
-      <c r="T121" s="21"/>
-      <c r="U121" s="21"/>
-      <c r="V121" s="21"/>
-      <c r="W121" s="21"/>
-      <c r="X121" s="21"/>
-      <c r="Y121" s="21"/>
-      <c r="Z121" s="21"/>
-      <c r="AA121" s="21"/>
-      <c r="AB121" s="21"/>
-      <c r="AC121" s="21"/>
-      <c r="AD121" s="21"/>
-      <c r="AE121" s="21"/>
-      <c r="AF121" s="21"/>
-      <c r="AG121" s="21"/>
-      <c r="AH121" s="21"/>
-      <c r="AI121" s="21"/>
-      <c r="AJ121" s="21"/>
-      <c r="AK121" s="22"/>
+      <c r="F121" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="75"/>
+      <c r="N121" s="75"/>
+      <c r="O121" s="75"/>
+      <c r="P121" s="75"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="75"/>
+      <c r="T121" s="75"/>
+      <c r="U121" s="75"/>
+      <c r="V121" s="75"/>
+      <c r="W121" s="75"/>
+      <c r="X121" s="75"/>
+      <c r="Y121" s="75"/>
+      <c r="Z121" s="75"/>
+      <c r="AA121" s="75"/>
+      <c r="AB121" s="75"/>
+      <c r="AC121" s="75"/>
+      <c r="AD121" s="75"/>
+      <c r="AE121" s="75"/>
+      <c r="AF121" s="75"/>
+      <c r="AG121" s="75"/>
+      <c r="AH121" s="75"/>
+      <c r="AI121" s="75"/>
+      <c r="AJ121" s="75"/>
+      <c r="AK121" s="81"/>
     </row>
     <row r="124" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="8" t="str">
+      <c r="F124" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="8" t="str">
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="8" t="str">
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="10"/>
-      <c r="R124" s="8" t="str">
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="17"/>
+      <c r="R124" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="U124" s="10"/>
-      <c r="V124" s="8" t="str">
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="17"/>
+      <c r="V124" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="10"/>
-      <c r="Z124" s="8" t="str">
+      <c r="W124" s="16"/>
+      <c r="X124" s="16"/>
+      <c r="Y124" s="17"/>
+      <c r="Z124" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA124" s="9"/>
-      <c r="AB124" s="9"/>
-      <c r="AC124" s="10"/>
-      <c r="AD124" s="8" t="str">
+      <c r="AA124" s="16"/>
+      <c r="AB124" s="16"/>
+      <c r="AC124" s="17"/>
+      <c r="AD124" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE124" s="9"/>
-      <c r="AF124" s="9"/>
-      <c r="AG124" s="10"/>
-      <c r="AH124" s="8" t="str">
+      <c r="AE124" s="16"/>
+      <c r="AF124" s="16"/>
+      <c r="AG124" s="17"/>
+      <c r="AH124" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI124" s="9"/>
-      <c r="AJ124" s="9"/>
-      <c r="AK124" s="10"/>
+      <c r="AI124" s="16"/>
+      <c r="AJ124" s="16"/>
+      <c r="AK124" s="17"/>
     </row>
-    <row r="125" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C125" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" s="11"/>
+    <row r="125" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C125" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="8"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="16"/>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="16"/>
-      <c r="T125" s="16"/>
-      <c r="U125" s="16"/>
-      <c r="V125" s="16"/>
-      <c r="W125" s="16"/>
-      <c r="X125" s="16"/>
-      <c r="Y125" s="16"/>
-      <c r="Z125" s="16"/>
-      <c r="AA125" s="16"/>
-      <c r="AB125" s="16"/>
-      <c r="AC125" s="16"/>
-      <c r="AD125" s="16"/>
-      <c r="AE125" s="16"/>
-      <c r="AF125" s="16"/>
-      <c r="AG125" s="16"/>
-      <c r="AH125" s="16"/>
-      <c r="AI125" s="16"/>
-      <c r="AJ125" s="16"/>
-      <c r="AK125" s="17"/>
+      <c r="F125" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G125" s="79"/>
+      <c r="H125" s="79"/>
+      <c r="I125" s="79"/>
+      <c r="J125" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K125" s="73"/>
+      <c r="L125" s="73"/>
+      <c r="M125" s="73"/>
+      <c r="N125" s="73"/>
+      <c r="O125" s="73"/>
+      <c r="P125" s="73"/>
+      <c r="Q125" s="73"/>
+      <c r="R125" s="73"/>
+      <c r="S125" s="73"/>
+      <c r="T125" s="73"/>
+      <c r="U125" s="73"/>
+      <c r="V125" s="73"/>
+      <c r="W125" s="73"/>
+      <c r="X125" s="73"/>
+      <c r="Y125" s="73"/>
+      <c r="Z125" s="73"/>
+      <c r="AA125" s="73"/>
+      <c r="AB125" s="73"/>
+      <c r="AC125" s="73"/>
+      <c r="AD125" s="73"/>
+      <c r="AE125" s="73"/>
+      <c r="AF125" s="73"/>
+      <c r="AG125" s="73"/>
+      <c r="AH125" s="73"/>
+      <c r="AI125" s="73"/>
+      <c r="AJ125" s="73"/>
+      <c r="AK125" s="80"/>
     </row>
     <row r="126" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K126" s="21"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="21"/>
-      <c r="N126" s="21"/>
-      <c r="O126" s="21"/>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21"/>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
-      <c r="W126" s="21"/>
-      <c r="X126" s="21"/>
-      <c r="Y126" s="21"/>
-      <c r="Z126" s="21"/>
-      <c r="AA126" s="21"/>
-      <c r="AB126" s="21"/>
-      <c r="AC126" s="21"/>
-      <c r="AD126" s="21"/>
-      <c r="AE126" s="21"/>
-      <c r="AF126" s="21"/>
-      <c r="AG126" s="21"/>
-      <c r="AH126" s="21"/>
-      <c r="AI126" s="21"/>
-      <c r="AJ126" s="21"/>
-      <c r="AK126" s="22"/>
+      <c r="F126" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="75"/>
+      <c r="N126" s="75"/>
+      <c r="O126" s="75"/>
+      <c r="P126" s="75"/>
+      <c r="Q126" s="75"/>
+      <c r="R126" s="75"/>
+      <c r="S126" s="75"/>
+      <c r="T126" s="75"/>
+      <c r="U126" s="75"/>
+      <c r="V126" s="75"/>
+      <c r="W126" s="75"/>
+      <c r="X126" s="75"/>
+      <c r="Y126" s="75"/>
+      <c r="Z126" s="75"/>
+      <c r="AA126" s="75"/>
+      <c r="AB126" s="75"/>
+      <c r="AC126" s="75"/>
+      <c r="AD126" s="75"/>
+      <c r="AE126" s="75"/>
+      <c r="AF126" s="75"/>
+      <c r="AG126" s="75"/>
+      <c r="AH126" s="75"/>
+      <c r="AI126" s="75"/>
+      <c r="AJ126" s="75"/>
+      <c r="AK126" s="81"/>
     </row>
     <row r="129" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="8" t="str">
+      <c r="F129" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="8" t="str">
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="8" t="str">
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="8" t="str">
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="17"/>
+      <c r="R129" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="10"/>
-      <c r="V129" s="8" t="str">
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="17"/>
+      <c r="V129" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="10"/>
-      <c r="Z129" s="8" t="str">
+      <c r="W129" s="16"/>
+      <c r="X129" s="16"/>
+      <c r="Y129" s="17"/>
+      <c r="Z129" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA129" s="9"/>
-      <c r="AB129" s="9"/>
-      <c r="AC129" s="10"/>
-      <c r="AD129" s="8" t="str">
+      <c r="AA129" s="16"/>
+      <c r="AB129" s="16"/>
+      <c r="AC129" s="17"/>
+      <c r="AD129" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE129" s="9"/>
-      <c r="AF129" s="9"/>
-      <c r="AG129" s="10"/>
-      <c r="AH129" s="8" t="str">
+      <c r="AE129" s="16"/>
+      <c r="AF129" s="16"/>
+      <c r="AG129" s="17"/>
+      <c r="AH129" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI129" s="9"/>
-      <c r="AJ129" s="9"/>
-      <c r="AK129" s="10"/>
+      <c r="AI129" s="16"/>
+      <c r="AJ129" s="16"/>
+      <c r="AK129" s="17"/>
     </row>
-    <row r="130" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C130" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D130" s="11"/>
+    <row r="130" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C130" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="8"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
-      <c r="S130" s="16"/>
-      <c r="T130" s="16"/>
-      <c r="U130" s="16"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="16"/>
-      <c r="X130" s="16"/>
-      <c r="Y130" s="16"/>
-      <c r="Z130" s="16"/>
-      <c r="AA130" s="16"/>
-      <c r="AB130" s="16"/>
-      <c r="AC130" s="16"/>
-      <c r="AD130" s="16"/>
-      <c r="AE130" s="16"/>
-      <c r="AF130" s="16"/>
-      <c r="AG130" s="16"/>
-      <c r="AH130" s="16"/>
-      <c r="AI130" s="16"/>
-      <c r="AJ130" s="16"/>
-      <c r="AK130" s="17"/>
+      <c r="F130" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="G130" s="79"/>
+      <c r="H130" s="79"/>
+      <c r="I130" s="79"/>
+      <c r="J130" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K130" s="73"/>
+      <c r="L130" s="73"/>
+      <c r="M130" s="73"/>
+      <c r="N130" s="73"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="73"/>
+      <c r="Q130" s="73"/>
+      <c r="R130" s="73"/>
+      <c r="S130" s="73"/>
+      <c r="T130" s="73"/>
+      <c r="U130" s="73"/>
+      <c r="V130" s="73"/>
+      <c r="W130" s="73"/>
+      <c r="X130" s="73"/>
+      <c r="Y130" s="73"/>
+      <c r="Z130" s="73"/>
+      <c r="AA130" s="73"/>
+      <c r="AB130" s="73"/>
+      <c r="AC130" s="73"/>
+      <c r="AD130" s="73"/>
+      <c r="AE130" s="73"/>
+      <c r="AF130" s="73"/>
+      <c r="AG130" s="73"/>
+      <c r="AH130" s="73"/>
+      <c r="AI130" s="73"/>
+      <c r="AJ130" s="73"/>
+      <c r="AK130" s="80"/>
     </row>
     <row r="131" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K131" s="21"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="21"/>
-      <c r="O131" s="21"/>
-      <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21"/>
-      <c r="S131" s="21"/>
-      <c r="T131" s="21"/>
-      <c r="U131" s="21"/>
-      <c r="V131" s="21"/>
-      <c r="W131" s="21"/>
-      <c r="X131" s="21"/>
-      <c r="Y131" s="21"/>
-      <c r="Z131" s="21"/>
-      <c r="AA131" s="21"/>
-      <c r="AB131" s="21"/>
-      <c r="AC131" s="21"/>
-      <c r="AD131" s="21"/>
-      <c r="AE131" s="21"/>
-      <c r="AF131" s="21"/>
-      <c r="AG131" s="21"/>
-      <c r="AH131" s="21"/>
-      <c r="AI131" s="21"/>
-      <c r="AJ131" s="21"/>
-      <c r="AK131" s="22"/>
+      <c r="F131" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
+      <c r="P131" s="75"/>
+      <c r="Q131" s="75"/>
+      <c r="R131" s="75"/>
+      <c r="S131" s="75"/>
+      <c r="T131" s="75"/>
+      <c r="U131" s="75"/>
+      <c r="V131" s="75"/>
+      <c r="W131" s="75"/>
+      <c r="X131" s="75"/>
+      <c r="Y131" s="75"/>
+      <c r="Z131" s="75"/>
+      <c r="AA131" s="75"/>
+      <c r="AB131" s="75"/>
+      <c r="AC131" s="75"/>
+      <c r="AD131" s="75"/>
+      <c r="AE131" s="75"/>
+      <c r="AF131" s="75"/>
+      <c r="AG131" s="75"/>
+      <c r="AH131" s="75"/>
+      <c r="AI131" s="75"/>
+      <c r="AJ131" s="75"/>
+      <c r="AK131" s="81"/>
     </row>
     <row r="134" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="8" t="str">
+      <c r="F134" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="8" t="str">
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="8" t="str">
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="8" t="str">
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="10"/>
-      <c r="V134" s="8" t="str">
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="17"/>
+      <c r="V134" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="10"/>
-      <c r="Z134" s="8" t="str">
+      <c r="W134" s="16"/>
+      <c r="X134" s="16"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
-      <c r="AC134" s="10"/>
-      <c r="AD134" s="8" t="str">
+      <c r="AA134" s="16"/>
+      <c r="AB134" s="16"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE134" s="9"/>
-      <c r="AF134" s="9"/>
-      <c r="AG134" s="10"/>
-      <c r="AH134" s="8" t="str">
+      <c r="AE134" s="16"/>
+      <c r="AF134" s="16"/>
+      <c r="AG134" s="17"/>
+      <c r="AH134" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI134" s="9"/>
-      <c r="AJ134" s="9"/>
-      <c r="AK134" s="10"/>
+      <c r="AI134" s="16"/>
+      <c r="AJ134" s="16"/>
+      <c r="AK134" s="17"/>
     </row>
-    <row r="135" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C135" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D135" s="11"/>
+    <row r="135" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C135" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="8"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="16"/>
-      <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
-      <c r="Q135" s="16"/>
-      <c r="R135" s="16"/>
-      <c r="S135" s="16"/>
-      <c r="T135" s="16"/>
-      <c r="U135" s="16"/>
-      <c r="V135" s="16"/>
-      <c r="W135" s="16"/>
-      <c r="X135" s="16"/>
-      <c r="Y135" s="16"/>
-      <c r="Z135" s="16"/>
-      <c r="AA135" s="16"/>
-      <c r="AB135" s="16"/>
-      <c r="AC135" s="16"/>
-      <c r="AD135" s="16"/>
-      <c r="AE135" s="16"/>
-      <c r="AF135" s="16"/>
-      <c r="AG135" s="16"/>
-      <c r="AH135" s="16"/>
-      <c r="AI135" s="16"/>
-      <c r="AJ135" s="16"/>
-      <c r="AK135" s="17"/>
+      <c r="F135" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G135" s="79"/>
+      <c r="H135" s="79"/>
+      <c r="I135" s="79"/>
+      <c r="J135" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K135" s="73"/>
+      <c r="L135" s="73"/>
+      <c r="M135" s="73"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="73"/>
+      <c r="Q135" s="73"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="U135" s="73"/>
+      <c r="V135" s="73"/>
+      <c r="W135" s="73"/>
+      <c r="X135" s="73"/>
+      <c r="Y135" s="73"/>
+      <c r="Z135" s="73"/>
+      <c r="AA135" s="73"/>
+      <c r="AB135" s="73"/>
+      <c r="AC135" s="73"/>
+      <c r="AD135" s="73"/>
+      <c r="AE135" s="73"/>
+      <c r="AF135" s="73"/>
+      <c r="AG135" s="73"/>
+      <c r="AH135" s="73"/>
+      <c r="AI135" s="73"/>
+      <c r="AJ135" s="73"/>
+      <c r="AK135" s="80"/>
     </row>
     <row r="136" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="21"/>
-      <c r="P136" s="21"/>
-      <c r="Q136" s="21"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="21"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="21"/>
-      <c r="W136" s="21"/>
-      <c r="X136" s="21"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="21"/>
-      <c r="AA136" s="21"/>
-      <c r="AB136" s="21"/>
-      <c r="AC136" s="21"/>
-      <c r="AD136" s="21"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="21"/>
-      <c r="AG136" s="21"/>
-      <c r="AH136" s="21"/>
-      <c r="AI136" s="21"/>
-      <c r="AJ136" s="21"/>
-      <c r="AK136" s="22"/>
+      <c r="F136" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="75"/>
+      <c r="L136" s="75"/>
+      <c r="M136" s="75"/>
+      <c r="N136" s="75"/>
+      <c r="O136" s="75"/>
+      <c r="P136" s="75"/>
+      <c r="Q136" s="75"/>
+      <c r="R136" s="75"/>
+      <c r="S136" s="75"/>
+      <c r="T136" s="75"/>
+      <c r="U136" s="75"/>
+      <c r="V136" s="75"/>
+      <c r="W136" s="75"/>
+      <c r="X136" s="75"/>
+      <c r="Y136" s="75"/>
+      <c r="Z136" s="75"/>
+      <c r="AA136" s="75"/>
+      <c r="AB136" s="75"/>
+      <c r="AC136" s="75"/>
+      <c r="AD136" s="75"/>
+      <c r="AE136" s="75"/>
+      <c r="AF136" s="75"/>
+      <c r="AG136" s="75"/>
+      <c r="AH136" s="75"/>
+      <c r="AI136" s="75"/>
+      <c r="AJ136" s="75"/>
+      <c r="AK136" s="81"/>
     </row>
     <row r="139" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="8" t="str">
+      <c r="F139" s="15" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="8" t="str">
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="15" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="8" t="str">
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="15" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="8" t="str">
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="17"/>
+      <c r="R139" s="15" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
-      <c r="U139" s="10"/>
-      <c r="V139" s="8" t="str">
+      <c r="S139" s="16"/>
+      <c r="T139" s="16"/>
+      <c r="U139" s="17"/>
+      <c r="V139" s="15" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W139" s="9"/>
-      <c r="X139" s="9"/>
-      <c r="Y139" s="10"/>
-      <c r="Z139" s="8" t="str">
+      <c r="W139" s="16"/>
+      <c r="X139" s="16"/>
+      <c r="Y139" s="17"/>
+      <c r="Z139" s="15" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA139" s="9"/>
-      <c r="AB139" s="9"/>
-      <c r="AC139" s="10"/>
-      <c r="AD139" s="8" t="str">
+      <c r="AA139" s="16"/>
+      <c r="AB139" s="16"/>
+      <c r="AC139" s="17"/>
+      <c r="AD139" s="15" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE139" s="9"/>
-      <c r="AF139" s="9"/>
-      <c r="AG139" s="10"/>
-      <c r="AH139" s="8" t="str">
+      <c r="AE139" s="16"/>
+      <c r="AF139" s="16"/>
+      <c r="AG139" s="17"/>
+      <c r="AH139" s="15" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI139" s="9"/>
-      <c r="AJ139" s="9"/>
-      <c r="AK139" s="10"/>
+      <c r="AI139" s="16"/>
+      <c r="AJ139" s="16"/>
+      <c r="AK139" s="17"/>
     </row>
-    <row r="140" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C140" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D140" s="11"/>
+    <row r="140" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C140" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="8"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="16"/>
-      <c r="N140" s="16"/>
-      <c r="O140" s="16"/>
-      <c r="P140" s="16"/>
-      <c r="Q140" s="16"/>
-      <c r="R140" s="16"/>
-      <c r="S140" s="16"/>
-      <c r="T140" s="16"/>
-      <c r="U140" s="16"/>
-      <c r="V140" s="16"/>
-      <c r="W140" s="16"/>
-      <c r="X140" s="16"/>
-      <c r="Y140" s="16"/>
-      <c r="Z140" s="16"/>
-      <c r="AA140" s="16"/>
-      <c r="AB140" s="16"/>
-      <c r="AC140" s="16"/>
-      <c r="AD140" s="16"/>
-      <c r="AE140" s="16"/>
-      <c r="AF140" s="16"/>
-      <c r="AG140" s="16"/>
-      <c r="AH140" s="16"/>
-      <c r="AI140" s="16"/>
-      <c r="AJ140" s="16"/>
-      <c r="AK140" s="17"/>
+      <c r="F140" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G140" s="79"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="79"/>
+      <c r="J140" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K140" s="73"/>
+      <c r="L140" s="73"/>
+      <c r="M140" s="73"/>
+      <c r="N140" s="73"/>
+      <c r="O140" s="73"/>
+      <c r="P140" s="73"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="73"/>
+      <c r="S140" s="73"/>
+      <c r="T140" s="73"/>
+      <c r="U140" s="73"/>
+      <c r="V140" s="73"/>
+      <c r="W140" s="73"/>
+      <c r="X140" s="73"/>
+      <c r="Y140" s="73"/>
+      <c r="Z140" s="73"/>
+      <c r="AA140" s="73"/>
+      <c r="AB140" s="73"/>
+      <c r="AC140" s="73"/>
+      <c r="AD140" s="73"/>
+      <c r="AE140" s="73"/>
+      <c r="AF140" s="73"/>
+      <c r="AG140" s="73"/>
+      <c r="AH140" s="73"/>
+      <c r="AI140" s="73"/>
+      <c r="AJ140" s="73"/>
+      <c r="AK140" s="80"/>
     </row>
     <row r="141" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K141" s="21"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
-      <c r="O141" s="21"/>
-      <c r="P141" s="21"/>
-      <c r="Q141" s="21"/>
-      <c r="R141" s="21"/>
-      <c r="S141" s="21"/>
-      <c r="T141" s="21"/>
-      <c r="U141" s="21"/>
-      <c r="V141" s="21"/>
-      <c r="W141" s="21"/>
-      <c r="X141" s="21"/>
-      <c r="Y141" s="21"/>
-      <c r="Z141" s="21"/>
-      <c r="AA141" s="21"/>
-      <c r="AB141" s="21"/>
-      <c r="AC141" s="21"/>
-      <c r="AD141" s="21"/>
-      <c r="AE141" s="21"/>
-      <c r="AF141" s="21"/>
-      <c r="AG141" s="21"/>
-      <c r="AH141" s="21"/>
-      <c r="AI141" s="21"/>
-      <c r="AJ141" s="21"/>
-      <c r="AK141" s="22"/>
+      <c r="F141" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="74"/>
+      <c r="K141" s="75"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="75"/>
+      <c r="N141" s="75"/>
+      <c r="O141" s="75"/>
+      <c r="P141" s="75"/>
+      <c r="Q141" s="75"/>
+      <c r="R141" s="75"/>
+      <c r="S141" s="75"/>
+      <c r="T141" s="75"/>
+      <c r="U141" s="75"/>
+      <c r="V141" s="75"/>
+      <c r="W141" s="75"/>
+      <c r="X141" s="75"/>
+      <c r="Y141" s="75"/>
+      <c r="Z141" s="75"/>
+      <c r="AA141" s="75"/>
+      <c r="AB141" s="75"/>
+      <c r="AC141" s="75"/>
+      <c r="AD141" s="75"/>
+      <c r="AE141" s="75"/>
+      <c r="AF141" s="75"/>
+      <c r="AG141" s="75"/>
+      <c r="AH141" s="75"/>
+      <c r="AI141" s="75"/>
+      <c r="AJ141" s="75"/>
+      <c r="AK141" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="351">
+  <mergeCells count="342">
+    <mergeCell ref="K70:AD71"/>
+    <mergeCell ref="J110:AC111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="J115:AK116"/>
+    <mergeCell ref="J120:AK121"/>
+    <mergeCell ref="J125:AK126"/>
+    <mergeCell ref="J130:AK131"/>
+    <mergeCell ref="J135:AK136"/>
+    <mergeCell ref="J140:AK141"/>
     <mergeCell ref="O88:AL88"/>
     <mergeCell ref="L92:P92"/>
     <mergeCell ref="A91:B91"/>
@@ -19560,6 +19612,9 @@
     <mergeCell ref="W79:Z79"/>
     <mergeCell ref="AA79:AD79"/>
     <mergeCell ref="AE79:AH79"/>
+    <mergeCell ref="AA73:AD73"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="AI73:AL73"/>
     <mergeCell ref="C76:E77"/>
     <mergeCell ref="G76:AL76"/>
     <mergeCell ref="G77:J77"/>
@@ -19570,6 +19625,10 @@
     <mergeCell ref="AA77:AD77"/>
     <mergeCell ref="AE77:AH77"/>
     <mergeCell ref="AI77:AL77"/>
+    <mergeCell ref="C48:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="G48:AL48"/>
     <mergeCell ref="C74:E75"/>
     <mergeCell ref="G74:AL74"/>
     <mergeCell ref="G75:J75"/>
@@ -19577,10 +19636,8 @@
     <mergeCell ref="AI75:AL75"/>
     <mergeCell ref="C70:E71"/>
     <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:AD70"/>
     <mergeCell ref="AE70:AL70"/>
     <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:AD71"/>
     <mergeCell ref="AE71:AH71"/>
     <mergeCell ref="AI71:AL71"/>
     <mergeCell ref="C72:E73"/>
@@ -19590,12 +19647,6 @@
     <mergeCell ref="O73:R73"/>
     <mergeCell ref="S73:V73"/>
     <mergeCell ref="W73:Z73"/>
-    <mergeCell ref="AA73:AD73"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="AI73:AL73"/>
-    <mergeCell ref="AI42:AL42"/>
-    <mergeCell ref="K43:AD43"/>
-    <mergeCell ref="K44:AD44"/>
     <mergeCell ref="G56:J56"/>
     <mergeCell ref="K56:N56"/>
     <mergeCell ref="C51:E53"/>
@@ -19613,10 +19664,6 @@
     <mergeCell ref="G54:AL54"/>
     <mergeCell ref="G55:N55"/>
     <mergeCell ref="O55:AH55"/>
-    <mergeCell ref="C48:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="G48:AL48"/>
     <mergeCell ref="G49:N49"/>
     <mergeCell ref="AI49:AL49"/>
     <mergeCell ref="O49:AH49"/>
@@ -19626,6 +19673,11 @@
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="AE42:AH42"/>
+    <mergeCell ref="AI42:AL42"/>
+    <mergeCell ref="K43:AD44"/>
     <mergeCell ref="C43:E44"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="G44:J44"/>
@@ -19643,9 +19695,6 @@
     <mergeCell ref="AE43:AL43"/>
     <mergeCell ref="AE44:AH44"/>
     <mergeCell ref="AI44:AL44"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="AE42:AH42"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="J35:U35"/>
@@ -19743,32 +19792,27 @@
     <mergeCell ref="AA62:AD62"/>
     <mergeCell ref="AE62:AH62"/>
     <mergeCell ref="AI62:AL62"/>
-    <mergeCell ref="C110:E111"/>
-    <mergeCell ref="G110:J110"/>
-    <mergeCell ref="K110:AD110"/>
-    <mergeCell ref="AE110:AL110"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="K111:AD111"/>
-    <mergeCell ref="AE111:AH111"/>
-    <mergeCell ref="AI111:AL111"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="AD110:AK110"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="AD111:AG111"/>
+    <mergeCell ref="AH111:AK111"/>
     <mergeCell ref="G57:AL57"/>
     <mergeCell ref="C57:E59"/>
-    <mergeCell ref="G109:J109"/>
-    <mergeCell ref="K109:N109"/>
-    <mergeCell ref="O109:R109"/>
-    <mergeCell ref="S109:V109"/>
-    <mergeCell ref="W109:Z109"/>
-    <mergeCell ref="AA109:AD109"/>
-    <mergeCell ref="AE109:AH109"/>
-    <mergeCell ref="AI109:AL109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="R109:U109"/>
+    <mergeCell ref="V109:Y109"/>
+    <mergeCell ref="Z109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AK109"/>
     <mergeCell ref="C63:E65"/>
     <mergeCell ref="G63:AL63"/>
     <mergeCell ref="G64:N64"/>
     <mergeCell ref="O64:AH64"/>
     <mergeCell ref="AI64:AL64"/>
     <mergeCell ref="G65:J65"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:AK121"/>
     <mergeCell ref="C120:D121"/>
     <mergeCell ref="F114:I114"/>
     <mergeCell ref="J114:M114"/>
@@ -19780,8 +19824,6 @@
     <mergeCell ref="AH114:AK114"/>
     <mergeCell ref="F115:I115"/>
     <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J115:AK115"/>
-    <mergeCell ref="J116:AK116"/>
     <mergeCell ref="C115:D116"/>
     <mergeCell ref="F119:I119"/>
     <mergeCell ref="J119:M119"/>
@@ -19792,7 +19834,6 @@
     <mergeCell ref="AD119:AG119"/>
     <mergeCell ref="AH119:AK119"/>
     <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:AK120"/>
     <mergeCell ref="F124:I124"/>
     <mergeCell ref="J124:M124"/>
     <mergeCell ref="N124:Q124"/>
@@ -19801,11 +19842,10 @@
     <mergeCell ref="Z124:AC124"/>
     <mergeCell ref="AD124:AG124"/>
     <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="F121:I121"/>
     <mergeCell ref="C125:D126"/>
     <mergeCell ref="F125:I125"/>
-    <mergeCell ref="J125:AK125"/>
     <mergeCell ref="F126:I126"/>
-    <mergeCell ref="J126:AK126"/>
     <mergeCell ref="F129:I129"/>
     <mergeCell ref="J129:M129"/>
     <mergeCell ref="N129:Q129"/>
@@ -19816,9 +19856,7 @@
     <mergeCell ref="AH129:AK129"/>
     <mergeCell ref="C130:D131"/>
     <mergeCell ref="F130:I130"/>
-    <mergeCell ref="J130:AK130"/>
     <mergeCell ref="F131:I131"/>
-    <mergeCell ref="J131:AK131"/>
     <mergeCell ref="F134:I134"/>
     <mergeCell ref="J134:M134"/>
     <mergeCell ref="N134:Q134"/>
@@ -19827,11 +19865,12 @@
     <mergeCell ref="Z134:AC134"/>
     <mergeCell ref="AD134:AG134"/>
     <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="F141:I141"/>
     <mergeCell ref="C135:D136"/>
     <mergeCell ref="F135:I135"/>
-    <mergeCell ref="J135:AK135"/>
     <mergeCell ref="F136:I136"/>
-    <mergeCell ref="J136:AK136"/>
     <mergeCell ref="F139:I139"/>
     <mergeCell ref="J139:M139"/>
     <mergeCell ref="N139:Q139"/>
@@ -19840,11 +19879,6 @@
     <mergeCell ref="Z139:AC139"/>
     <mergeCell ref="AD139:AG139"/>
     <mergeCell ref="AH139:AK139"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:AK140"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="J141:AK141"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/manuals/sequencer_figures/figures.xlsx
+++ b/manuals/sequencer_figures/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\local\koike\proj\e7awg_sw_simple_multi\manuals\sequencer_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0047DE-9BE3-4A01-9F13-3398C7081AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB54F2B-354B-4936-B2D9-F034C59DD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17775" yWindow="-1155" windowWidth="16740" windowHeight="19530" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
+    <workbookView xWindow="-20130" yWindow="-585" windowWidth="17220" windowHeight="19530" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="ブロック図" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
   <si>
     <t>エントリ ID</t>
     <phoneticPr fontId="1"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レジスタ (B/4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Byte 16</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -336,10 +332,6 @@
   </si>
   <si>
     <t>Byte (B - 8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Byte (4+B)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -416,13 +408,6 @@
   </si>
   <si>
     <t>アドレス [= A]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイト数 [= B]</t>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -511,6 +496,25 @@
     <t>Byte (16N-8)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レジスタ N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト数 [= 4N]</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byte (4N+4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -549,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,8 +584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -848,19 +858,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1099,13 +1096,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,10 +1134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1130,154 +1149,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,6 +1174,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1307,49 +1197,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1360,6 +1253,162 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15779,8 +15828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346BD2E3-ECA9-4E3C-92C6-AEDA0AEF7FD8}">
   <dimension ref="A3:AT141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ142" sqref="BJ142"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD109" sqref="AD109:AG109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15789,3842 +15838,3980 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="45" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="45" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="45" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="45"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="45" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="45"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="45" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="45"/>
+      <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="45" t="s">
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="45"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="45" t="s">
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="45"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="45" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="45"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="45" t="s">
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="67"/>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="45" t="s">
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="45"/>
+      <c r="Q13" s="67"/>
     </row>
     <row r="17" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="15" t="str">
+      <c r="G17" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="15" t="str">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="15" t="str">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="15" t="str">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="34"/>
     </row>
     <row r="18" spans="3:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="20"/>
+      <c r="G18" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51" t="s">
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51" t="s">
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51" t="s">
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="52"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="65"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
+      <c r="G20" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13" t="s">
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13" t="s">
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="23"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="36"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="56"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="32"/>
     </row>
     <row r="23" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="22" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="13" t="s">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="23"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="36"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="56"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="32"/>
     </row>
     <row r="25" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="13" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="13" t="s">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="23"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="36"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="56"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="79"/>
     </row>
     <row r="27" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="38"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="82"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C28" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="G28" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="32"/>
     </row>
     <row r="29" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="22" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13" t="s">
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="22" t="s">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="23"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="36"/>
     </row>
     <row r="34" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="2"/>
-      <c r="F34" s="15" t="str">
+      <c r="F34" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="15" t="str">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="15" t="str">
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="15" t="str">
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="34"/>
     </row>
     <row r="35" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="19" t="s">
+      <c r="F35" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="20"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="49"/>
     </row>
     <row r="36" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51" t="s">
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51" t="s">
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="52"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="65"/>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="20"/>
+      <c r="F37" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="49"/>
     </row>
     <row r="38" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13" t="s">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13" t="s">
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13" t="s">
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="23"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="36"/>
     </row>
     <row r="42" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="15" t="str">
+      <c r="G42" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="15" t="str">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="15" t="str">
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="15" t="str">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="15" t="str">
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="15" t="str">
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="15" t="str">
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="15" t="str">
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="34"/>
     </row>
     <row r="43" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="19" t="s">
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="20"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+      <c r="AL43" s="49"/>
     </row>
     <row r="44" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="G44" s="12" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
-      <c r="AA44" s="75"/>
-      <c r="AB44" s="75"/>
-      <c r="AC44" s="75"/>
-      <c r="AD44" s="75"/>
-      <c r="AE44" s="13" t="s">
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13" t="s">
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="23"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="36"/>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="26"/>
+      <c r="G45" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="45"/>
     </row>
     <row r="46" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="G46" s="32" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="G46" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="33"/>
-      <c r="AK46" s="33"/>
-      <c r="AL46" s="36"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="52"/>
     </row>
     <row r="47" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13" t="s">
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13" t="s">
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13" t="s">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13" t="s">
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13" t="s">
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13" t="s">
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13" t="s">
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="23"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="36"/>
     </row>
     <row r="48" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="26"/>
+      <c r="G48" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="45"/>
       <c r="AT48" s="7"/>
     </row>
     <row r="49" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="G49" s="32" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="G49" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="35" t="s">
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="35" t="s">
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AJ49" s="33"/>
-      <c r="AK49" s="33"/>
-      <c r="AL49" s="36"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="52"/>
     </row>
     <row r="50" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13" t="s">
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="37" t="s">
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="57"/>
+      <c r="AI50" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21"/>
-      <c r="AL50" s="38"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="59"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C51" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="26"/>
+      <c r="G51" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="45"/>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="G52" s="32" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="G52" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="33"/>
-      <c r="AJ52" s="33"/>
-      <c r="AK52" s="33"/>
-      <c r="AL52" s="36"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="51"/>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="52"/>
     </row>
     <row r="53" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13" t="s">
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13" t="s">
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13" t="s">
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13" t="s">
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13" t="s">
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="13" t="s">
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="13"/>
-      <c r="AI53" s="13" t="s">
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ53" s="13"/>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="23"/>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="27"/>
+      <c r="AL53" s="36"/>
     </row>
     <row r="54" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C54" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="C54" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="25"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="25"/>
-      <c r="AG54" s="25"/>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="25"/>
-      <c r="AJ54" s="25"/>
-      <c r="AK54" s="25"/>
-      <c r="AL54" s="26"/>
+      <c r="G54" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="44"/>
+      <c r="AJ54" s="44"/>
+      <c r="AK54" s="44"/>
+      <c r="AL54" s="45"/>
     </row>
     <row r="55" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="G55" s="32" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="G55" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="35" t="s">
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="35" t="s">
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="53"/>
+      <c r="AI55" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="36"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="52"/>
     </row>
     <row r="56" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13" t="s">
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="37" t="s">
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="56"/>
+      <c r="AC56" s="56"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="56"/>
+      <c r="AF56" s="56"/>
+      <c r="AG56" s="56"/>
+      <c r="AH56" s="57"/>
+      <c r="AI56" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="38"/>
+      <c r="AJ56" s="56"/>
+      <c r="AK56" s="56"/>
+      <c r="AL56" s="59"/>
     </row>
     <row r="57" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="G57" s="24" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="G57" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
-      <c r="AD57" s="25"/>
-      <c r="AE57" s="25"/>
-      <c r="AF57" s="25"/>
-      <c r="AG57" s="25"/>
-      <c r="AH57" s="25"/>
-      <c r="AI57" s="25"/>
-      <c r="AJ57" s="25"/>
-      <c r="AK57" s="25"/>
-      <c r="AL57" s="26"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="45"/>
     </row>
     <row r="58" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="G58" s="39" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="G58" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="40"/>
-      <c r="AE58" s="40"/>
-      <c r="AF58" s="40"/>
-      <c r="AG58" s="40"/>
-      <c r="AH58" s="40"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="40"/>
-      <c r="AL58" s="41"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="70"/>
+      <c r="Z58" s="70"/>
+      <c r="AA58" s="70"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="70"/>
+      <c r="AD58" s="70"/>
+      <c r="AE58" s="70"/>
+      <c r="AF58" s="70"/>
+      <c r="AG58" s="70"/>
+      <c r="AH58" s="70"/>
+      <c r="AI58" s="70"/>
+      <c r="AJ58" s="70"/>
+      <c r="AK58" s="70"/>
+      <c r="AL58" s="71"/>
     </row>
     <row r="59" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="43"/>
-      <c r="AB59" s="43"/>
-      <c r="AC59" s="43"/>
-      <c r="AD59" s="43"/>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="43"/>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="43"/>
-      <c r="AK59" s="43"/>
-      <c r="AL59" s="44"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="38"/>
+      <c r="AF59" s="38"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38"/>
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="39"/>
     </row>
     <row r="60" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C60" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
+      <c r="C60" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="25"/>
-      <c r="AF60" s="25"/>
-      <c r="AG60" s="25"/>
-      <c r="AH60" s="25"/>
-      <c r="AI60" s="25"/>
-      <c r="AJ60" s="25"/>
-      <c r="AK60" s="25"/>
-      <c r="AL60" s="26"/>
+      <c r="G60" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="45"/>
     </row>
     <row r="61" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="G61" s="32" t="s">
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="G61" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="33"/>
-      <c r="AJ61" s="33"/>
-      <c r="AK61" s="33"/>
-      <c r="AL61" s="36"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="52"/>
     </row>
     <row r="62" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13" t="s">
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13" t="s">
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13" t="s">
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13" t="s">
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="13" t="s">
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13" t="s">
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13" t="s">
+      <c r="AF62" s="27"/>
+      <c r="AG62" s="27"/>
+      <c r="AH62" s="27"/>
+      <c r="AI62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ62" s="13"/>
-      <c r="AK62" s="13"/>
-      <c r="AL62" s="23"/>
+      <c r="AJ62" s="27"/>
+      <c r="AK62" s="27"/>
+      <c r="AL62" s="36"/>
     </row>
     <row r="63" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C63" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
+      <c r="C63" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="25"/>
-      <c r="AD63" s="25"/>
-      <c r="AE63" s="25"/>
-      <c r="AF63" s="25"/>
-      <c r="AG63" s="25"/>
-      <c r="AH63" s="25"/>
-      <c r="AI63" s="25"/>
-      <c r="AJ63" s="25"/>
-      <c r="AK63" s="25"/>
-      <c r="AL63" s="26"/>
+      <c r="G63" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="45"/>
     </row>
     <row r="64" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="G64" s="32" t="s">
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="G64" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="35" t="s">
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="33"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="35" t="s">
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="53"/>
+      <c r="AI64" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AJ64" s="33"/>
-      <c r="AK64" s="33"/>
-      <c r="AL64" s="36"/>
+      <c r="AJ64" s="51"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="52"/>
     </row>
     <row r="65" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13" t="s">
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="37" t="s">
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="57"/>
+      <c r="AI65" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AJ65" s="21"/>
-      <c r="AK65" s="21"/>
-      <c r="AL65" s="38"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="59"/>
     </row>
     <row r="69" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="15" t="str">
+      <c r="G69" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="15" t="str">
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="15" t="str">
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="15" t="str">
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="15" t="str">
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="15" t="str">
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="17"/>
-      <c r="AE69" s="15" t="str">
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="34"/>
+      <c r="AE69" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF69" s="16"/>
-      <c r="AG69" s="16"/>
-      <c r="AH69" s="17"/>
-      <c r="AI69" s="15" t="str">
+      <c r="AF69" s="17"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="34"/>
+      <c r="AI69" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ69" s="16"/>
-      <c r="AK69" s="16"/>
-      <c r="AL69" s="17"/>
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+      <c r="AL69" s="34"/>
     </row>
     <row r="70" spans="3:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="73"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="73"/>
-      <c r="Q70" s="73"/>
-      <c r="R70" s="73"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="73"/>
-      <c r="U70" s="73"/>
-      <c r="V70" s="73"/>
-      <c r="W70" s="73"/>
-      <c r="X70" s="73"/>
-      <c r="Y70" s="73"/>
-      <c r="Z70" s="73"/>
-      <c r="AA70" s="73"/>
-      <c r="AB70" s="73"/>
-      <c r="AC70" s="73"/>
-      <c r="AD70" s="76"/>
-      <c r="AE70" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
-      <c r="AK70" s="19"/>
-      <c r="AL70" s="20"/>
+      <c r="G70" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="78"/>
+      <c r="V70" s="78"/>
+      <c r="W70" s="78"/>
+      <c r="X70" s="78"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="78"/>
+      <c r="AA70" s="78"/>
+      <c r="AB70" s="78"/>
+      <c r="AC70" s="78"/>
+      <c r="AD70" s="84"/>
+      <c r="AE70" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="49"/>
     </row>
     <row r="71" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="G71" s="12" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="G71" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="75"/>
-      <c r="W71" s="75"/>
-      <c r="X71" s="75"/>
-      <c r="Y71" s="75"/>
-      <c r="Z71" s="75"/>
-      <c r="AA71" s="75"/>
-      <c r="AB71" s="75"/>
-      <c r="AC71" s="75"/>
-      <c r="AD71" s="77"/>
-      <c r="AE71" s="13" t="s">
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
+      <c r="W71" s="81"/>
+      <c r="X71" s="81"/>
+      <c r="Y71" s="81"/>
+      <c r="Z71" s="81"/>
+      <c r="AA71" s="81"/>
+      <c r="AB71" s="81"/>
+      <c r="AC71" s="81"/>
+      <c r="AD71" s="86"/>
+      <c r="AE71" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AF71" s="13"/>
-      <c r="AG71" s="13"/>
-      <c r="AH71" s="13"/>
-      <c r="AI71" s="13" t="s">
+      <c r="AF71" s="27"/>
+      <c r="AG71" s="27"/>
+      <c r="AH71" s="27"/>
+      <c r="AI71" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AJ71" s="13"/>
-      <c r="AK71" s="13"/>
-      <c r="AL71" s="23"/>
+      <c r="AJ71" s="27"/>
+      <c r="AK71" s="27"/>
+      <c r="AL71" s="36"/>
     </row>
     <row r="72" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="55"/>
-      <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="55"/>
-      <c r="X72" s="55"/>
-      <c r="Y72" s="55"/>
-      <c r="Z72" s="55"/>
-      <c r="AA72" s="55"/>
-      <c r="AB72" s="55"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="55"/>
-      <c r="AI72" s="55"/>
-      <c r="AJ72" s="55"/>
-      <c r="AK72" s="55"/>
-      <c r="AL72" s="56"/>
+      <c r="G72" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="31"/>
+      <c r="AA72" s="31"/>
+      <c r="AB72" s="31"/>
+      <c r="AC72" s="31"/>
+      <c r="AD72" s="31"/>
+      <c r="AE72" s="31"/>
+      <c r="AF72" s="31"/>
+      <c r="AG72" s="31"/>
+      <c r="AH72" s="31"/>
+      <c r="AI72" s="31"/>
+      <c r="AJ72" s="31"/>
+      <c r="AK72" s="31"/>
+      <c r="AL72" s="32"/>
     </row>
     <row r="73" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="12" t="s">
+      <c r="G73" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13" t="s">
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13" t="s">
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13" t="s">
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13" t="s">
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="13" t="s">
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="13"/>
-      <c r="AD73" s="13"/>
-      <c r="AE73" s="13" t="s">
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF73" s="13"/>
-      <c r="AG73" s="13"/>
-      <c r="AH73" s="13"/>
-      <c r="AI73" s="13" t="s">
+      <c r="AF73" s="27"/>
+      <c r="AG73" s="27"/>
+      <c r="AH73" s="27"/>
+      <c r="AI73" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ73" s="13"/>
-      <c r="AK73" s="13"/>
-      <c r="AL73" s="23"/>
+      <c r="AJ73" s="27"/>
+      <c r="AK73" s="27"/>
+      <c r="AL73" s="36"/>
     </row>
     <row r="74" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C74" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
+      <c r="C74" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="55"/>
-      <c r="W74" s="55"/>
-      <c r="X74" s="55"/>
-      <c r="Y74" s="55"/>
-      <c r="Z74" s="55"/>
-      <c r="AA74" s="55"/>
-      <c r="AB74" s="55"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="55"/>
-      <c r="AI74" s="55"/>
-      <c r="AJ74" s="55"/>
-      <c r="AK74" s="55"/>
-      <c r="AL74" s="56"/>
+      <c r="G74" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="31"/>
+      <c r="X74" s="31"/>
+      <c r="Y74" s="31"/>
+      <c r="Z74" s="31"/>
+      <c r="AA74" s="31"/>
+      <c r="AB74" s="31"/>
+      <c r="AC74" s="31"/>
+      <c r="AD74" s="31"/>
+      <c r="AE74" s="31"/>
+      <c r="AF74" s="31"/>
+      <c r="AG74" s="31"/>
+      <c r="AH74" s="31"/>
+      <c r="AI74" s="31"/>
+      <c r="AJ74" s="31"/>
+      <c r="AK74" s="31"/>
+      <c r="AL74" s="32"/>
     </row>
     <row r="75" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="12" t="s">
+      <c r="G75" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13" t="s">
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13" t="s">
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13" t="s">
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13" t="s">
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="13" t="s">
+      <c r="AF75" s="27"/>
+      <c r="AG75" s="27"/>
+      <c r="AH75" s="27"/>
+      <c r="AI75" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="13"/>
-      <c r="AD75" s="13"/>
-      <c r="AE75" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF75" s="13"/>
-      <c r="AG75" s="13"/>
-      <c r="AH75" s="13"/>
-      <c r="AI75" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ75" s="13"/>
-      <c r="AK75" s="13"/>
-      <c r="AL75" s="23"/>
+      <c r="AJ75" s="27"/>
+      <c r="AK75" s="27"/>
+      <c r="AL75" s="36"/>
     </row>
     <row r="76" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C76" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
+      <c r="C76" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="55"/>
-      <c r="U76" s="55"/>
-      <c r="V76" s="55"/>
-      <c r="W76" s="55"/>
-      <c r="X76" s="55"/>
-      <c r="Y76" s="55"/>
-      <c r="Z76" s="55"/>
-      <c r="AA76" s="55"/>
-      <c r="AB76" s="55"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="55"/>
-      <c r="AE76" s="55"/>
-      <c r="AF76" s="55"/>
-      <c r="AG76" s="55"/>
-      <c r="AH76" s="55"/>
-      <c r="AI76" s="55"/>
-      <c r="AJ76" s="55"/>
-      <c r="AK76" s="55"/>
-      <c r="AL76" s="56"/>
+      <c r="G76" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="31"/>
+      <c r="X76" s="31"/>
+      <c r="Y76" s="31"/>
+      <c r="Z76" s="31"/>
+      <c r="AA76" s="31"/>
+      <c r="AB76" s="31"/>
+      <c r="AC76" s="31"/>
+      <c r="AD76" s="31"/>
+      <c r="AE76" s="31"/>
+      <c r="AF76" s="31"/>
+      <c r="AG76" s="31"/>
+      <c r="AH76" s="31"/>
+      <c r="AI76" s="31"/>
+      <c r="AJ76" s="31"/>
+      <c r="AK76" s="31"/>
+      <c r="AL76" s="32"/>
     </row>
     <row r="77" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13" t="s">
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13" t="s">
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13" t="s">
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13" t="s">
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13" t="s">
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="13"/>
-      <c r="AD77" s="13"/>
-      <c r="AE77" s="13" t="s">
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF77" s="13"/>
-      <c r="AG77" s="13"/>
-      <c r="AH77" s="13"/>
-      <c r="AI77" s="13" t="s">
+      <c r="AF77" s="27"/>
+      <c r="AG77" s="27"/>
+      <c r="AH77" s="27"/>
+      <c r="AI77" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ77" s="13"/>
-      <c r="AK77" s="13"/>
-      <c r="AL77" s="23"/>
+      <c r="AJ77" s="27"/>
+      <c r="AK77" s="27"/>
+      <c r="AL77" s="36"/>
     </row>
     <row r="78" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C78" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
+      <c r="C78" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="55"/>
-      <c r="S78" s="55"/>
-      <c r="T78" s="55"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="55"/>
-      <c r="W78" s="55"/>
-      <c r="X78" s="55"/>
-      <c r="Y78" s="55"/>
-      <c r="Z78" s="55"/>
-      <c r="AA78" s="55"/>
-      <c r="AB78" s="55"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="55"/>
-      <c r="AI78" s="55"/>
-      <c r="AJ78" s="55"/>
-      <c r="AK78" s="55"/>
-      <c r="AL78" s="56"/>
+      <c r="G78" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="31"/>
+      <c r="X78" s="31"/>
+      <c r="Y78" s="31"/>
+      <c r="Z78" s="31"/>
+      <c r="AA78" s="31"/>
+      <c r="AB78" s="31"/>
+      <c r="AC78" s="31"/>
+      <c r="AD78" s="31"/>
+      <c r="AE78" s="31"/>
+      <c r="AF78" s="31"/>
+      <c r="AG78" s="31"/>
+      <c r="AH78" s="31"/>
+      <c r="AI78" s="31"/>
+      <c r="AJ78" s="31"/>
+      <c r="AK78" s="31"/>
+      <c r="AL78" s="32"/>
     </row>
     <row r="79" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13" t="s">
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13" t="s">
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13" t="s">
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13" t="s">
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="13" t="s">
+      <c r="AF79" s="27"/>
+      <c r="AG79" s="27"/>
+      <c r="AH79" s="27"/>
+      <c r="AI79" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="13"/>
-      <c r="AD79" s="13"/>
-      <c r="AE79" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF79" s="13"/>
-      <c r="AG79" s="13"/>
-      <c r="AH79" s="13"/>
-      <c r="AI79" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ79" s="13"/>
-      <c r="AK79" s="13"/>
-      <c r="AL79" s="23"/>
+      <c r="AJ79" s="27"/>
+      <c r="AK79" s="27"/>
+      <c r="AL79" s="36"/>
     </row>
     <row r="80" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="G80" s="54" t="s">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="G80" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="55"/>
-      <c r="AA80" s="55"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="55"/>
-      <c r="AI80" s="55"/>
-      <c r="AJ80" s="55"/>
-      <c r="AK80" s="55"/>
-      <c r="AL80" s="56"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="78"/>
+      <c r="S80" s="78"/>
+      <c r="T80" s="78"/>
+      <c r="U80" s="78"/>
+      <c r="V80" s="78"/>
+      <c r="W80" s="78"/>
+      <c r="X80" s="78"/>
+      <c r="Y80" s="78"/>
+      <c r="Z80" s="78"/>
+      <c r="AA80" s="78"/>
+      <c r="AB80" s="78"/>
+      <c r="AC80" s="78"/>
+      <c r="AD80" s="78"/>
+      <c r="AE80" s="78"/>
+      <c r="AF80" s="78"/>
+      <c r="AG80" s="78"/>
+      <c r="AH80" s="78"/>
+      <c r="AI80" s="78"/>
+      <c r="AJ80" s="78"/>
+      <c r="AK80" s="78"/>
+      <c r="AL80" s="79"/>
     </row>
     <row r="81" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="43"/>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="44"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="81"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="81"/>
+      <c r="X81" s="81"/>
+      <c r="Y81" s="81"/>
+      <c r="Z81" s="81"/>
+      <c r="AA81" s="81"/>
+      <c r="AB81" s="81"/>
+      <c r="AC81" s="81"/>
+      <c r="AD81" s="81"/>
+      <c r="AE81" s="81"/>
+      <c r="AF81" s="81"/>
+      <c r="AG81" s="81"/>
+      <c r="AH81" s="81"/>
+      <c r="AI81" s="81"/>
+      <c r="AJ81" s="81"/>
+      <c r="AK81" s="81"/>
+      <c r="AL81" s="82"/>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C82" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
+      <c r="C82" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
-      <c r="X82" s="55"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="55"/>
-      <c r="AA82" s="55"/>
-      <c r="AB82" s="55"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
-      <c r="AH82" s="55"/>
-      <c r="AI82" s="55"/>
-      <c r="AJ82" s="55"/>
-      <c r="AK82" s="55"/>
-      <c r="AL82" s="56"/>
+      <c r="G82" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="31"/>
+      <c r="Z82" s="31"/>
+      <c r="AA82" s="31"/>
+      <c r="AB82" s="31"/>
+      <c r="AC82" s="31"/>
+      <c r="AD82" s="31"/>
+      <c r="AE82" s="31"/>
+      <c r="AF82" s="31"/>
+      <c r="AG82" s="31"/>
+      <c r="AH82" s="31"/>
+      <c r="AI82" s="31"/>
+      <c r="AJ82" s="31"/>
+      <c r="AK82" s="31"/>
+      <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="12" t="s">
+      <c r="G83" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13" t="s">
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13" t="s">
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13" t="s">
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13" t="s">
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
-      <c r="AA83" s="13" t="s">
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB83" s="13"/>
-      <c r="AC83" s="13"/>
-      <c r="AD83" s="13"/>
-      <c r="AE83" s="13" t="s">
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="13"/>
-      <c r="AI83" s="13" t="s">
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="27"/>
+      <c r="AI83" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ83" s="13"/>
-      <c r="AK83" s="13"/>
-      <c r="AL83" s="23"/>
+      <c r="AJ83" s="27"/>
+      <c r="AK83" s="27"/>
+      <c r="AL83" s="36"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C84" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
+      <c r="C84" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
-      <c r="W84" s="55"/>
-      <c r="X84" s="55"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="55"/>
-      <c r="AA84" s="55"/>
-      <c r="AB84" s="55"/>
-      <c r="AC84" s="55"/>
-      <c r="AD84" s="55"/>
-      <c r="AE84" s="55"/>
-      <c r="AF84" s="55"/>
-      <c r="AG84" s="55"/>
-      <c r="AH84" s="55"/>
-      <c r="AI84" s="55"/>
-      <c r="AJ84" s="55"/>
-      <c r="AK84" s="55"/>
-      <c r="AL84" s="56"/>
+      <c r="G84" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
+      <c r="V84" s="31"/>
+      <c r="W84" s="31"/>
+      <c r="X84" s="31"/>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="31"/>
+      <c r="AA84" s="31"/>
+      <c r="AB84" s="31"/>
+      <c r="AC84" s="31"/>
+      <c r="AD84" s="31"/>
+      <c r="AE84" s="31"/>
+      <c r="AF84" s="31"/>
+      <c r="AG84" s="31"/>
+      <c r="AH84" s="31"/>
+      <c r="AI84" s="31"/>
+      <c r="AJ84" s="31"/>
+      <c r="AK84" s="31"/>
+      <c r="AL84" s="32"/>
     </row>
     <row r="85" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="12" t="s">
+      <c r="G85" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13" t="s">
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13" t="s">
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13" t="s">
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13" t="s">
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="13"/>
-      <c r="AA85" s="13" t="s">
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AB85" s="13"/>
-      <c r="AC85" s="13"/>
-      <c r="AD85" s="13"/>
-      <c r="AE85" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF85" s="13"/>
-      <c r="AG85" s="13"/>
-      <c r="AH85" s="13"/>
-      <c r="AI85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ85" s="13"/>
-      <c r="AK85" s="13"/>
-      <c r="AL85" s="23"/>
+      <c r="AJ85" s="27"/>
+      <c r="AK85" s="27"/>
+      <c r="AL85" s="36"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O88" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="59"/>
-      <c r="AC88" s="59"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="60"/>
+      <c r="O88" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="16"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O89" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="T89" s="70"/>
-      <c r="U89" s="70"/>
-      <c r="V89" s="70"/>
-      <c r="W89" s="70"/>
-      <c r="X89" s="71"/>
-      <c r="Y89" s="62" t="s">
+      <c r="O89" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="T89" s="88"/>
+      <c r="U89" s="88"/>
+      <c r="V89" s="88"/>
+      <c r="W89" s="88"/>
+      <c r="X89" s="89"/>
+      <c r="Y89" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Z89" s="63"/>
-      <c r="AA89" s="63"/>
-      <c r="AB89" s="63"/>
-      <c r="AC89" s="64" t="s">
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AD89" s="65"/>
-      <c r="AE89" s="65"/>
-      <c r="AF89" s="65"/>
-      <c r="AG89" s="65"/>
-      <c r="AH89" s="65"/>
-      <c r="AI89" s="65"/>
-      <c r="AJ89" s="65"/>
-      <c r="AK89" s="65"/>
-      <c r="AL89" s="66"/>
+      <c r="AD89" s="22"/>
+      <c r="AE89" s="22"/>
+      <c r="AF89" s="22"/>
+      <c r="AG89" s="22"/>
+      <c r="AH89" s="22"/>
+      <c r="AI89" s="22"/>
+      <c r="AJ89" s="22"/>
+      <c r="AK89" s="22"/>
+      <c r="AL89" s="23"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O90" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="P90" s="63"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="T90" s="70"/>
-      <c r="U90" s="70"/>
-      <c r="V90" s="70"/>
-      <c r="W90" s="70"/>
-      <c r="X90" s="71"/>
-      <c r="Y90" s="62" t="s">
+      <c r="O90" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" s="91"/>
+      <c r="Q90" s="91"/>
+      <c r="R90" s="91"/>
+      <c r="S90" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Z90" s="63"/>
-      <c r="AA90" s="63"/>
-      <c r="AB90" s="63"/>
-      <c r="AC90" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD90" s="65"/>
-      <c r="AE90" s="65"/>
-      <c r="AF90" s="65"/>
-      <c r="AG90" s="65"/>
-      <c r="AH90" s="65"/>
-      <c r="AI90" s="65"/>
-      <c r="AJ90" s="65"/>
-      <c r="AK90" s="65"/>
-      <c r="AL90" s="66"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="88"/>
+      <c r="V90" s="88"/>
+      <c r="W90" s="88"/>
+      <c r="X90" s="89"/>
+      <c r="Y90" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z90" s="91"/>
+      <c r="AA90" s="91"/>
+      <c r="AB90" s="91"/>
+      <c r="AC90" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD90" s="93"/>
+      <c r="AE90" s="93"/>
+      <c r="AF90" s="93"/>
+      <c r="AG90" s="93"/>
+      <c r="AH90" s="93"/>
+      <c r="AI90" s="93"/>
+      <c r="AJ90" s="93"/>
+      <c r="AK90" s="93"/>
+      <c r="AL90" s="94"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="68">
+      <c r="O91" s="26">
         <v>127</v>
       </c>
-      <c r="P91" s="68"/>
-      <c r="Q91" s="8">
+      <c r="P91" s="26"/>
+      <c r="Q91" s="24">
         <v>120</v>
       </c>
-      <c r="R91" s="67"/>
-      <c r="S91" s="68">
+      <c r="R91" s="25"/>
+      <c r="S91" s="26">
         <v>119</v>
       </c>
-      <c r="T91" s="68"/>
-      <c r="W91" s="8">
+      <c r="T91" s="26"/>
+      <c r="W91" s="24">
         <v>80</v>
       </c>
-      <c r="X91" s="67"/>
-      <c r="Y91" s="68">
+      <c r="X91" s="25"/>
+      <c r="Y91" s="26">
         <v>79</v>
       </c>
-      <c r="Z91" s="68"/>
-      <c r="AA91" s="8">
+      <c r="Z91" s="26"/>
+      <c r="AA91" s="24">
         <v>64</v>
       </c>
-      <c r="AB91" s="67"/>
-      <c r="AC91" s="68">
+      <c r="AB91" s="25"/>
+      <c r="AC91" s="26">
         <v>63</v>
       </c>
-      <c r="AD91" s="68"/>
-      <c r="AK91" s="8">
+      <c r="AD91" s="26"/>
+      <c r="AK91" s="24">
         <v>0</v>
       </c>
-      <c r="AL91" s="67"/>
-      <c r="AM91" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN91" s="61"/>
+      <c r="AL91" s="25"/>
+      <c r="AM91" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN91" s="18"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
     </row>
     <row r="109" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="29" t="str">
+      <c r="F109" s="74" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="29" t="str">
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="74" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="29" t="str">
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="74" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O109" s="30"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="31"/>
-      <c r="R109" s="29" t="str">
+      <c r="O109" s="75"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="74" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S109" s="30"/>
-      <c r="T109" s="30"/>
-      <c r="U109" s="31"/>
-      <c r="V109" s="29" t="str">
+      <c r="S109" s="75"/>
+      <c r="T109" s="75"/>
+      <c r="U109" s="76"/>
+      <c r="V109" s="74" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W109" s="30"/>
-      <c r="X109" s="30"/>
-      <c r="Y109" s="31"/>
-      <c r="Z109" s="29" t="str">
+      <c r="W109" s="75"/>
+      <c r="X109" s="75"/>
+      <c r="Y109" s="76"/>
+      <c r="Z109" s="74" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA109" s="30"/>
-      <c r="AB109" s="30"/>
-      <c r="AC109" s="31"/>
-      <c r="AD109" s="29" t="str">
+      <c r="AA109" s="75"/>
+      <c r="AB109" s="75"/>
+      <c r="AC109" s="76"/>
+      <c r="AD109" s="74" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE109" s="30"/>
-      <c r="AF109" s="30"/>
-      <c r="AG109" s="31"/>
-      <c r="AH109" s="29" t="str">
+      <c r="AE109" s="75"/>
+      <c r="AF109" s="75"/>
+      <c r="AG109" s="76"/>
+      <c r="AH109" s="74" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI109" s="30"/>
-      <c r="AJ109" s="30"/>
-      <c r="AK109" s="31"/>
+      <c r="AI109" s="75"/>
+      <c r="AJ109" s="75"/>
+      <c r="AK109" s="76"/>
     </row>
     <row r="110" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C110" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D110" s="27"/>
+      <c r="C110" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="12"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="78" t="s">
+      <c r="F110" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="K110" s="78"/>
+      <c r="L110" s="78"/>
+      <c r="M110" s="78"/>
+      <c r="N110" s="78"/>
+      <c r="O110" s="78"/>
+      <c r="P110" s="78"/>
+      <c r="Q110" s="78"/>
+      <c r="R110" s="78"/>
+      <c r="S110" s="78"/>
+      <c r="T110" s="78"/>
+      <c r="U110" s="78"/>
+      <c r="V110" s="78"/>
+      <c r="W110" s="78"/>
+      <c r="X110" s="78"/>
+      <c r="Y110" s="78"/>
+      <c r="Z110" s="78"/>
+      <c r="AA110" s="78"/>
+      <c r="AB110" s="78"/>
+      <c r="AC110" s="84"/>
+      <c r="AD110" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79"/>
-      <c r="I110" s="79"/>
-      <c r="J110" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="K110" s="73"/>
-      <c r="L110" s="73"/>
-      <c r="M110" s="73"/>
-      <c r="N110" s="73"/>
-      <c r="O110" s="73"/>
-      <c r="P110" s="73"/>
-      <c r="Q110" s="73"/>
-      <c r="R110" s="73"/>
-      <c r="S110" s="73"/>
-      <c r="T110" s="73"/>
-      <c r="U110" s="73"/>
-      <c r="V110" s="73"/>
-      <c r="W110" s="73"/>
-      <c r="X110" s="73"/>
-      <c r="Y110" s="73"/>
-      <c r="Z110" s="73"/>
-      <c r="AA110" s="73"/>
-      <c r="AB110" s="73"/>
-      <c r="AC110" s="76"/>
-      <c r="AD110" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE110" s="19"/>
-      <c r="AF110" s="19"/>
-      <c r="AG110" s="19"/>
-      <c r="AH110" s="19"/>
-      <c r="AI110" s="19"/>
-      <c r="AJ110" s="19"/>
-      <c r="AK110" s="20"/>
+      <c r="AE110" s="48"/>
+      <c r="AF110" s="48"/>
+      <c r="AG110" s="48"/>
+      <c r="AH110" s="48"/>
+      <c r="AI110" s="48"/>
+      <c r="AJ110" s="48"/>
+      <c r="AK110" s="49"/>
     </row>
     <row r="111" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="75"/>
-      <c r="P111" s="75"/>
-      <c r="Q111" s="75"/>
-      <c r="R111" s="75"/>
-      <c r="S111" s="75"/>
-      <c r="T111" s="75"/>
-      <c r="U111" s="75"/>
-      <c r="V111" s="75"/>
-      <c r="W111" s="75"/>
-      <c r="X111" s="75"/>
-      <c r="Y111" s="75"/>
-      <c r="Z111" s="75"/>
-      <c r="AA111" s="75"/>
-      <c r="AB111" s="75"/>
-      <c r="AC111" s="77"/>
-      <c r="AD111" s="13" t="s">
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="81"/>
+      <c r="L111" s="81"/>
+      <c r="M111" s="81"/>
+      <c r="N111" s="81"/>
+      <c r="O111" s="81"/>
+      <c r="P111" s="81"/>
+      <c r="Q111" s="81"/>
+      <c r="R111" s="81"/>
+      <c r="S111" s="81"/>
+      <c r="T111" s="81"/>
+      <c r="U111" s="81"/>
+      <c r="V111" s="81"/>
+      <c r="W111" s="81"/>
+      <c r="X111" s="81"/>
+      <c r="Y111" s="81"/>
+      <c r="Z111" s="81"/>
+      <c r="AA111" s="81"/>
+      <c r="AB111" s="81"/>
+      <c r="AC111" s="86"/>
+      <c r="AD111" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AE111" s="13"/>
-      <c r="AF111" s="13"/>
-      <c r="AG111" s="13"/>
-      <c r="AH111" s="13" t="s">
+      <c r="AE111" s="27"/>
+      <c r="AF111" s="27"/>
+      <c r="AG111" s="27"/>
+      <c r="AH111" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AI111" s="13"/>
-      <c r="AJ111" s="13"/>
-      <c r="AK111" s="23"/>
+      <c r="AI111" s="27"/>
+      <c r="AJ111" s="27"/>
+      <c r="AK111" s="36"/>
     </row>
     <row r="114" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="15" t="str">
+      <c r="F114" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="15" t="str">
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="15" t="str">
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="17"/>
-      <c r="R114" s="15" t="str">
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S114" s="16"/>
-      <c r="T114" s="16"/>
-      <c r="U114" s="17"/>
-      <c r="V114" s="15" t="str">
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="34"/>
+      <c r="V114" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W114" s="16"/>
-      <c r="X114" s="16"/>
-      <c r="Y114" s="17"/>
-      <c r="Z114" s="15" t="str">
+      <c r="W114" s="17"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="34"/>
+      <c r="Z114" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA114" s="16"/>
-      <c r="AB114" s="16"/>
-      <c r="AC114" s="17"/>
-      <c r="AD114" s="15" t="str">
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="34"/>
+      <c r="AD114" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE114" s="16"/>
-      <c r="AF114" s="16"/>
-      <c r="AG114" s="17"/>
-      <c r="AH114" s="15" t="str">
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="34"/>
+      <c r="AH114" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI114" s="16"/>
-      <c r="AJ114" s="16"/>
-      <c r="AK114" s="17"/>
+      <c r="AI114" s="17"/>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="34"/>
     </row>
     <row r="115" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C115" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="8"/>
+      <c r="C115" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="24"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G115" s="79"/>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="K115" s="73"/>
-      <c r="L115" s="73"/>
-      <c r="M115" s="73"/>
-      <c r="N115" s="73"/>
-      <c r="O115" s="73"/>
-      <c r="P115" s="73"/>
-      <c r="Q115" s="73"/>
-      <c r="R115" s="73"/>
-      <c r="S115" s="73"/>
-      <c r="T115" s="73"/>
-      <c r="U115" s="73"/>
-      <c r="V115" s="73"/>
-      <c r="W115" s="73"/>
-      <c r="X115" s="73"/>
-      <c r="Y115" s="73"/>
-      <c r="Z115" s="73"/>
-      <c r="AA115" s="73"/>
-      <c r="AB115" s="73"/>
-      <c r="AC115" s="73"/>
-      <c r="AD115" s="73"/>
-      <c r="AE115" s="73"/>
-      <c r="AF115" s="73"/>
-      <c r="AG115" s="73"/>
-      <c r="AH115" s="73"/>
-      <c r="AI115" s="73"/>
-      <c r="AJ115" s="73"/>
-      <c r="AK115" s="80"/>
+      <c r="F115" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115" s="73"/>
+      <c r="H115" s="73"/>
+      <c r="I115" s="73"/>
+      <c r="J115" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K115" s="78"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="78"/>
+      <c r="N115" s="78"/>
+      <c r="O115" s="78"/>
+      <c r="P115" s="78"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="78"/>
+      <c r="S115" s="78"/>
+      <c r="T115" s="78"/>
+      <c r="U115" s="78"/>
+      <c r="V115" s="78"/>
+      <c r="W115" s="78"/>
+      <c r="X115" s="78"/>
+      <c r="Y115" s="78"/>
+      <c r="Z115" s="78"/>
+      <c r="AA115" s="78"/>
+      <c r="AB115" s="78"/>
+      <c r="AC115" s="78"/>
+      <c r="AD115" s="78"/>
+      <c r="AE115" s="78"/>
+      <c r="AF115" s="78"/>
+      <c r="AG115" s="78"/>
+      <c r="AH115" s="78"/>
+      <c r="AI115" s="78"/>
+      <c r="AJ115" s="78"/>
+      <c r="AK115" s="79"/>
     </row>
     <row r="116" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="12" t="s">
+      <c r="F116" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="74"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="75"/>
-      <c r="R116" s="75"/>
-      <c r="S116" s="75"/>
-      <c r="T116" s="75"/>
-      <c r="U116" s="75"/>
-      <c r="V116" s="75"/>
-      <c r="W116" s="75"/>
-      <c r="X116" s="75"/>
-      <c r="Y116" s="75"/>
-      <c r="Z116" s="75"/>
-      <c r="AA116" s="75"/>
-      <c r="AB116" s="75"/>
-      <c r="AC116" s="75"/>
-      <c r="AD116" s="75"/>
-      <c r="AE116" s="75"/>
-      <c r="AF116" s="75"/>
-      <c r="AG116" s="75"/>
-      <c r="AH116" s="75"/>
-      <c r="AI116" s="75"/>
-      <c r="AJ116" s="75"/>
-      <c r="AK116" s="81"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="81"/>
+      <c r="M116" s="81"/>
+      <c r="N116" s="81"/>
+      <c r="O116" s="81"/>
+      <c r="P116" s="81"/>
+      <c r="Q116" s="81"/>
+      <c r="R116" s="81"/>
+      <c r="S116" s="81"/>
+      <c r="T116" s="81"/>
+      <c r="U116" s="81"/>
+      <c r="V116" s="81"/>
+      <c r="W116" s="81"/>
+      <c r="X116" s="81"/>
+      <c r="Y116" s="81"/>
+      <c r="Z116" s="81"/>
+      <c r="AA116" s="81"/>
+      <c r="AB116" s="81"/>
+      <c r="AC116" s="81"/>
+      <c r="AD116" s="81"/>
+      <c r="AE116" s="81"/>
+      <c r="AF116" s="81"/>
+      <c r="AG116" s="81"/>
+      <c r="AH116" s="81"/>
+      <c r="AI116" s="81"/>
+      <c r="AJ116" s="81"/>
+      <c r="AK116" s="82"/>
     </row>
     <row r="119" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="15" t="str">
+      <c r="F119" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="15" t="str">
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="15" t="str">
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="34"/>
+      <c r="N119" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="15" t="str">
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="34"/>
+      <c r="R119" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-      <c r="U119" s="17"/>
-      <c r="V119" s="15" t="str">
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="34"/>
+      <c r="V119" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W119" s="16"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="17"/>
-      <c r="Z119" s="15" t="str">
+      <c r="W119" s="17"/>
+      <c r="X119" s="17"/>
+      <c r="Y119" s="34"/>
+      <c r="Z119" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA119" s="16"/>
-      <c r="AB119" s="16"/>
-      <c r="AC119" s="17"/>
-      <c r="AD119" s="15" t="str">
+      <c r="AA119" s="17"/>
+      <c r="AB119" s="17"/>
+      <c r="AC119" s="34"/>
+      <c r="AD119" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE119" s="16"/>
-      <c r="AF119" s="16"/>
-      <c r="AG119" s="17"/>
-      <c r="AH119" s="15" t="str">
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="17"/>
+      <c r="AG119" s="34"/>
+      <c r="AH119" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI119" s="16"/>
-      <c r="AJ119" s="16"/>
-      <c r="AK119" s="17"/>
+      <c r="AI119" s="17"/>
+      <c r="AJ119" s="17"/>
+      <c r="AK119" s="34"/>
     </row>
     <row r="120" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C120" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D120" s="8"/>
+      <c r="C120" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="24"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="79"/>
-      <c r="J120" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="K120" s="73"/>
-      <c r="L120" s="73"/>
-      <c r="M120" s="73"/>
-      <c r="N120" s="73"/>
-      <c r="O120" s="73"/>
-      <c r="P120" s="73"/>
-      <c r="Q120" s="73"/>
-      <c r="R120" s="73"/>
-      <c r="S120" s="73"/>
-      <c r="T120" s="73"/>
-      <c r="U120" s="73"/>
-      <c r="V120" s="73"/>
-      <c r="W120" s="73"/>
-      <c r="X120" s="73"/>
-      <c r="Y120" s="73"/>
-      <c r="Z120" s="73"/>
-      <c r="AA120" s="73"/>
-      <c r="AB120" s="73"/>
-      <c r="AC120" s="73"/>
-      <c r="AD120" s="73"/>
-      <c r="AE120" s="73"/>
-      <c r="AF120" s="73"/>
-      <c r="AG120" s="73"/>
-      <c r="AH120" s="73"/>
-      <c r="AI120" s="73"/>
-      <c r="AJ120" s="73"/>
-      <c r="AK120" s="80"/>
+      <c r="F120" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K120" s="78"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="78"/>
+      <c r="N120" s="78"/>
+      <c r="O120" s="78"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="78"/>
+      <c r="R120" s="78"/>
+      <c r="S120" s="78"/>
+      <c r="T120" s="78"/>
+      <c r="U120" s="78"/>
+      <c r="V120" s="78"/>
+      <c r="W120" s="78"/>
+      <c r="X120" s="78"/>
+      <c r="Y120" s="78"/>
+      <c r="Z120" s="78"/>
+      <c r="AA120" s="78"/>
+      <c r="AB120" s="78"/>
+      <c r="AC120" s="78"/>
+      <c r="AD120" s="78"/>
+      <c r="AE120" s="78"/>
+      <c r="AF120" s="78"/>
+      <c r="AG120" s="78"/>
+      <c r="AH120" s="78"/>
+      <c r="AI120" s="78"/>
+      <c r="AJ120" s="78"/>
+      <c r="AK120" s="79"/>
     </row>
     <row r="121" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="12" t="s">
+      <c r="F121" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="74"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
-      <c r="M121" s="75"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="75"/>
-      <c r="P121" s="75"/>
-      <c r="Q121" s="75"/>
-      <c r="R121" s="75"/>
-      <c r="S121" s="75"/>
-      <c r="T121" s="75"/>
-      <c r="U121" s="75"/>
-      <c r="V121" s="75"/>
-      <c r="W121" s="75"/>
-      <c r="X121" s="75"/>
-      <c r="Y121" s="75"/>
-      <c r="Z121" s="75"/>
-      <c r="AA121" s="75"/>
-      <c r="AB121" s="75"/>
-      <c r="AC121" s="75"/>
-      <c r="AD121" s="75"/>
-      <c r="AE121" s="75"/>
-      <c r="AF121" s="75"/>
-      <c r="AG121" s="75"/>
-      <c r="AH121" s="75"/>
-      <c r="AI121" s="75"/>
-      <c r="AJ121" s="75"/>
-      <c r="AK121" s="81"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="85"/>
+      <c r="K121" s="81"/>
+      <c r="L121" s="81"/>
+      <c r="M121" s="81"/>
+      <c r="N121" s="81"/>
+      <c r="O121" s="81"/>
+      <c r="P121" s="81"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="81"/>
+      <c r="U121" s="81"/>
+      <c r="V121" s="81"/>
+      <c r="W121" s="81"/>
+      <c r="X121" s="81"/>
+      <c r="Y121" s="81"/>
+      <c r="Z121" s="81"/>
+      <c r="AA121" s="81"/>
+      <c r="AB121" s="81"/>
+      <c r="AC121" s="81"/>
+      <c r="AD121" s="81"/>
+      <c r="AE121" s="81"/>
+      <c r="AF121" s="81"/>
+      <c r="AG121" s="81"/>
+      <c r="AH121" s="81"/>
+      <c r="AI121" s="81"/>
+      <c r="AJ121" s="81"/>
+      <c r="AK121" s="82"/>
     </row>
     <row r="124" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="15" t="str">
+      <c r="F124" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="15" t="str">
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="15" t="str">
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="17"/>
-      <c r="R124" s="15" t="str">
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="34"/>
+      <c r="R124" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S124" s="16"/>
-      <c r="T124" s="16"/>
-      <c r="U124" s="17"/>
-      <c r="V124" s="15" t="str">
+      <c r="S124" s="17"/>
+      <c r="T124" s="17"/>
+      <c r="U124" s="34"/>
+      <c r="V124" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W124" s="16"/>
-      <c r="X124" s="16"/>
-      <c r="Y124" s="17"/>
-      <c r="Z124" s="15" t="str">
+      <c r="W124" s="17"/>
+      <c r="X124" s="17"/>
+      <c r="Y124" s="34"/>
+      <c r="Z124" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA124" s="16"/>
-      <c r="AB124" s="16"/>
-      <c r="AC124" s="17"/>
-      <c r="AD124" s="15" t="str">
+      <c r="AA124" s="17"/>
+      <c r="AB124" s="17"/>
+      <c r="AC124" s="34"/>
+      <c r="AD124" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE124" s="16"/>
-      <c r="AF124" s="16"/>
-      <c r="AG124" s="17"/>
-      <c r="AH124" s="15" t="str">
+      <c r="AE124" s="17"/>
+      <c r="AF124" s="17"/>
+      <c r="AG124" s="34"/>
+      <c r="AH124" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI124" s="16"/>
-      <c r="AJ124" s="16"/>
-      <c r="AK124" s="17"/>
+      <c r="AI124" s="17"/>
+      <c r="AJ124" s="17"/>
+      <c r="AK124" s="34"/>
     </row>
     <row r="125" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C125" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="8"/>
+      <c r="C125" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="24"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="79"/>
-      <c r="J125" s="72" t="s">
+      <c r="F125" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="K125" s="73"/>
-      <c r="L125" s="73"/>
-      <c r="M125" s="73"/>
-      <c r="N125" s="73"/>
-      <c r="O125" s="73"/>
-      <c r="P125" s="73"/>
-      <c r="Q125" s="73"/>
-      <c r="R125" s="73"/>
-      <c r="S125" s="73"/>
-      <c r="T125" s="73"/>
-      <c r="U125" s="73"/>
-      <c r="V125" s="73"/>
-      <c r="W125" s="73"/>
-      <c r="X125" s="73"/>
-      <c r="Y125" s="73"/>
-      <c r="Z125" s="73"/>
-      <c r="AA125" s="73"/>
-      <c r="AB125" s="73"/>
-      <c r="AC125" s="73"/>
-      <c r="AD125" s="73"/>
-      <c r="AE125" s="73"/>
-      <c r="AF125" s="73"/>
-      <c r="AG125" s="73"/>
-      <c r="AH125" s="73"/>
-      <c r="AI125" s="73"/>
-      <c r="AJ125" s="73"/>
-      <c r="AK125" s="80"/>
+      <c r="G125" s="73"/>
+      <c r="H125" s="73"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K125" s="78"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="78"/>
+      <c r="N125" s="78"/>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="78"/>
+      <c r="R125" s="78"/>
+      <c r="S125" s="78"/>
+      <c r="T125" s="78"/>
+      <c r="U125" s="78"/>
+      <c r="V125" s="78"/>
+      <c r="W125" s="78"/>
+      <c r="X125" s="78"/>
+      <c r="Y125" s="78"/>
+      <c r="Z125" s="78"/>
+      <c r="AA125" s="78"/>
+      <c r="AB125" s="78"/>
+      <c r="AC125" s="78"/>
+      <c r="AD125" s="78"/>
+      <c r="AE125" s="78"/>
+      <c r="AF125" s="78"/>
+      <c r="AG125" s="78"/>
+      <c r="AH125" s="78"/>
+      <c r="AI125" s="78"/>
+      <c r="AJ125" s="78"/>
+      <c r="AK125" s="79"/>
     </row>
     <row r="126" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="12" t="s">
+      <c r="F126" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="74"/>
-      <c r="K126" s="75"/>
-      <c r="L126" s="75"/>
-      <c r="M126" s="75"/>
-      <c r="N126" s="75"/>
-      <c r="O126" s="75"/>
-      <c r="P126" s="75"/>
-      <c r="Q126" s="75"/>
-      <c r="R126" s="75"/>
-      <c r="S126" s="75"/>
-      <c r="T126" s="75"/>
-      <c r="U126" s="75"/>
-      <c r="V126" s="75"/>
-      <c r="W126" s="75"/>
-      <c r="X126" s="75"/>
-      <c r="Y126" s="75"/>
-      <c r="Z126" s="75"/>
-      <c r="AA126" s="75"/>
-      <c r="AB126" s="75"/>
-      <c r="AC126" s="75"/>
-      <c r="AD126" s="75"/>
-      <c r="AE126" s="75"/>
-      <c r="AF126" s="75"/>
-      <c r="AG126" s="75"/>
-      <c r="AH126" s="75"/>
-      <c r="AI126" s="75"/>
-      <c r="AJ126" s="75"/>
-      <c r="AK126" s="81"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="85"/>
+      <c r="K126" s="81"/>
+      <c r="L126" s="81"/>
+      <c r="M126" s="81"/>
+      <c r="N126" s="81"/>
+      <c r="O126" s="81"/>
+      <c r="P126" s="81"/>
+      <c r="Q126" s="81"/>
+      <c r="R126" s="81"/>
+      <c r="S126" s="81"/>
+      <c r="T126" s="81"/>
+      <c r="U126" s="81"/>
+      <c r="V126" s="81"/>
+      <c r="W126" s="81"/>
+      <c r="X126" s="81"/>
+      <c r="Y126" s="81"/>
+      <c r="Z126" s="81"/>
+      <c r="AA126" s="81"/>
+      <c r="AB126" s="81"/>
+      <c r="AC126" s="81"/>
+      <c r="AD126" s="81"/>
+      <c r="AE126" s="81"/>
+      <c r="AF126" s="81"/>
+      <c r="AG126" s="81"/>
+      <c r="AH126" s="81"/>
+      <c r="AI126" s="81"/>
+      <c r="AJ126" s="81"/>
+      <c r="AK126" s="82"/>
     </row>
     <row r="129" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="15" t="str">
+      <c r="F129" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="15" t="str">
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="15" t="str">
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="34"/>
+      <c r="N129" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="17"/>
-      <c r="R129" s="15" t="str">
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="34"/>
+      <c r="R129" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S129" s="16"/>
-      <c r="T129" s="16"/>
-      <c r="U129" s="17"/>
-      <c r="V129" s="15" t="str">
+      <c r="S129" s="17"/>
+      <c r="T129" s="17"/>
+      <c r="U129" s="34"/>
+      <c r="V129" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W129" s="16"/>
-      <c r="X129" s="16"/>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="15" t="str">
+      <c r="W129" s="17"/>
+      <c r="X129" s="17"/>
+      <c r="Y129" s="34"/>
+      <c r="Z129" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA129" s="16"/>
-      <c r="AB129" s="16"/>
-      <c r="AC129" s="17"/>
-      <c r="AD129" s="15" t="str">
+      <c r="AA129" s="17"/>
+      <c r="AB129" s="17"/>
+      <c r="AC129" s="34"/>
+      <c r="AD129" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE129" s="16"/>
-      <c r="AF129" s="16"/>
-      <c r="AG129" s="17"/>
-      <c r="AH129" s="15" t="str">
+      <c r="AE129" s="17"/>
+      <c r="AF129" s="17"/>
+      <c r="AG129" s="34"/>
+      <c r="AH129" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI129" s="16"/>
-      <c r="AJ129" s="16"/>
-      <c r="AK129" s="17"/>
+      <c r="AI129" s="17"/>
+      <c r="AJ129" s="17"/>
+      <c r="AK129" s="34"/>
     </row>
     <row r="130" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="8"/>
+      <c r="C130" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="24"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G130" s="79"/>
-      <c r="H130" s="79"/>
-      <c r="I130" s="79"/>
-      <c r="J130" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="K130" s="73"/>
-      <c r="L130" s="73"/>
-      <c r="M130" s="73"/>
-      <c r="N130" s="73"/>
-      <c r="O130" s="73"/>
-      <c r="P130" s="73"/>
-      <c r="Q130" s="73"/>
-      <c r="R130" s="73"/>
-      <c r="S130" s="73"/>
-      <c r="T130" s="73"/>
-      <c r="U130" s="73"/>
-      <c r="V130" s="73"/>
-      <c r="W130" s="73"/>
-      <c r="X130" s="73"/>
-      <c r="Y130" s="73"/>
-      <c r="Z130" s="73"/>
-      <c r="AA130" s="73"/>
-      <c r="AB130" s="73"/>
-      <c r="AC130" s="73"/>
-      <c r="AD130" s="73"/>
-      <c r="AE130" s="73"/>
-      <c r="AF130" s="73"/>
-      <c r="AG130" s="73"/>
-      <c r="AH130" s="73"/>
-      <c r="AI130" s="73"/>
-      <c r="AJ130" s="73"/>
-      <c r="AK130" s="80"/>
+      <c r="F130" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G130" s="73"/>
+      <c r="H130" s="73"/>
+      <c r="I130" s="73"/>
+      <c r="J130" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K130" s="78"/>
+      <c r="L130" s="78"/>
+      <c r="M130" s="78"/>
+      <c r="N130" s="78"/>
+      <c r="O130" s="78"/>
+      <c r="P130" s="78"/>
+      <c r="Q130" s="78"/>
+      <c r="R130" s="78"/>
+      <c r="S130" s="78"/>
+      <c r="T130" s="78"/>
+      <c r="U130" s="78"/>
+      <c r="V130" s="78"/>
+      <c r="W130" s="78"/>
+      <c r="X130" s="78"/>
+      <c r="Y130" s="78"/>
+      <c r="Z130" s="78"/>
+      <c r="AA130" s="78"/>
+      <c r="AB130" s="78"/>
+      <c r="AC130" s="78"/>
+      <c r="AD130" s="78"/>
+      <c r="AE130" s="78"/>
+      <c r="AF130" s="78"/>
+      <c r="AG130" s="78"/>
+      <c r="AH130" s="78"/>
+      <c r="AI130" s="78"/>
+      <c r="AJ130" s="78"/>
+      <c r="AK130" s="79"/>
     </row>
     <row r="131" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="12" t="s">
+      <c r="F131" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="74"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="75"/>
-      <c r="P131" s="75"/>
-      <c r="Q131" s="75"/>
-      <c r="R131" s="75"/>
-      <c r="S131" s="75"/>
-      <c r="T131" s="75"/>
-      <c r="U131" s="75"/>
-      <c r="V131" s="75"/>
-      <c r="W131" s="75"/>
-      <c r="X131" s="75"/>
-      <c r="Y131" s="75"/>
-      <c r="Z131" s="75"/>
-      <c r="AA131" s="75"/>
-      <c r="AB131" s="75"/>
-      <c r="AC131" s="75"/>
-      <c r="AD131" s="75"/>
-      <c r="AE131" s="75"/>
-      <c r="AF131" s="75"/>
-      <c r="AG131" s="75"/>
-      <c r="AH131" s="75"/>
-      <c r="AI131" s="75"/>
-      <c r="AJ131" s="75"/>
-      <c r="AK131" s="81"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="85"/>
+      <c r="K131" s="81"/>
+      <c r="L131" s="81"/>
+      <c r="M131" s="81"/>
+      <c r="N131" s="81"/>
+      <c r="O131" s="81"/>
+      <c r="P131" s="81"/>
+      <c r="Q131" s="81"/>
+      <c r="R131" s="81"/>
+      <c r="S131" s="81"/>
+      <c r="T131" s="81"/>
+      <c r="U131" s="81"/>
+      <c r="V131" s="81"/>
+      <c r="W131" s="81"/>
+      <c r="X131" s="81"/>
+      <c r="Y131" s="81"/>
+      <c r="Z131" s="81"/>
+      <c r="AA131" s="81"/>
+      <c r="AB131" s="81"/>
+      <c r="AC131" s="81"/>
+      <c r="AD131" s="81"/>
+      <c r="AE131" s="81"/>
+      <c r="AF131" s="81"/>
+      <c r="AG131" s="81"/>
+      <c r="AH131" s="81"/>
+      <c r="AI131" s="81"/>
+      <c r="AJ131" s="81"/>
+      <c r="AK131" s="82"/>
     </row>
     <row r="134" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="15" t="str">
+      <c r="F134" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="15" t="str">
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="15" t="str">
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="34"/>
+      <c r="N134" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="15" t="str">
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="34"/>
+      <c r="R134" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="17"/>
-      <c r="V134" s="15" t="str">
+      <c r="S134" s="17"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="34"/>
+      <c r="V134" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="15" t="str">
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="34"/>
+      <c r="Z134" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="17"/>
-      <c r="AD134" s="15" t="str">
+      <c r="AA134" s="17"/>
+      <c r="AB134" s="17"/>
+      <c r="AC134" s="34"/>
+      <c r="AD134" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE134" s="16"/>
-      <c r="AF134" s="16"/>
-      <c r="AG134" s="17"/>
-      <c r="AH134" s="15" t="str">
+      <c r="AE134" s="17"/>
+      <c r="AF134" s="17"/>
+      <c r="AG134" s="34"/>
+      <c r="AH134" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI134" s="16"/>
-      <c r="AJ134" s="16"/>
-      <c r="AK134" s="17"/>
+      <c r="AI134" s="17"/>
+      <c r="AJ134" s="17"/>
+      <c r="AK134" s="34"/>
     </row>
     <row r="135" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C135" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D135" s="8"/>
+      <c r="C135" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" s="24"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G135" s="79"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="79"/>
-      <c r="J135" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="K135" s="73"/>
-      <c r="L135" s="73"/>
-      <c r="M135" s="73"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="73"/>
-      <c r="Q135" s="73"/>
-      <c r="R135" s="73"/>
-      <c r="S135" s="73"/>
-      <c r="T135" s="73"/>
-      <c r="U135" s="73"/>
-      <c r="V135" s="73"/>
-      <c r="W135" s="73"/>
-      <c r="X135" s="73"/>
-      <c r="Y135" s="73"/>
-      <c r="Z135" s="73"/>
-      <c r="AA135" s="73"/>
-      <c r="AB135" s="73"/>
-      <c r="AC135" s="73"/>
-      <c r="AD135" s="73"/>
-      <c r="AE135" s="73"/>
-      <c r="AF135" s="73"/>
-      <c r="AG135" s="73"/>
-      <c r="AH135" s="73"/>
-      <c r="AI135" s="73"/>
-      <c r="AJ135" s="73"/>
-      <c r="AK135" s="80"/>
+      <c r="F135" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K135" s="78"/>
+      <c r="L135" s="78"/>
+      <c r="M135" s="78"/>
+      <c r="N135" s="78"/>
+      <c r="O135" s="78"/>
+      <c r="P135" s="78"/>
+      <c r="Q135" s="78"/>
+      <c r="R135" s="78"/>
+      <c r="S135" s="78"/>
+      <c r="T135" s="78"/>
+      <c r="U135" s="78"/>
+      <c r="V135" s="78"/>
+      <c r="W135" s="78"/>
+      <c r="X135" s="78"/>
+      <c r="Y135" s="78"/>
+      <c r="Z135" s="78"/>
+      <c r="AA135" s="78"/>
+      <c r="AB135" s="78"/>
+      <c r="AC135" s="78"/>
+      <c r="AD135" s="78"/>
+      <c r="AE135" s="78"/>
+      <c r="AF135" s="78"/>
+      <c r="AG135" s="78"/>
+      <c r="AH135" s="78"/>
+      <c r="AI135" s="78"/>
+      <c r="AJ135" s="78"/>
+      <c r="AK135" s="79"/>
     </row>
     <row r="136" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="12" t="s">
+      <c r="F136" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="74"/>
-      <c r="K136" s="75"/>
-      <c r="L136" s="75"/>
-      <c r="M136" s="75"/>
-      <c r="N136" s="75"/>
-      <c r="O136" s="75"/>
-      <c r="P136" s="75"/>
-      <c r="Q136" s="75"/>
-      <c r="R136" s="75"/>
-      <c r="S136" s="75"/>
-      <c r="T136" s="75"/>
-      <c r="U136" s="75"/>
-      <c r="V136" s="75"/>
-      <c r="W136" s="75"/>
-      <c r="X136" s="75"/>
-      <c r="Y136" s="75"/>
-      <c r="Z136" s="75"/>
-      <c r="AA136" s="75"/>
-      <c r="AB136" s="75"/>
-      <c r="AC136" s="75"/>
-      <c r="AD136" s="75"/>
-      <c r="AE136" s="75"/>
-      <c r="AF136" s="75"/>
-      <c r="AG136" s="75"/>
-      <c r="AH136" s="75"/>
-      <c r="AI136" s="75"/>
-      <c r="AJ136" s="75"/>
-      <c r="AK136" s="81"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="85"/>
+      <c r="K136" s="81"/>
+      <c r="L136" s="81"/>
+      <c r="M136" s="81"/>
+      <c r="N136" s="81"/>
+      <c r="O136" s="81"/>
+      <c r="P136" s="81"/>
+      <c r="Q136" s="81"/>
+      <c r="R136" s="81"/>
+      <c r="S136" s="81"/>
+      <c r="T136" s="81"/>
+      <c r="U136" s="81"/>
+      <c r="V136" s="81"/>
+      <c r="W136" s="81"/>
+      <c r="X136" s="81"/>
+      <c r="Y136" s="81"/>
+      <c r="Z136" s="81"/>
+      <c r="AA136" s="81"/>
+      <c r="AB136" s="81"/>
+      <c r="AC136" s="81"/>
+      <c r="AD136" s="81"/>
+      <c r="AE136" s="81"/>
+      <c r="AF136" s="81"/>
+      <c r="AG136" s="81"/>
+      <c r="AH136" s="81"/>
+      <c r="AI136" s="81"/>
+      <c r="AJ136" s="81"/>
+      <c r="AK136" s="82"/>
     </row>
     <row r="139" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="15" t="str">
+      <c r="F139" s="33" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="15" t="str">
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="33" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="15" t="str">
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="33" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O139" s="16"/>
-      <c r="P139" s="16"/>
-      <c r="Q139" s="17"/>
-      <c r="R139" s="15" t="str">
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="33" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S139" s="16"/>
-      <c r="T139" s="16"/>
-      <c r="U139" s="17"/>
-      <c r="V139" s="15" t="str">
+      <c r="S139" s="17"/>
+      <c r="T139" s="17"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="33" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W139" s="16"/>
-      <c r="X139" s="16"/>
-      <c r="Y139" s="17"/>
-      <c r="Z139" s="15" t="str">
+      <c r="W139" s="17"/>
+      <c r="X139" s="17"/>
+      <c r="Y139" s="34"/>
+      <c r="Z139" s="33" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA139" s="16"/>
-      <c r="AB139" s="16"/>
-      <c r="AC139" s="17"/>
-      <c r="AD139" s="15" t="str">
+      <c r="AA139" s="17"/>
+      <c r="AB139" s="17"/>
+      <c r="AC139" s="34"/>
+      <c r="AD139" s="33" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE139" s="16"/>
-      <c r="AF139" s="16"/>
-      <c r="AG139" s="17"/>
-      <c r="AH139" s="15" t="str">
+      <c r="AE139" s="17"/>
+      <c r="AF139" s="17"/>
+      <c r="AG139" s="34"/>
+      <c r="AH139" s="33" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI139" s="16"/>
-      <c r="AJ139" s="16"/>
-      <c r="AK139" s="17"/>
+      <c r="AI139" s="17"/>
+      <c r="AJ139" s="17"/>
+      <c r="AK139" s="34"/>
     </row>
     <row r="140" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C140" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D140" s="8"/>
+      <c r="C140" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="24"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G140" s="79"/>
-      <c r="H140" s="79"/>
-      <c r="I140" s="79"/>
-      <c r="J140" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="K140" s="73"/>
-      <c r="L140" s="73"/>
-      <c r="M140" s="73"/>
-      <c r="N140" s="73"/>
-      <c r="O140" s="73"/>
-      <c r="P140" s="73"/>
-      <c r="Q140" s="73"/>
-      <c r="R140" s="73"/>
-      <c r="S140" s="73"/>
-      <c r="T140" s="73"/>
-      <c r="U140" s="73"/>
-      <c r="V140" s="73"/>
-      <c r="W140" s="73"/>
-      <c r="X140" s="73"/>
-      <c r="Y140" s="73"/>
-      <c r="Z140" s="73"/>
-      <c r="AA140" s="73"/>
-      <c r="AB140" s="73"/>
-      <c r="AC140" s="73"/>
-      <c r="AD140" s="73"/>
-      <c r="AE140" s="73"/>
-      <c r="AF140" s="73"/>
-      <c r="AG140" s="73"/>
-      <c r="AH140" s="73"/>
-      <c r="AI140" s="73"/>
-      <c r="AJ140" s="73"/>
-      <c r="AK140" s="80"/>
+      <c r="F140" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G140" s="73"/>
+      <c r="H140" s="73"/>
+      <c r="I140" s="73"/>
+      <c r="J140" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K140" s="78"/>
+      <c r="L140" s="78"/>
+      <c r="M140" s="78"/>
+      <c r="N140" s="78"/>
+      <c r="O140" s="78"/>
+      <c r="P140" s="78"/>
+      <c r="Q140" s="78"/>
+      <c r="R140" s="78"/>
+      <c r="S140" s="78"/>
+      <c r="T140" s="78"/>
+      <c r="U140" s="78"/>
+      <c r="V140" s="78"/>
+      <c r="W140" s="78"/>
+      <c r="X140" s="78"/>
+      <c r="Y140" s="78"/>
+      <c r="Z140" s="78"/>
+      <c r="AA140" s="78"/>
+      <c r="AB140" s="78"/>
+      <c r="AC140" s="78"/>
+      <c r="AD140" s="78"/>
+      <c r="AE140" s="78"/>
+      <c r="AF140" s="78"/>
+      <c r="AG140" s="78"/>
+      <c r="AH140" s="78"/>
+      <c r="AI140" s="78"/>
+      <c r="AJ140" s="78"/>
+      <c r="AK140" s="79"/>
     </row>
     <row r="141" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="12" t="s">
+      <c r="F141" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="74"/>
-      <c r="K141" s="75"/>
-      <c r="L141" s="75"/>
-      <c r="M141" s="75"/>
-      <c r="N141" s="75"/>
-      <c r="O141" s="75"/>
-      <c r="P141" s="75"/>
-      <c r="Q141" s="75"/>
-      <c r="R141" s="75"/>
-      <c r="S141" s="75"/>
-      <c r="T141" s="75"/>
-      <c r="U141" s="75"/>
-      <c r="V141" s="75"/>
-      <c r="W141" s="75"/>
-      <c r="X141" s="75"/>
-      <c r="Y141" s="75"/>
-      <c r="Z141" s="75"/>
-      <c r="AA141" s="75"/>
-      <c r="AB141" s="75"/>
-      <c r="AC141" s="75"/>
-      <c r="AD141" s="75"/>
-      <c r="AE141" s="75"/>
-      <c r="AF141" s="75"/>
-      <c r="AG141" s="75"/>
-      <c r="AH141" s="75"/>
-      <c r="AI141" s="75"/>
-      <c r="AJ141" s="75"/>
-      <c r="AK141" s="81"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="85"/>
+      <c r="K141" s="81"/>
+      <c r="L141" s="81"/>
+      <c r="M141" s="81"/>
+      <c r="N141" s="81"/>
+      <c r="O141" s="81"/>
+      <c r="P141" s="81"/>
+      <c r="Q141" s="81"/>
+      <c r="R141" s="81"/>
+      <c r="S141" s="81"/>
+      <c r="T141" s="81"/>
+      <c r="U141" s="81"/>
+      <c r="V141" s="81"/>
+      <c r="W141" s="81"/>
+      <c r="X141" s="81"/>
+      <c r="Y141" s="81"/>
+      <c r="Z141" s="81"/>
+      <c r="AA141" s="81"/>
+      <c r="AB141" s="81"/>
+      <c r="AC141" s="81"/>
+      <c r="AD141" s="81"/>
+      <c r="AE141" s="81"/>
+      <c r="AF141" s="81"/>
+      <c r="AG141" s="81"/>
+      <c r="AH141" s="81"/>
+      <c r="AI141" s="81"/>
+      <c r="AJ141" s="81"/>
+      <c r="AK141" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
-    <mergeCell ref="K70:AD71"/>
-    <mergeCell ref="J110:AC111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="J115:AK116"/>
-    <mergeCell ref="J120:AK121"/>
-    <mergeCell ref="J125:AK126"/>
-    <mergeCell ref="J130:AK131"/>
-    <mergeCell ref="J135:AK136"/>
-    <mergeCell ref="J140:AK141"/>
-    <mergeCell ref="O88:AL88"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="AM91:AN91"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="Y90:AB90"/>
-    <mergeCell ref="AC89:AL89"/>
-    <mergeCell ref="Y89:AB89"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AK91:AL91"/>
-    <mergeCell ref="AC90:AL90"/>
-    <mergeCell ref="S89:X89"/>
-    <mergeCell ref="S90:X90"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="AA85:AD85"/>
-    <mergeCell ref="AE85:AH85"/>
-    <mergeCell ref="C84:E85"/>
-    <mergeCell ref="G84:AL84"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W69:Z69"/>
-    <mergeCell ref="AA69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="AI69:AL69"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="AI85:AL85"/>
-    <mergeCell ref="O75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="W75:Z75"/>
-    <mergeCell ref="AA75:AD75"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="S79:V79"/>
-    <mergeCell ref="C80:E81"/>
-    <mergeCell ref="G80:AL80"/>
-    <mergeCell ref="G81:AL81"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="G82:AL82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="AE83:AH83"/>
-    <mergeCell ref="AI83:AL83"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="G78:AL78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="AI79:AL79"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="AA79:AD79"/>
-    <mergeCell ref="AE79:AH79"/>
-    <mergeCell ref="AA73:AD73"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="AI73:AL73"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="G76:AL76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="W77:Z77"/>
-    <mergeCell ref="AA77:AD77"/>
-    <mergeCell ref="AE77:AH77"/>
-    <mergeCell ref="AI77:AL77"/>
+  <mergeCells count="340">
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="V139:Y139"/>
+    <mergeCell ref="Z139:AC139"/>
+    <mergeCell ref="AD139:AG139"/>
+    <mergeCell ref="AH139:AK139"/>
+    <mergeCell ref="G26:V27"/>
+    <mergeCell ref="G80:AL81"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="J139:M139"/>
+    <mergeCell ref="N139:Q139"/>
+    <mergeCell ref="AD129:AG129"/>
+    <mergeCell ref="AH129:AK129"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="J129:M129"/>
+    <mergeCell ref="N129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:Y129"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:Y114"/>
+    <mergeCell ref="Z114:AC114"/>
+    <mergeCell ref="AD114:AG114"/>
+    <mergeCell ref="AH114:AK114"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:Y119"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AG119"/>
+    <mergeCell ref="AH119:AK119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="AD110:AK110"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="AD111:AG111"/>
+    <mergeCell ref="AH111:AK111"/>
+    <mergeCell ref="G57:AL57"/>
+    <mergeCell ref="C57:E59"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="R109:U109"/>
+    <mergeCell ref="V109:Y109"/>
+    <mergeCell ref="Z109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AK109"/>
+    <mergeCell ref="C63:E65"/>
+    <mergeCell ref="G63:AL63"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="O64:AH64"/>
+    <mergeCell ref="AI64:AL64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:AH65"/>
+    <mergeCell ref="AI65:AL65"/>
+    <mergeCell ref="G58:AL58"/>
+    <mergeCell ref="G59:AL59"/>
+    <mergeCell ref="C60:E62"/>
+    <mergeCell ref="G60:AL60"/>
+    <mergeCell ref="G61:AL61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="AI62:AL62"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="E10:O10"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="E8:O8"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:V18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="G22:V22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="G24:V24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="G28:V28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:U35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="N37:U37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="C45:E47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="G45:AL45"/>
+    <mergeCell ref="G46:AL46"/>
+    <mergeCell ref="W47:Z47"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AE47:AH47"/>
+    <mergeCell ref="AI47:AL47"/>
+    <mergeCell ref="AE43:AL43"/>
+    <mergeCell ref="AE44:AH44"/>
+    <mergeCell ref="AI44:AL44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="AE42:AH42"/>
+    <mergeCell ref="AI42:AL42"/>
+    <mergeCell ref="K43:AD44"/>
+    <mergeCell ref="C54:E56"/>
+    <mergeCell ref="G54:AL54"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="O55:AH55"/>
+    <mergeCell ref="G49:N49"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="O49:AH49"/>
+    <mergeCell ref="O50:AH50"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="O56:AH56"/>
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="C51:E53"/>
+    <mergeCell ref="G51:AL51"/>
+    <mergeCell ref="G52:AL52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="W53:Z53"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="AI53:AL53"/>
     <mergeCell ref="C48:E50"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="K50:N50"/>
@@ -19649,236 +19836,92 @@
     <mergeCell ref="W73:Z73"/>
     <mergeCell ref="G56:J56"/>
     <mergeCell ref="K56:N56"/>
-    <mergeCell ref="C51:E53"/>
-    <mergeCell ref="G51:AL51"/>
-    <mergeCell ref="G52:AL52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="W53:Z53"/>
-    <mergeCell ref="AA53:AD53"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="AI53:AL53"/>
-    <mergeCell ref="C54:E56"/>
-    <mergeCell ref="G54:AL54"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="O55:AH55"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="O49:AH49"/>
-    <mergeCell ref="O50:AH50"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="AE42:AH42"/>
-    <mergeCell ref="AI42:AL42"/>
-    <mergeCell ref="K43:AD44"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="C45:E47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="G45:AL45"/>
-    <mergeCell ref="G46:AL46"/>
-    <mergeCell ref="W47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AE47:AH47"/>
-    <mergeCell ref="AI47:AL47"/>
-    <mergeCell ref="AE43:AL43"/>
-    <mergeCell ref="AE44:AH44"/>
-    <mergeCell ref="AI44:AL44"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:U35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="N37:U37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="G28:V28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="G24:V24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="G26:V26"/>
-    <mergeCell ref="G27:V27"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="G22:V22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:V18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="O56:AH56"/>
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:O12"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="E4:O4"/>
-    <mergeCell ref="E5:O5"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="E8:O8"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:AH65"/>
-    <mergeCell ref="AI65:AL65"/>
-    <mergeCell ref="G58:AL58"/>
-    <mergeCell ref="G59:AL59"/>
-    <mergeCell ref="C60:E62"/>
-    <mergeCell ref="G60:AL60"/>
-    <mergeCell ref="G61:AL61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="AI62:AL62"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="AD110:AK110"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="AD111:AG111"/>
-    <mergeCell ref="AH111:AK111"/>
-    <mergeCell ref="G57:AL57"/>
-    <mergeCell ref="C57:E59"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="R109:U109"/>
-    <mergeCell ref="V109:Y109"/>
-    <mergeCell ref="Z109:AC109"/>
-    <mergeCell ref="AD109:AG109"/>
-    <mergeCell ref="AH109:AK109"/>
-    <mergeCell ref="C63:E65"/>
-    <mergeCell ref="G63:AL63"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="O64:AH64"/>
-    <mergeCell ref="AI64:AL64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="V114:Y114"/>
-    <mergeCell ref="Z114:AC114"/>
-    <mergeCell ref="AD114:AG114"/>
-    <mergeCell ref="AH114:AK114"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="R119:U119"/>
-    <mergeCell ref="V119:Y119"/>
-    <mergeCell ref="Z119:AC119"/>
-    <mergeCell ref="AD119:AG119"/>
-    <mergeCell ref="AH119:AK119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="F126:I126"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="J129:M129"/>
-    <mergeCell ref="N129:Q129"/>
-    <mergeCell ref="R129:U129"/>
-    <mergeCell ref="V129:Y129"/>
-    <mergeCell ref="Z129:AC129"/>
-    <mergeCell ref="AD129:AG129"/>
-    <mergeCell ref="AH129:AK129"/>
-    <mergeCell ref="C130:D131"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="C135:D136"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="J139:M139"/>
-    <mergeCell ref="N139:Q139"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="V139:Y139"/>
-    <mergeCell ref="Z139:AC139"/>
-    <mergeCell ref="AD139:AG139"/>
-    <mergeCell ref="AH139:AK139"/>
+    <mergeCell ref="AA73:AD73"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="AI73:AL73"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="G76:AL76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="AE77:AH77"/>
+    <mergeCell ref="AI77:AL77"/>
+    <mergeCell ref="AI83:AL83"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="G78:AL78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="AI79:AL79"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="AE79:AH79"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:Z69"/>
+    <mergeCell ref="AA69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="AI69:AL69"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="AI85:AL85"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="G82:AL82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="AM91:AN91"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="Y90:AB90"/>
+    <mergeCell ref="AC89:AL89"/>
+    <mergeCell ref="Y89:AB89"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AK91:AL91"/>
+    <mergeCell ref="AC90:AL90"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="S90:X90"/>
+    <mergeCell ref="K70:AD71"/>
+    <mergeCell ref="J110:AC111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="J115:AK116"/>
+    <mergeCell ref="J120:AK121"/>
+    <mergeCell ref="J125:AK126"/>
+    <mergeCell ref="J130:AK131"/>
+    <mergeCell ref="J135:AK136"/>
+    <mergeCell ref="J140:AK141"/>
+    <mergeCell ref="O88:AL88"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="AE85:AH85"/>
+    <mergeCell ref="C84:E85"/>
+    <mergeCell ref="G84:AL84"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/manuals/sequencer_figures/figures.xlsx
+++ b/manuals/sequencer_figures/figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\local\koike\proj\e7awg_sw_simple_multi\manuals\sequencer_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB54F2B-354B-4936-B2D9-F034C59DD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C9FAB-FC0D-42AB-AC3C-39A2AA24812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20130" yWindow="-585" windowWidth="17220" windowHeight="19530" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" activeTab="1" xr2:uid="{46F576E4-7B13-4108-A261-85B51EFACDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="ブロック図" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="91">
   <si>
     <t>エントリ ID</t>
     <phoneticPr fontId="1"/>
@@ -553,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4D2D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,110 +1155,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1263,17 +1218,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1281,13 +1242,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,6 +1265,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1326,80 +1311,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,6 +1375,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15802,7 +15820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15828,8 +15846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346BD2E3-ECA9-4E3C-92C6-AEDA0AEF7FD8}">
   <dimension ref="A3:AT141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD109" sqref="AD109:AG109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141:M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15838,3750 +15856,4222 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="67" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="67"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="67"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="67" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="67"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="67" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="67"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="67" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="67"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="67" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="67"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="67" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="67"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="67" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="67"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="67" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="67"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="67" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="67"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="17" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="33" t="str">
+      <c r="G17" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33" t="str">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="33" t="str">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="33" t="str">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="34"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="3:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="48" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64" t="s">
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64" t="s">
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64" t="s">
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="65"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="49"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
     </row>
     <row r="21" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27" t="s">
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27" t="s">
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="36"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="25"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="32"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="62"/>
     </row>
     <row r="23" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="57" t="s">
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27" t="s">
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="27" t="s">
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="36"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="25"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="32"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="62"/>
     </row>
     <row r="25" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="27" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="27" t="s">
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="36"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="25"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="79"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="13"/>
     </row>
     <row r="27" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="82"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="16"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="32"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
     </row>
     <row r="29" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="57" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="57" t="s">
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="36"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="25"/>
     </row>
     <row r="34" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="2"/>
-      <c r="F34" s="33" t="str">
+      <c r="F34" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="33" t="str">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="33" t="str">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="33" t="str">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="34"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="10"/>
     </row>
     <row r="35" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="48" t="s">
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="49"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="24"/>
     </row>
     <row r="36" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64" t="s">
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64" t="s">
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64" t="s">
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="65"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="58"/>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48" t="s">
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="49"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="24"/>
     </row>
     <row r="38" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27" t="s">
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27" t="s">
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27" t="s">
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="36"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="25"/>
     </row>
     <row r="42" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="33" t="str">
+      <c r="G42" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="33" t="str">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="33" t="str">
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="33" t="str">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="33" t="str">
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="33" t="str">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="33" t="str">
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="33" t="str">
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="34"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="10"/>
     </row>
     <row r="43" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="8" t="s">
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="48" t="s">
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="48"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="49"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="24"/>
     </row>
     <row r="44" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="G44" s="35" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="G44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="27" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27" t="s">
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="36"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="25"/>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="45"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="28"/>
     </row>
     <row r="46" spans="3:46" x14ac:dyDescent="0.4">
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="G46" s="50" t="s">
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="G46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="51"/>
-      <c r="AF46" s="51"/>
-      <c r="AG46" s="51"/>
-      <c r="AH46" s="51"/>
-      <c r="AI46" s="51"/>
-      <c r="AJ46" s="51"/>
-      <c r="AK46" s="51"/>
-      <c r="AL46" s="52"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="39"/>
     </row>
     <row r="47" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27" t="s">
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27" t="s">
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27" t="s">
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27" t="s">
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27" t="s">
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="27" t="s">
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="36"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="25"/>
     </row>
     <row r="48" spans="3:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AE48" s="44"/>
-      <c r="AF48" s="44"/>
-      <c r="AG48" s="44"/>
-      <c r="AH48" s="44"/>
-      <c r="AI48" s="44"/>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="45"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="27"/>
+      <c r="AJ48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="28"/>
       <c r="AT48" s="7"/>
     </row>
     <row r="49" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="G49" s="50" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="G49" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54" t="s">
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="51"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="51"/>
-      <c r="AC49" s="51"/>
-      <c r="AD49" s="51"/>
-      <c r="AE49" s="51"/>
-      <c r="AF49" s="51"/>
-      <c r="AG49" s="51"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="54" t="s">
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ49" s="51"/>
-      <c r="AK49" s="51"/>
-      <c r="AL49" s="52"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="39"/>
     </row>
     <row r="50" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27" t="s">
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="55" t="s">
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="58" t="s">
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="41"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="41"/>
+      <c r="AH50" s="42"/>
+      <c r="AI50" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="59"/>
+      <c r="AJ50" s="41"/>
+      <c r="AK50" s="41"/>
+      <c r="AL50" s="44"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-      <c r="AC51" s="44"/>
-      <c r="AD51" s="44"/>
-      <c r="AE51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="45"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="28"/>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="G52" s="50" t="s">
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="G52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="51"/>
-      <c r="AD52" s="51"/>
-      <c r="AE52" s="51"/>
-      <c r="AF52" s="51"/>
-      <c r="AG52" s="51"/>
-      <c r="AH52" s="51"/>
-      <c r="AI52" s="51"/>
-      <c r="AJ52" s="51"/>
-      <c r="AK52" s="51"/>
-      <c r="AL52" s="52"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
+      <c r="AC52" s="36"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="36"/>
+      <c r="AH52" s="36"/>
+      <c r="AI52" s="36"/>
+      <c r="AJ52" s="36"/>
+      <c r="AK52" s="36"/>
+      <c r="AL52" s="39"/>
     </row>
     <row r="53" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27" t="s">
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27" t="s">
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27" t="s">
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27" t="s">
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27" t="s">
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27" t="s">
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27" t="s">
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="36"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="25"/>
     </row>
     <row r="54" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="44"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="44"/>
-      <c r="AJ54" s="44"/>
-      <c r="AK54" s="44"/>
-      <c r="AL54" s="45"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="27"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="27"/>
+      <c r="AL54" s="28"/>
     </row>
     <row r="55" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="G55" s="50" t="s">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="G55" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="54" t="s">
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="51"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="51"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="53"/>
-      <c r="AI55" s="54" t="s">
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ55" s="51"/>
-      <c r="AK55" s="51"/>
-      <c r="AL55" s="52"/>
+      <c r="AJ55" s="36"/>
+      <c r="AK55" s="36"/>
+      <c r="AL55" s="39"/>
     </row>
     <row r="56" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27" t="s">
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="55" t="s">
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="56"/>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="56"/>
-      <c r="AH56" s="57"/>
-      <c r="AI56" s="58" t="s">
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="41"/>
+      <c r="AC56" s="41"/>
+      <c r="AD56" s="41"/>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="41"/>
+      <c r="AG56" s="41"/>
+      <c r="AH56" s="42"/>
+      <c r="AI56" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AJ56" s="56"/>
-      <c r="AK56" s="56"/>
-      <c r="AL56" s="59"/>
+      <c r="AJ56" s="41"/>
+      <c r="AK56" s="41"/>
+      <c r="AL56" s="44"/>
     </row>
     <row r="57" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="G57" s="43" t="s">
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="G57" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="44"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="44"/>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="45"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="27"/>
+      <c r="AJ57" s="27"/>
+      <c r="AK57" s="27"/>
+      <c r="AL57" s="28"/>
     </row>
     <row r="58" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="G58" s="69" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="G58" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="70"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="70"/>
-      <c r="AH58" s="70"/>
-      <c r="AI58" s="70"/>
-      <c r="AJ58" s="70"/>
-      <c r="AK58" s="70"/>
-      <c r="AL58" s="71"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="46"/>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="46"/>
+      <c r="AL58" s="47"/>
     </row>
     <row r="59" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="39"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
+      <c r="AD59" s="49"/>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="49"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="49"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="49"/>
+      <c r="AL59" s="50"/>
     </row>
     <row r="60" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="44"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="44"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="44"/>
-      <c r="AI60" s="44"/>
-      <c r="AJ60" s="44"/>
-      <c r="AK60" s="44"/>
-      <c r="AL60" s="45"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="27"/>
+      <c r="AH60" s="27"/>
+      <c r="AI60" s="27"/>
+      <c r="AJ60" s="27"/>
+      <c r="AK60" s="27"/>
+      <c r="AL60" s="28"/>
     </row>
     <row r="61" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="G61" s="50" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="G61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="51"/>
-      <c r="X61" s="51"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="51"/>
-      <c r="AA61" s="51"/>
-      <c r="AB61" s="51"/>
-      <c r="AC61" s="51"/>
-      <c r="AD61" s="51"/>
-      <c r="AE61" s="51"/>
-      <c r="AF61" s="51"/>
-      <c r="AG61" s="51"/>
-      <c r="AH61" s="51"/>
-      <c r="AI61" s="51"/>
-      <c r="AJ61" s="51"/>
-      <c r="AK61" s="51"/>
-      <c r="AL61" s="52"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="36"/>
+      <c r="AJ61" s="36"/>
+      <c r="AK61" s="36"/>
+      <c r="AL61" s="39"/>
     </row>
     <row r="62" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27" t="s">
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27" t="s">
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27" t="s">
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27" t="s">
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27" t="s">
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27" t="s">
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
-      <c r="AH62" s="27"/>
-      <c r="AI62" s="27" t="s">
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ62" s="27"/>
-      <c r="AK62" s="27"/>
-      <c r="AL62" s="36"/>
+      <c r="AJ62" s="22"/>
+      <c r="AK62" s="22"/>
+      <c r="AL62" s="25"/>
     </row>
     <row r="63" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
-      <c r="AA63" s="44"/>
-      <c r="AB63" s="44"/>
-      <c r="AC63" s="44"/>
-      <c r="AD63" s="44"/>
-      <c r="AE63" s="44"/>
-      <c r="AF63" s="44"/>
-      <c r="AG63" s="44"/>
-      <c r="AH63" s="44"/>
-      <c r="AI63" s="44"/>
-      <c r="AJ63" s="44"/>
-      <c r="AK63" s="44"/>
-      <c r="AL63" s="45"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="27"/>
+      <c r="AH63" s="27"/>
+      <c r="AI63" s="27"/>
+      <c r="AJ63" s="27"/>
+      <c r="AK63" s="27"/>
+      <c r="AL63" s="28"/>
     </row>
     <row r="64" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="G64" s="50" t="s">
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="G64" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="54" t="s">
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="51"/>
-      <c r="AA64" s="51"/>
-      <c r="AB64" s="51"/>
-      <c r="AC64" s="51"/>
-      <c r="AD64" s="51"/>
-      <c r="AE64" s="51"/>
-      <c r="AF64" s="51"/>
-      <c r="AG64" s="51"/>
-      <c r="AH64" s="53"/>
-      <c r="AI64" s="54" t="s">
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="37"/>
+      <c r="AI64" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ64" s="51"/>
-      <c r="AK64" s="51"/>
-      <c r="AL64" s="52"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="36"/>
+      <c r="AL64" s="39"/>
     </row>
     <row r="65" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="35" t="s">
+      <c r="G65" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27" t="s">
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="55" t="s">
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="57"/>
-      <c r="AI65" s="58" t="s">
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="41"/>
+      <c r="AA65" s="41"/>
+      <c r="AB65" s="41"/>
+      <c r="AC65" s="41"/>
+      <c r="AD65" s="41"/>
+      <c r="AE65" s="41"/>
+      <c r="AF65" s="41"/>
+      <c r="AG65" s="41"/>
+      <c r="AH65" s="42"/>
+      <c r="AI65" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="56"/>
-      <c r="AL65" s="59"/>
+      <c r="AJ65" s="41"/>
+      <c r="AK65" s="41"/>
+      <c r="AL65" s="44"/>
     </row>
     <row r="69" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="33" t="str">
+      <c r="G69" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="33" t="str">
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="33" t="str">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="33" t="str">
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="33" t="str">
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="33" t="str">
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AB69" s="17"/>
-      <c r="AC69" s="17"/>
-      <c r="AD69" s="34"/>
-      <c r="AE69" s="33" t="str">
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AF69" s="17"/>
-      <c r="AG69" s="17"/>
-      <c r="AH69" s="34"/>
-      <c r="AI69" s="33" t="str">
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AJ69" s="17"/>
-      <c r="AK69" s="17"/>
-      <c r="AL69" s="34"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="10"/>
     </row>
     <row r="70" spans="3:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="83" t="s">
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="78"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="78"/>
-      <c r="T70" s="78"/>
-      <c r="U70" s="78"/>
-      <c r="V70" s="78"/>
-      <c r="W70" s="78"/>
-      <c r="X70" s="78"/>
-      <c r="Y70" s="78"/>
-      <c r="Z70" s="78"/>
-      <c r="AA70" s="78"/>
-      <c r="AB70" s="78"/>
-      <c r="AC70" s="78"/>
-      <c r="AD70" s="84"/>
-      <c r="AE70" s="48" t="s">
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
+      <c r="V70" s="89"/>
+      <c r="W70" s="89"/>
+      <c r="X70" s="89"/>
+      <c r="Y70" s="89"/>
+      <c r="Z70" s="89"/>
+      <c r="AA70" s="89"/>
+      <c r="AB70" s="89"/>
+      <c r="AC70" s="89"/>
+      <c r="AD70" s="90"/>
+      <c r="AE70" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF70" s="48"/>
-      <c r="AG70" s="48"/>
-      <c r="AH70" s="48"/>
-      <c r="AI70" s="48"/>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="48"/>
-      <c r="AL70" s="49"/>
+      <c r="AF70" s="23"/>
+      <c r="AG70" s="23"/>
+      <c r="AH70" s="23"/>
+      <c r="AI70" s="23"/>
+      <c r="AJ70" s="23"/>
+      <c r="AK70" s="23"/>
+      <c r="AL70" s="24"/>
     </row>
     <row r="71" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="G71" s="35" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="G71" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="81"/>
-      <c r="N71" s="81"/>
-      <c r="O71" s="81"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
-      <c r="W71" s="81"/>
-      <c r="X71" s="81"/>
-      <c r="Y71" s="81"/>
-      <c r="Z71" s="81"/>
-      <c r="AA71" s="81"/>
-      <c r="AB71" s="81"/>
-      <c r="AC71" s="81"/>
-      <c r="AD71" s="86"/>
-      <c r="AE71" s="27" t="s">
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AF71" s="27"/>
-      <c r="AG71" s="27"/>
-      <c r="AH71" s="27"/>
-      <c r="AI71" s="27" t="s">
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AJ71" s="27"/>
-      <c r="AK71" s="27"/>
-      <c r="AL71" s="36"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
+      <c r="AD71" s="22"/>
+      <c r="AE71" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF71" s="22"/>
+      <c r="AG71" s="22"/>
+      <c r="AH71" s="22"/>
+      <c r="AI71" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ71" s="22"/>
+      <c r="AK71" s="22"/>
+      <c r="AL71" s="25"/>
     </row>
     <row r="72" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="30" t="s">
+      <c r="G72" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="31"/>
-      <c r="Z72" s="31"/>
-      <c r="AA72" s="31"/>
-      <c r="AB72" s="31"/>
-      <c r="AC72" s="31"/>
-      <c r="AD72" s="31"/>
-      <c r="AE72" s="31"/>
-      <c r="AF72" s="31"/>
-      <c r="AG72" s="31"/>
-      <c r="AH72" s="31"/>
-      <c r="AI72" s="31"/>
-      <c r="AJ72" s="31"/>
-      <c r="AK72" s="31"/>
-      <c r="AL72" s="32"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="61"/>
+      <c r="AI72" s="61"/>
+      <c r="AJ72" s="61"/>
+      <c r="AK72" s="61"/>
+      <c r="AL72" s="62"/>
     </row>
     <row r="73" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="35" t="s">
+      <c r="G73" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27" t="s">
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27" t="s">
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27" t="s">
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27" t="s">
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="27" t="s">
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
-      <c r="AE73" s="27" t="s">
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="22"/>
+      <c r="AE73" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF73" s="27"/>
-      <c r="AG73" s="27"/>
-      <c r="AH73" s="27"/>
-      <c r="AI73" s="27" t="s">
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="22"/>
+      <c r="AH73" s="22"/>
+      <c r="AI73" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ73" s="27"/>
-      <c r="AK73" s="27"/>
-      <c r="AL73" s="36"/>
+      <c r="AJ73" s="22"/>
+      <c r="AK73" s="22"/>
+      <c r="AL73" s="25"/>
     </row>
     <row r="74" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="30" t="s">
+      <c r="G74" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="31"/>
-      <c r="Z74" s="31"/>
-      <c r="AA74" s="31"/>
-      <c r="AB74" s="31"/>
-      <c r="AC74" s="31"/>
-      <c r="AD74" s="31"/>
-      <c r="AE74" s="31"/>
-      <c r="AF74" s="31"/>
-      <c r="AG74" s="31"/>
-      <c r="AH74" s="31"/>
-      <c r="AI74" s="31"/>
-      <c r="AJ74" s="31"/>
-      <c r="AK74" s="31"/>
-      <c r="AL74" s="32"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="61"/>
+      <c r="AC74" s="61"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="61"/>
+      <c r="AF74" s="61"/>
+      <c r="AG74" s="61"/>
+      <c r="AH74" s="61"/>
+      <c r="AI74" s="61"/>
+      <c r="AJ74" s="61"/>
+      <c r="AK74" s="61"/>
+      <c r="AL74" s="62"/>
     </row>
     <row r="75" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="35" t="s">
+      <c r="G75" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27" t="s">
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27" t="s">
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27" t="s">
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="27" t="s">
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27" t="s">
+      <c r="X75" s="22"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="27"/>
-      <c r="AE75" s="27" t="s">
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="22"/>
+      <c r="AE75" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF75" s="27"/>
-      <c r="AG75" s="27"/>
-      <c r="AH75" s="27"/>
-      <c r="AI75" s="27" t="s">
+      <c r="AF75" s="22"/>
+      <c r="AG75" s="22"/>
+      <c r="AH75" s="22"/>
+      <c r="AI75" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AJ75" s="27"/>
-      <c r="AK75" s="27"/>
-      <c r="AL75" s="36"/>
+      <c r="AJ75" s="22"/>
+      <c r="AK75" s="22"/>
+      <c r="AL75" s="25"/>
     </row>
     <row r="76" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="30" t="s">
+      <c r="G76" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="31"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="31"/>
-      <c r="Z76" s="31"/>
-      <c r="AA76" s="31"/>
-      <c r="AB76" s="31"/>
-      <c r="AC76" s="31"/>
-      <c r="AD76" s="31"/>
-      <c r="AE76" s="31"/>
-      <c r="AF76" s="31"/>
-      <c r="AG76" s="31"/>
-      <c r="AH76" s="31"/>
-      <c r="AI76" s="31"/>
-      <c r="AJ76" s="31"/>
-      <c r="AK76" s="31"/>
-      <c r="AL76" s="32"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61"/>
+      <c r="X76" s="61"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61"/>
+      <c r="AA76" s="61"/>
+      <c r="AB76" s="61"/>
+      <c r="AC76" s="61"/>
+      <c r="AD76" s="61"/>
+      <c r="AE76" s="61"/>
+      <c r="AF76" s="61"/>
+      <c r="AG76" s="61"/>
+      <c r="AH76" s="61"/>
+      <c r="AI76" s="61"/>
+      <c r="AJ76" s="61"/>
+      <c r="AK76" s="61"/>
+      <c r="AL76" s="62"/>
     </row>
     <row r="77" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27" t="s">
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27" t="s">
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27" t="s">
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27" t="s">
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27" t="s">
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="27" t="s">
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="22"/>
+      <c r="AE77" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF77" s="27"/>
-      <c r="AG77" s="27"/>
-      <c r="AH77" s="27"/>
-      <c r="AI77" s="27" t="s">
+      <c r="AF77" s="22"/>
+      <c r="AG77" s="22"/>
+      <c r="AH77" s="22"/>
+      <c r="AI77" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ77" s="27"/>
-      <c r="AK77" s="27"/>
-      <c r="AL77" s="36"/>
+      <c r="AJ77" s="22"/>
+      <c r="AK77" s="22"/>
+      <c r="AL77" s="25"/>
     </row>
     <row r="78" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="30" t="s">
+      <c r="G78" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="31"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
-      <c r="Z78" s="31"/>
-      <c r="AA78" s="31"/>
-      <c r="AB78" s="31"/>
-      <c r="AC78" s="31"/>
-      <c r="AD78" s="31"/>
-      <c r="AE78" s="31"/>
-      <c r="AF78" s="31"/>
-      <c r="AG78" s="31"/>
-      <c r="AH78" s="31"/>
-      <c r="AI78" s="31"/>
-      <c r="AJ78" s="31"/>
-      <c r="AK78" s="31"/>
-      <c r="AL78" s="32"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="61"/>
+      <c r="Y78" s="61"/>
+      <c r="Z78" s="61"/>
+      <c r="AA78" s="61"/>
+      <c r="AB78" s="61"/>
+      <c r="AC78" s="61"/>
+      <c r="AD78" s="61"/>
+      <c r="AE78" s="61"/>
+      <c r="AF78" s="61"/>
+      <c r="AG78" s="61"/>
+      <c r="AH78" s="61"/>
+      <c r="AI78" s="61"/>
+      <c r="AJ78" s="61"/>
+      <c r="AK78" s="61"/>
+      <c r="AL78" s="62"/>
     </row>
     <row r="79" spans="3:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27" t="s">
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27" t="s">
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27" t="s">
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27" t="s">
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27" t="s">
+      <c r="X79" s="22"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="22"/>
+      <c r="AA79" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="27"/>
-      <c r="AE79" s="27" t="s">
+      <c r="AB79" s="22"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="22"/>
+      <c r="AE79" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF79" s="27"/>
-      <c r="AG79" s="27"/>
-      <c r="AH79" s="27"/>
-      <c r="AI79" s="27" t="s">
+      <c r="AF79" s="22"/>
+      <c r="AG79" s="22"/>
+      <c r="AH79" s="22"/>
+      <c r="AI79" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AJ79" s="27"/>
-      <c r="AK79" s="27"/>
-      <c r="AL79" s="36"/>
+      <c r="AJ79" s="22"/>
+      <c r="AK79" s="22"/>
+      <c r="AL79" s="25"/>
     </row>
     <row r="80" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="G80" s="77" t="s">
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="G80" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="78"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="78"/>
-      <c r="R80" s="78"/>
-      <c r="S80" s="78"/>
-      <c r="T80" s="78"/>
-      <c r="U80" s="78"/>
-      <c r="V80" s="78"/>
-      <c r="W80" s="78"/>
-      <c r="X80" s="78"/>
-      <c r="Y80" s="78"/>
-      <c r="Z80" s="78"/>
-      <c r="AA80" s="78"/>
-      <c r="AB80" s="78"/>
-      <c r="AC80" s="78"/>
-      <c r="AD80" s="78"/>
-      <c r="AE80" s="78"/>
-      <c r="AF80" s="78"/>
-      <c r="AG80" s="78"/>
-      <c r="AH80" s="78"/>
-      <c r="AI80" s="78"/>
-      <c r="AJ80" s="78"/>
-      <c r="AK80" s="78"/>
-      <c r="AL80" s="79"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="13"/>
     </row>
     <row r="81" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="81"/>
-      <c r="N81" s="81"/>
-      <c r="O81" s="81"/>
-      <c r="P81" s="81"/>
-      <c r="Q81" s="81"/>
-      <c r="R81" s="81"/>
-      <c r="S81" s="81"/>
-      <c r="T81" s="81"/>
-      <c r="U81" s="81"/>
-      <c r="V81" s="81"/>
-      <c r="W81" s="81"/>
-      <c r="X81" s="81"/>
-      <c r="Y81" s="81"/>
-      <c r="Z81" s="81"/>
-      <c r="AA81" s="81"/>
-      <c r="AB81" s="81"/>
-      <c r="AC81" s="81"/>
-      <c r="AD81" s="81"/>
-      <c r="AE81" s="81"/>
-      <c r="AF81" s="81"/>
-      <c r="AG81" s="81"/>
-      <c r="AH81" s="81"/>
-      <c r="AI81" s="81"/>
-      <c r="AJ81" s="81"/>
-      <c r="AK81" s="81"/>
-      <c r="AL81" s="82"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="16"/>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="30" t="s">
+      <c r="G82" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="31"/>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="31"/>
-      <c r="Z82" s="31"/>
-      <c r="AA82" s="31"/>
-      <c r="AB82" s="31"/>
-      <c r="AC82" s="31"/>
-      <c r="AD82" s="31"/>
-      <c r="AE82" s="31"/>
-      <c r="AF82" s="31"/>
-      <c r="AG82" s="31"/>
-      <c r="AH82" s="31"/>
-      <c r="AI82" s="31"/>
-      <c r="AJ82" s="31"/>
-      <c r="AK82" s="31"/>
-      <c r="AL82" s="32"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61"/>
+      <c r="AA82" s="61"/>
+      <c r="AB82" s="61"/>
+      <c r="AC82" s="61"/>
+      <c r="AD82" s="61"/>
+      <c r="AE82" s="61"/>
+      <c r="AF82" s="61"/>
+      <c r="AG82" s="61"/>
+      <c r="AH82" s="61"/>
+      <c r="AI82" s="61"/>
+      <c r="AJ82" s="61"/>
+      <c r="AK82" s="61"/>
+      <c r="AL82" s="62"/>
     </row>
     <row r="83" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="87"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="35" t="s">
+      <c r="G83" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27" t="s">
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27" t="s">
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27" t="s">
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27" t="s">
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27" t="s">
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27" t="s">
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="22"/>
+      <c r="AE83" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF83" s="27"/>
-      <c r="AG83" s="27"/>
-      <c r="AH83" s="27"/>
-      <c r="AI83" s="27" t="s">
+      <c r="AF83" s="22"/>
+      <c r="AG83" s="22"/>
+      <c r="AH83" s="22"/>
+      <c r="AI83" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ83" s="27"/>
-      <c r="AK83" s="27"/>
-      <c r="AL83" s="36"/>
+      <c r="AJ83" s="22"/>
+      <c r="AK83" s="22"/>
+      <c r="AL83" s="25"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="30" t="s">
+      <c r="G84" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="31"/>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="31"/>
-      <c r="W84" s="31"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="31"/>
-      <c r="AA84" s="31"/>
-      <c r="AB84" s="31"/>
-      <c r="AC84" s="31"/>
-      <c r="AD84" s="31"/>
-      <c r="AE84" s="31"/>
-      <c r="AF84" s="31"/>
-      <c r="AG84" s="31"/>
-      <c r="AH84" s="31"/>
-      <c r="AI84" s="31"/>
-      <c r="AJ84" s="31"/>
-      <c r="AK84" s="31"/>
-      <c r="AL84" s="32"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61"/>
+      <c r="AA84" s="61"/>
+      <c r="AB84" s="61"/>
+      <c r="AC84" s="61"/>
+      <c r="AD84" s="61"/>
+      <c r="AE84" s="61"/>
+      <c r="AF84" s="61"/>
+      <c r="AG84" s="61"/>
+      <c r="AH84" s="61"/>
+      <c r="AI84" s="61"/>
+      <c r="AJ84" s="61"/>
+      <c r="AK84" s="61"/>
+      <c r="AL84" s="62"/>
     </row>
     <row r="85" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="35" t="s">
+      <c r="G85" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27" t="s">
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27" t="s">
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27" t="s">
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="27" t="s">
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27" t="s">
+      <c r="X85" s="22"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27"/>
-      <c r="AE85" s="27" t="s">
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="22"/>
+      <c r="AE85" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF85" s="27"/>
-      <c r="AG85" s="27"/>
-      <c r="AH85" s="27"/>
-      <c r="AI85" s="27" t="s">
+      <c r="AF85" s="22"/>
+      <c r="AG85" s="22"/>
+      <c r="AH85" s="22"/>
+      <c r="AI85" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AJ85" s="27"/>
-      <c r="AK85" s="27"/>
-      <c r="AL85" s="36"/>
+      <c r="AJ85" s="22"/>
+      <c r="AK85" s="22"/>
+      <c r="AL85" s="25"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O88" s="14" t="s">
+      <c r="O88" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="15"/>
-      <c r="AA88" s="15"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="15"/>
-      <c r="AD88" s="15"/>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15"/>
-      <c r="AG88" s="15"/>
-      <c r="AH88" s="15"/>
-      <c r="AI88" s="15"/>
-      <c r="AJ88" s="15"/>
-      <c r="AK88" s="15"/>
-      <c r="AL88" s="16"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="83"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="83"/>
+      <c r="Y88" s="83"/>
+      <c r="Z88" s="83"/>
+      <c r="AA88" s="83"/>
+      <c r="AB88" s="83"/>
+      <c r="AC88" s="83"/>
+      <c r="AD88" s="83"/>
+      <c r="AE88" s="83"/>
+      <c r="AF88" s="83"/>
+      <c r="AG88" s="83"/>
+      <c r="AH88" s="83"/>
+      <c r="AI88" s="83"/>
+      <c r="AJ88" s="83"/>
+      <c r="AK88" s="83"/>
+      <c r="AL88" s="84"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O89" s="19" t="s">
+      <c r="O89" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="87" t="s">
+      <c r="P89" s="76"/>
+      <c r="Q89" s="76"/>
+      <c r="R89" s="76"/>
+      <c r="S89" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="T89" s="88"/>
-      <c r="U89" s="88"/>
-      <c r="V89" s="88"/>
-      <c r="W89" s="88"/>
-      <c r="X89" s="89"/>
-      <c r="Y89" s="19" t="s">
+      <c r="T89" s="94"/>
+      <c r="U89" s="94"/>
+      <c r="V89" s="94"/>
+      <c r="W89" s="94"/>
+      <c r="X89" s="95"/>
+      <c r="Y89" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="Z89" s="20"/>
-      <c r="AA89" s="20"/>
-      <c r="AB89" s="20"/>
-      <c r="AC89" s="21" t="s">
+      <c r="Z89" s="76"/>
+      <c r="AA89" s="76"/>
+      <c r="AB89" s="76"/>
+      <c r="AC89" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="22"/>
-      <c r="AI89" s="22"/>
-      <c r="AJ89" s="22"/>
-      <c r="AK89" s="22"/>
-      <c r="AL89" s="23"/>
+      <c r="AD89" s="73"/>
+      <c r="AE89" s="73"/>
+      <c r="AF89" s="73"/>
+      <c r="AG89" s="73"/>
+      <c r="AH89" s="73"/>
+      <c r="AI89" s="73"/>
+      <c r="AJ89" s="73"/>
+      <c r="AK89" s="73"/>
+      <c r="AL89" s="74"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="O90" s="90" t="s">
+      <c r="O90" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="P90" s="91"/>
-      <c r="Q90" s="91"/>
-      <c r="R90" s="91"/>
-      <c r="S90" s="87" t="s">
+      <c r="P90" s="71"/>
+      <c r="Q90" s="71"/>
+      <c r="R90" s="71"/>
+      <c r="S90" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="T90" s="88"/>
-      <c r="U90" s="88"/>
-      <c r="V90" s="88"/>
-      <c r="W90" s="88"/>
-      <c r="X90" s="89"/>
-      <c r="Y90" s="90" t="s">
+      <c r="T90" s="97"/>
+      <c r="U90" s="97"/>
+      <c r="V90" s="97"/>
+      <c r="W90" s="97"/>
+      <c r="X90" s="98"/>
+      <c r="Y90" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="Z90" s="91"/>
-      <c r="AA90" s="91"/>
-      <c r="AB90" s="91"/>
-      <c r="AC90" s="92" t="s">
+      <c r="Z90" s="71"/>
+      <c r="AA90" s="71"/>
+      <c r="AB90" s="71"/>
+      <c r="AC90" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="AD90" s="93"/>
-      <c r="AE90" s="93"/>
-      <c r="AF90" s="93"/>
-      <c r="AG90" s="93"/>
-      <c r="AH90" s="93"/>
-      <c r="AI90" s="93"/>
-      <c r="AJ90" s="93"/>
-      <c r="AK90" s="93"/>
-      <c r="AL90" s="94"/>
+      <c r="AD90" s="80"/>
+      <c r="AE90" s="80"/>
+      <c r="AF90" s="80"/>
+      <c r="AG90" s="80"/>
+      <c r="AH90" s="80"/>
+      <c r="AI90" s="80"/>
+      <c r="AJ90" s="80"/>
+      <c r="AK90" s="80"/>
+      <c r="AL90" s="81"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="26">
+      <c r="O91" s="78">
         <v>127</v>
       </c>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="24">
+      <c r="P91" s="78"/>
+      <c r="Q91" s="17">
         <v>120</v>
       </c>
-      <c r="R91" s="25"/>
-      <c r="S91" s="26">
+      <c r="R91" s="77"/>
+      <c r="S91" s="78">
         <v>119</v>
       </c>
-      <c r="T91" s="26"/>
-      <c r="W91" s="24">
+      <c r="T91" s="78"/>
+      <c r="W91" s="17">
         <v>80</v>
       </c>
-      <c r="X91" s="25"/>
-      <c r="Y91" s="26">
+      <c r="X91" s="77"/>
+      <c r="Y91" s="78">
         <v>79</v>
       </c>
-      <c r="Z91" s="26"/>
-      <c r="AA91" s="24">
+      <c r="Z91" s="78"/>
+      <c r="AA91" s="17">
         <v>64</v>
       </c>
-      <c r="AB91" s="25"/>
-      <c r="AC91" s="26">
+      <c r="AB91" s="77"/>
+      <c r="AC91" s="78">
         <v>63</v>
       </c>
-      <c r="AD91" s="26"/>
-      <c r="AK91" s="24">
+      <c r="AD91" s="78"/>
+      <c r="AK91" s="17">
         <v>0</v>
       </c>
-      <c r="AL91" s="25"/>
-      <c r="AM91" s="18" t="s">
+      <c r="AL91" s="77"/>
+      <c r="AM91" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AN91" s="18"/>
+      <c r="AN91" s="69"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
     </row>
     <row r="109" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="74" t="str">
+      <c r="F109" s="31" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G109" s="75"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="74" t="str">
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="31" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K109" s="75"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="74" t="str">
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="31" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O109" s="75"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="74" t="str">
+      <c r="O109" s="32"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="31" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S109" s="75"/>
-      <c r="T109" s="75"/>
-      <c r="U109" s="76"/>
-      <c r="V109" s="74" t="str">
+      <c r="S109" s="32"/>
+      <c r="T109" s="32"/>
+      <c r="U109" s="33"/>
+      <c r="V109" s="31" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W109" s="75"/>
-      <c r="X109" s="75"/>
-      <c r="Y109" s="76"/>
-      <c r="Z109" s="74" t="str">
+      <c r="W109" s="32"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="33"/>
+      <c r="Z109" s="31" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA109" s="75"/>
-      <c r="AB109" s="75"/>
-      <c r="AC109" s="76"/>
-      <c r="AD109" s="74" t="str">
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="33"/>
+      <c r="AD109" s="31" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE109" s="75"/>
-      <c r="AF109" s="75"/>
-      <c r="AG109" s="76"/>
-      <c r="AH109" s="74" t="str">
+      <c r="AE109" s="32"/>
+      <c r="AF109" s="32"/>
+      <c r="AG109" s="33"/>
+      <c r="AH109" s="31" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI109" s="75"/>
-      <c r="AJ109" s="75"/>
-      <c r="AK109" s="76"/>
+      <c r="AI109" s="32"/>
+      <c r="AJ109" s="32"/>
+      <c r="AK109" s="33"/>
     </row>
     <row r="110" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D110" s="12"/>
+      <c r="D110" s="29"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="72" t="s">
+      <c r="F110" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="83" t="s">
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="K110" s="78"/>
-      <c r="L110" s="78"/>
-      <c r="M110" s="78"/>
-      <c r="N110" s="78"/>
-      <c r="O110" s="78"/>
-      <c r="P110" s="78"/>
-      <c r="Q110" s="78"/>
-      <c r="R110" s="78"/>
-      <c r="S110" s="78"/>
-      <c r="T110" s="78"/>
-      <c r="U110" s="78"/>
-      <c r="V110" s="78"/>
-      <c r="W110" s="78"/>
-      <c r="X110" s="78"/>
-      <c r="Y110" s="78"/>
-      <c r="Z110" s="78"/>
-      <c r="AA110" s="78"/>
-      <c r="AB110" s="78"/>
-      <c r="AC110" s="84"/>
-      <c r="AD110" s="48" t="s">
+      <c r="K110" s="89"/>
+      <c r="L110" s="89"/>
+      <c r="M110" s="89"/>
+      <c r="N110" s="89"/>
+      <c r="O110" s="89"/>
+      <c r="P110" s="89"/>
+      <c r="Q110" s="89"/>
+      <c r="R110" s="89"/>
+      <c r="S110" s="89"/>
+      <c r="T110" s="89"/>
+      <c r="U110" s="89"/>
+      <c r="V110" s="89"/>
+      <c r="W110" s="89"/>
+      <c r="X110" s="89"/>
+      <c r="Y110" s="89"/>
+      <c r="Z110" s="89"/>
+      <c r="AA110" s="89"/>
+      <c r="AB110" s="89"/>
+      <c r="AC110" s="90"/>
+      <c r="AD110" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="AE110" s="48"/>
-      <c r="AF110" s="48"/>
-      <c r="AG110" s="48"/>
-      <c r="AH110" s="48"/>
-      <c r="AI110" s="48"/>
-      <c r="AJ110" s="48"/>
-      <c r="AK110" s="49"/>
+      <c r="AE110" s="23"/>
+      <c r="AF110" s="23"/>
+      <c r="AG110" s="23"/>
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="23"/>
+      <c r="AJ110" s="23"/>
+      <c r="AK110" s="24"/>
     </row>
     <row r="111" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="35" t="s">
+      <c r="F111" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="81"/>
-      <c r="L111" s="81"/>
-      <c r="M111" s="81"/>
-      <c r="N111" s="81"/>
-      <c r="O111" s="81"/>
-      <c r="P111" s="81"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="81"/>
-      <c r="S111" s="81"/>
-      <c r="T111" s="81"/>
-      <c r="U111" s="81"/>
-      <c r="V111" s="81"/>
-      <c r="W111" s="81"/>
-      <c r="X111" s="81"/>
-      <c r="Y111" s="81"/>
-      <c r="Z111" s="81"/>
-      <c r="AA111" s="81"/>
-      <c r="AB111" s="81"/>
-      <c r="AC111" s="86"/>
-      <c r="AD111" s="27" t="s">
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S111" s="22"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
+      <c r="V111" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AE111" s="27"/>
-      <c r="AF111" s="27"/>
-      <c r="AG111" s="27"/>
-      <c r="AH111" s="27" t="s">
+      <c r="W111" s="22"/>
+      <c r="X111" s="22"/>
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AI111" s="27"/>
-      <c r="AJ111" s="27"/>
-      <c r="AK111" s="36"/>
+      <c r="AA111" s="22"/>
+      <c r="AB111" s="22"/>
+      <c r="AC111" s="22"/>
+      <c r="AD111" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE111" s="22"/>
+      <c r="AF111" s="22"/>
+      <c r="AG111" s="22"/>
+      <c r="AH111" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI111" s="22"/>
+      <c r="AJ111" s="22"/>
+      <c r="AK111" s="25"/>
     </row>
     <row r="114" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="33" t="str">
+      <c r="F114" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="33" t="str">
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="33" t="str">
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="34"/>
-      <c r="R114" s="33" t="str">
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S114" s="17"/>
-      <c r="T114" s="17"/>
-      <c r="U114" s="34"/>
-      <c r="V114" s="33" t="str">
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W114" s="17"/>
-      <c r="X114" s="17"/>
-      <c r="Y114" s="34"/>
-      <c r="Z114" s="33" t="str">
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="10"/>
+      <c r="Z114" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA114" s="17"/>
-      <c r="AB114" s="17"/>
-      <c r="AC114" s="34"/>
-      <c r="AD114" s="33" t="str">
+      <c r="AA114" s="9"/>
+      <c r="AB114" s="9"/>
+      <c r="AC114" s="10"/>
+      <c r="AD114" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE114" s="17"/>
-      <c r="AF114" s="17"/>
-      <c r="AG114" s="34"/>
-      <c r="AH114" s="33" t="str">
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="9"/>
+      <c r="AG114" s="10"/>
+      <c r="AH114" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI114" s="17"/>
-      <c r="AJ114" s="17"/>
-      <c r="AK114" s="34"/>
+      <c r="AI114" s="9"/>
+      <c r="AJ114" s="9"/>
+      <c r="AK114" s="10"/>
     </row>
     <row r="115" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D115" s="24"/>
+      <c r="D115" s="17"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="72" t="s">
+      <c r="F115" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G115" s="73"/>
-      <c r="H115" s="73"/>
-      <c r="I115" s="73"/>
-      <c r="J115" s="83" t="s">
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K115" s="78"/>
-      <c r="L115" s="78"/>
-      <c r="M115" s="78"/>
-      <c r="N115" s="78"/>
-      <c r="O115" s="78"/>
-      <c r="P115" s="78"/>
-      <c r="Q115" s="78"/>
-      <c r="R115" s="78"/>
-      <c r="S115" s="78"/>
-      <c r="T115" s="78"/>
-      <c r="U115" s="78"/>
-      <c r="V115" s="78"/>
-      <c r="W115" s="78"/>
-      <c r="X115" s="78"/>
-      <c r="Y115" s="78"/>
-      <c r="Z115" s="78"/>
-      <c r="AA115" s="78"/>
-      <c r="AB115" s="78"/>
-      <c r="AC115" s="78"/>
-      <c r="AD115" s="78"/>
-      <c r="AE115" s="78"/>
-      <c r="AF115" s="78"/>
-      <c r="AG115" s="78"/>
-      <c r="AH115" s="78"/>
-      <c r="AI115" s="78"/>
-      <c r="AJ115" s="78"/>
-      <c r="AK115" s="79"/>
+      <c r="K115" s="89"/>
+      <c r="L115" s="89"/>
+      <c r="M115" s="89"/>
+      <c r="N115" s="89"/>
+      <c r="O115" s="89"/>
+      <c r="P115" s="89"/>
+      <c r="Q115" s="89"/>
+      <c r="R115" s="89"/>
+      <c r="S115" s="89"/>
+      <c r="T115" s="89"/>
+      <c r="U115" s="89"/>
+      <c r="V115" s="89"/>
+      <c r="W115" s="89"/>
+      <c r="X115" s="89"/>
+      <c r="Y115" s="89"/>
+      <c r="Z115" s="89"/>
+      <c r="AA115" s="89"/>
+      <c r="AB115" s="89"/>
+      <c r="AC115" s="89"/>
+      <c r="AD115" s="89"/>
+      <c r="AE115" s="89"/>
+      <c r="AF115" s="89"/>
+      <c r="AG115" s="89"/>
+      <c r="AH115" s="89"/>
+      <c r="AI115" s="89"/>
+      <c r="AJ115" s="89"/>
+      <c r="AK115" s="92"/>
     </row>
     <row r="116" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="35" t="s">
+      <c r="F116" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="81"/>
-      <c r="L116" s="81"/>
-      <c r="M116" s="81"/>
-      <c r="N116" s="81"/>
-      <c r="O116" s="81"/>
-      <c r="P116" s="81"/>
-      <c r="Q116" s="81"/>
-      <c r="R116" s="81"/>
-      <c r="S116" s="81"/>
-      <c r="T116" s="81"/>
-      <c r="U116" s="81"/>
-      <c r="V116" s="81"/>
-      <c r="W116" s="81"/>
-      <c r="X116" s="81"/>
-      <c r="Y116" s="81"/>
-      <c r="Z116" s="81"/>
-      <c r="AA116" s="81"/>
-      <c r="AB116" s="81"/>
-      <c r="AC116" s="81"/>
-      <c r="AD116" s="81"/>
-      <c r="AE116" s="81"/>
-      <c r="AF116" s="81"/>
-      <c r="AG116" s="81"/>
-      <c r="AH116" s="81"/>
-      <c r="AI116" s="81"/>
-      <c r="AJ116" s="81"/>
-      <c r="AK116" s="82"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W116" s="22"/>
+      <c r="X116" s="22"/>
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA116" s="22"/>
+      <c r="AB116" s="22"/>
+      <c r="AC116" s="22"/>
+      <c r="AD116" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE116" s="22"/>
+      <c r="AF116" s="22"/>
+      <c r="AG116" s="22"/>
+      <c r="AH116" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI116" s="22"/>
+      <c r="AJ116" s="22"/>
+      <c r="AK116" s="22"/>
     </row>
     <row r="119" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="33" t="str">
+      <c r="F119" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="33" t="str">
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="33" t="str">
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="34"/>
-      <c r="R119" s="33" t="str">
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="34"/>
-      <c r="V119" s="33" t="str">
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W119" s="17"/>
-      <c r="X119" s="17"/>
-      <c r="Y119" s="34"/>
-      <c r="Z119" s="33" t="str">
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA119" s="17"/>
-      <c r="AB119" s="17"/>
-      <c r="AC119" s="34"/>
-      <c r="AD119" s="33" t="str">
+      <c r="AA119" s="9"/>
+      <c r="AB119" s="9"/>
+      <c r="AC119" s="10"/>
+      <c r="AD119" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE119" s="17"/>
-      <c r="AF119" s="17"/>
-      <c r="AG119" s="34"/>
-      <c r="AH119" s="33" t="str">
+      <c r="AE119" s="9"/>
+      <c r="AF119" s="9"/>
+      <c r="AG119" s="10"/>
+      <c r="AH119" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI119" s="17"/>
-      <c r="AJ119" s="17"/>
-      <c r="AK119" s="34"/>
+      <c r="AI119" s="9"/>
+      <c r="AJ119" s="9"/>
+      <c r="AK119" s="10"/>
     </row>
     <row r="120" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D120" s="24"/>
+      <c r="D120" s="17"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="72" t="s">
+      <c r="F120" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="83" t="s">
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K120" s="78"/>
-      <c r="L120" s="78"/>
-      <c r="M120" s="78"/>
-      <c r="N120" s="78"/>
-      <c r="O120" s="78"/>
-      <c r="P120" s="78"/>
-      <c r="Q120" s="78"/>
-      <c r="R120" s="78"/>
-      <c r="S120" s="78"/>
-      <c r="T120" s="78"/>
-      <c r="U120" s="78"/>
-      <c r="V120" s="78"/>
-      <c r="W120" s="78"/>
-      <c r="X120" s="78"/>
-      <c r="Y120" s="78"/>
-      <c r="Z120" s="78"/>
-      <c r="AA120" s="78"/>
-      <c r="AB120" s="78"/>
-      <c r="AC120" s="78"/>
-      <c r="AD120" s="78"/>
-      <c r="AE120" s="78"/>
-      <c r="AF120" s="78"/>
-      <c r="AG120" s="78"/>
-      <c r="AH120" s="78"/>
-      <c r="AI120" s="78"/>
-      <c r="AJ120" s="78"/>
-      <c r="AK120" s="79"/>
+      <c r="K120" s="89"/>
+      <c r="L120" s="89"/>
+      <c r="M120" s="89"/>
+      <c r="N120" s="89"/>
+      <c r="O120" s="89"/>
+      <c r="P120" s="89"/>
+      <c r="Q120" s="89"/>
+      <c r="R120" s="89"/>
+      <c r="S120" s="89"/>
+      <c r="T120" s="89"/>
+      <c r="U120" s="89"/>
+      <c r="V120" s="89"/>
+      <c r="W120" s="89"/>
+      <c r="X120" s="89"/>
+      <c r="Y120" s="89"/>
+      <c r="Z120" s="89"/>
+      <c r="AA120" s="89"/>
+      <c r="AB120" s="89"/>
+      <c r="AC120" s="89"/>
+      <c r="AD120" s="89"/>
+      <c r="AE120" s="89"/>
+      <c r="AF120" s="89"/>
+      <c r="AG120" s="89"/>
+      <c r="AH120" s="89"/>
+      <c r="AI120" s="89"/>
+      <c r="AJ120" s="89"/>
+      <c r="AK120" s="92"/>
     </row>
     <row r="121" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="35" t="s">
+      <c r="F121" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="85"/>
-      <c r="K121" s="81"/>
-      <c r="L121" s="81"/>
-      <c r="M121" s="81"/>
-      <c r="N121" s="81"/>
-      <c r="O121" s="81"/>
-      <c r="P121" s="81"/>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
-      <c r="U121" s="81"/>
-      <c r="V121" s="81"/>
-      <c r="W121" s="81"/>
-      <c r="X121" s="81"/>
-      <c r="Y121" s="81"/>
-      <c r="Z121" s="81"/>
-      <c r="AA121" s="81"/>
-      <c r="AB121" s="81"/>
-      <c r="AC121" s="81"/>
-      <c r="AD121" s="81"/>
-      <c r="AE121" s="81"/>
-      <c r="AF121" s="81"/>
-      <c r="AG121" s="81"/>
-      <c r="AH121" s="81"/>
-      <c r="AI121" s="81"/>
-      <c r="AJ121" s="81"/>
-      <c r="AK121" s="82"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S121" s="22"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W121" s="22"/>
+      <c r="X121" s="22"/>
+      <c r="Y121" s="22"/>
+      <c r="Z121" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA121" s="22"/>
+      <c r="AB121" s="22"/>
+      <c r="AC121" s="22"/>
+      <c r="AD121" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE121" s="22"/>
+      <c r="AF121" s="22"/>
+      <c r="AG121" s="22"/>
+      <c r="AH121" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI121" s="22"/>
+      <c r="AJ121" s="22"/>
+      <c r="AK121" s="22"/>
     </row>
     <row r="124" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="33" t="str">
+      <c r="F124" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="33" t="str">
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="33" t="str">
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="34"/>
-      <c r="R124" s="33" t="str">
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S124" s="17"/>
-      <c r="T124" s="17"/>
-      <c r="U124" s="34"/>
-      <c r="V124" s="33" t="str">
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="10"/>
+      <c r="V124" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W124" s="17"/>
-      <c r="X124" s="17"/>
-      <c r="Y124" s="34"/>
-      <c r="Z124" s="33" t="str">
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="10"/>
+      <c r="Z124" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA124" s="17"/>
-      <c r="AB124" s="17"/>
-      <c r="AC124" s="34"/>
-      <c r="AD124" s="33" t="str">
+      <c r="AA124" s="9"/>
+      <c r="AB124" s="9"/>
+      <c r="AC124" s="10"/>
+      <c r="AD124" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE124" s="17"/>
-      <c r="AF124" s="17"/>
-      <c r="AG124" s="34"/>
-      <c r="AH124" s="33" t="str">
+      <c r="AE124" s="9"/>
+      <c r="AF124" s="9"/>
+      <c r="AG124" s="10"/>
+      <c r="AH124" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI124" s="17"/>
-      <c r="AJ124" s="17"/>
-      <c r="AK124" s="34"/>
+      <c r="AI124" s="9"/>
+      <c r="AJ124" s="9"/>
+      <c r="AK124" s="10"/>
     </row>
     <row r="125" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D125" s="24"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="72" t="s">
+      <c r="F125" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G125" s="73"/>
-      <c r="H125" s="73"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="83" t="s">
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K125" s="78"/>
-      <c r="L125" s="78"/>
-      <c r="M125" s="78"/>
-      <c r="N125" s="78"/>
-      <c r="O125" s="78"/>
-      <c r="P125" s="78"/>
-      <c r="Q125" s="78"/>
-      <c r="R125" s="78"/>
-      <c r="S125" s="78"/>
-      <c r="T125" s="78"/>
-      <c r="U125" s="78"/>
-      <c r="V125" s="78"/>
-      <c r="W125" s="78"/>
-      <c r="X125" s="78"/>
-      <c r="Y125" s="78"/>
-      <c r="Z125" s="78"/>
-      <c r="AA125" s="78"/>
-      <c r="AB125" s="78"/>
-      <c r="AC125" s="78"/>
-      <c r="AD125" s="78"/>
-      <c r="AE125" s="78"/>
-      <c r="AF125" s="78"/>
-      <c r="AG125" s="78"/>
-      <c r="AH125" s="78"/>
-      <c r="AI125" s="78"/>
-      <c r="AJ125" s="78"/>
-      <c r="AK125" s="79"/>
+      <c r="K125" s="89"/>
+      <c r="L125" s="89"/>
+      <c r="M125" s="89"/>
+      <c r="N125" s="89"/>
+      <c r="O125" s="89"/>
+      <c r="P125" s="89"/>
+      <c r="Q125" s="89"/>
+      <c r="R125" s="89"/>
+      <c r="S125" s="89"/>
+      <c r="T125" s="89"/>
+      <c r="U125" s="89"/>
+      <c r="V125" s="89"/>
+      <c r="W125" s="89"/>
+      <c r="X125" s="89"/>
+      <c r="Y125" s="89"/>
+      <c r="Z125" s="89"/>
+      <c r="AA125" s="89"/>
+      <c r="AB125" s="89"/>
+      <c r="AC125" s="89"/>
+      <c r="AD125" s="89"/>
+      <c r="AE125" s="89"/>
+      <c r="AF125" s="89"/>
+      <c r="AG125" s="89"/>
+      <c r="AH125" s="89"/>
+      <c r="AI125" s="89"/>
+      <c r="AJ125" s="89"/>
+      <c r="AK125" s="92"/>
     </row>
     <row r="126" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="35" t="s">
+      <c r="F126" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="85"/>
-      <c r="K126" s="81"/>
-      <c r="L126" s="81"/>
-      <c r="M126" s="81"/>
-      <c r="N126" s="81"/>
-      <c r="O126" s="81"/>
-      <c r="P126" s="81"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="81"/>
-      <c r="S126" s="81"/>
-      <c r="T126" s="81"/>
-      <c r="U126" s="81"/>
-      <c r="V126" s="81"/>
-      <c r="W126" s="81"/>
-      <c r="X126" s="81"/>
-      <c r="Y126" s="81"/>
-      <c r="Z126" s="81"/>
-      <c r="AA126" s="81"/>
-      <c r="AB126" s="81"/>
-      <c r="AC126" s="81"/>
-      <c r="AD126" s="81"/>
-      <c r="AE126" s="81"/>
-      <c r="AF126" s="81"/>
-      <c r="AG126" s="81"/>
-      <c r="AH126" s="81"/>
-      <c r="AI126" s="81"/>
-      <c r="AJ126" s="81"/>
-      <c r="AK126" s="82"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O126" s="22"/>
+      <c r="P126" s="22"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S126" s="22"/>
+      <c r="T126" s="22"/>
+      <c r="U126" s="22"/>
+      <c r="V126" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W126" s="22"/>
+      <c r="X126" s="22"/>
+      <c r="Y126" s="22"/>
+      <c r="Z126" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA126" s="22"/>
+      <c r="AB126" s="22"/>
+      <c r="AC126" s="22"/>
+      <c r="AD126" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE126" s="22"/>
+      <c r="AF126" s="22"/>
+      <c r="AG126" s="22"/>
+      <c r="AH126" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI126" s="22"/>
+      <c r="AJ126" s="22"/>
+      <c r="AK126" s="22"/>
     </row>
     <row r="129" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="33" t="str">
+      <c r="F129" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="33" t="str">
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="33" t="str">
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="34"/>
-      <c r="R129" s="33" t="str">
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S129" s="17"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="34"/>
-      <c r="V129" s="33" t="str">
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="10"/>
+      <c r="V129" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W129" s="17"/>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="34"/>
-      <c r="Z129" s="33" t="str">
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="10"/>
+      <c r="Z129" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA129" s="17"/>
-      <c r="AB129" s="17"/>
-      <c r="AC129" s="34"/>
-      <c r="AD129" s="33" t="str">
+      <c r="AA129" s="9"/>
+      <c r="AB129" s="9"/>
+      <c r="AC129" s="10"/>
+      <c r="AD129" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE129" s="17"/>
-      <c r="AF129" s="17"/>
-      <c r="AG129" s="34"/>
-      <c r="AH129" s="33" t="str">
+      <c r="AE129" s="9"/>
+      <c r="AF129" s="9"/>
+      <c r="AG129" s="10"/>
+      <c r="AH129" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI129" s="17"/>
-      <c r="AJ129" s="17"/>
-      <c r="AK129" s="34"/>
+      <c r="AI129" s="9"/>
+      <c r="AJ129" s="9"/>
+      <c r="AK129" s="10"/>
     </row>
     <row r="130" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D130" s="24"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="72" t="s">
+      <c r="F130" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G130" s="73"/>
-      <c r="H130" s="73"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="83" t="s">
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K130" s="78"/>
-      <c r="L130" s="78"/>
-      <c r="M130" s="78"/>
-      <c r="N130" s="78"/>
-      <c r="O130" s="78"/>
-      <c r="P130" s="78"/>
-      <c r="Q130" s="78"/>
-      <c r="R130" s="78"/>
-      <c r="S130" s="78"/>
-      <c r="T130" s="78"/>
-      <c r="U130" s="78"/>
-      <c r="V130" s="78"/>
-      <c r="W130" s="78"/>
-      <c r="X130" s="78"/>
-      <c r="Y130" s="78"/>
-      <c r="Z130" s="78"/>
-      <c r="AA130" s="78"/>
-      <c r="AB130" s="78"/>
-      <c r="AC130" s="78"/>
-      <c r="AD130" s="78"/>
-      <c r="AE130" s="78"/>
-      <c r="AF130" s="78"/>
-      <c r="AG130" s="78"/>
-      <c r="AH130" s="78"/>
-      <c r="AI130" s="78"/>
-      <c r="AJ130" s="78"/>
-      <c r="AK130" s="79"/>
+      <c r="K130" s="89"/>
+      <c r="L130" s="89"/>
+      <c r="M130" s="89"/>
+      <c r="N130" s="89"/>
+      <c r="O130" s="89"/>
+      <c r="P130" s="89"/>
+      <c r="Q130" s="89"/>
+      <c r="R130" s="89"/>
+      <c r="S130" s="89"/>
+      <c r="T130" s="89"/>
+      <c r="U130" s="89"/>
+      <c r="V130" s="89"/>
+      <c r="W130" s="89"/>
+      <c r="X130" s="89"/>
+      <c r="Y130" s="89"/>
+      <c r="Z130" s="89"/>
+      <c r="AA130" s="89"/>
+      <c r="AB130" s="89"/>
+      <c r="AC130" s="89"/>
+      <c r="AD130" s="89"/>
+      <c r="AE130" s="89"/>
+      <c r="AF130" s="89"/>
+      <c r="AG130" s="89"/>
+      <c r="AH130" s="89"/>
+      <c r="AI130" s="89"/>
+      <c r="AJ130" s="89"/>
+      <c r="AK130" s="92"/>
     </row>
     <row r="131" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="35" t="s">
+      <c r="F131" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="85"/>
-      <c r="K131" s="81"/>
-      <c r="L131" s="81"/>
-      <c r="M131" s="81"/>
-      <c r="N131" s="81"/>
-      <c r="O131" s="81"/>
-      <c r="P131" s="81"/>
-      <c r="Q131" s="81"/>
-      <c r="R131" s="81"/>
-      <c r="S131" s="81"/>
-      <c r="T131" s="81"/>
-      <c r="U131" s="81"/>
-      <c r="V131" s="81"/>
-      <c r="W131" s="81"/>
-      <c r="X131" s="81"/>
-      <c r="Y131" s="81"/>
-      <c r="Z131" s="81"/>
-      <c r="AA131" s="81"/>
-      <c r="AB131" s="81"/>
-      <c r="AC131" s="81"/>
-      <c r="AD131" s="81"/>
-      <c r="AE131" s="81"/>
-      <c r="AF131" s="81"/>
-      <c r="AG131" s="81"/>
-      <c r="AH131" s="81"/>
-      <c r="AI131" s="81"/>
-      <c r="AJ131" s="81"/>
-      <c r="AK131" s="82"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O131" s="22"/>
+      <c r="P131" s="22"/>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S131" s="22"/>
+      <c r="T131" s="22"/>
+      <c r="U131" s="22"/>
+      <c r="V131" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W131" s="22"/>
+      <c r="X131" s="22"/>
+      <c r="Y131" s="22"/>
+      <c r="Z131" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA131" s="22"/>
+      <c r="AB131" s="22"/>
+      <c r="AC131" s="22"/>
+      <c r="AD131" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE131" s="22"/>
+      <c r="AF131" s="22"/>
+      <c r="AG131" s="22"/>
+      <c r="AH131" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI131" s="22"/>
+      <c r="AJ131" s="22"/>
+      <c r="AK131" s="22"/>
     </row>
     <row r="134" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="33" t="str">
+      <c r="F134" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="33" t="str">
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="34"/>
-      <c r="N134" s="33" t="str">
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="34"/>
-      <c r="R134" s="33" t="str">
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S134" s="17"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="34"/>
-      <c r="V134" s="33" t="str">
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W134" s="17"/>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="34"/>
-      <c r="Z134" s="33" t="str">
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA134" s="17"/>
-      <c r="AB134" s="17"/>
-      <c r="AC134" s="34"/>
-      <c r="AD134" s="33" t="str">
+      <c r="AA134" s="9"/>
+      <c r="AB134" s="9"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE134" s="17"/>
-      <c r="AF134" s="17"/>
-      <c r="AG134" s="34"/>
-      <c r="AH134" s="33" t="str">
+      <c r="AE134" s="9"/>
+      <c r="AF134" s="9"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI134" s="17"/>
-      <c r="AJ134" s="17"/>
-      <c r="AK134" s="34"/>
+      <c r="AI134" s="9"/>
+      <c r="AJ134" s="9"/>
+      <c r="AK134" s="10"/>
     </row>
     <row r="135" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D135" s="24"/>
+      <c r="D135" s="17"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="72" t="s">
+      <c r="F135" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="83" t="s">
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K135" s="78"/>
-      <c r="L135" s="78"/>
-      <c r="M135" s="78"/>
-      <c r="N135" s="78"/>
-      <c r="O135" s="78"/>
-      <c r="P135" s="78"/>
-      <c r="Q135" s="78"/>
-      <c r="R135" s="78"/>
-      <c r="S135" s="78"/>
-      <c r="T135" s="78"/>
-      <c r="U135" s="78"/>
-      <c r="V135" s="78"/>
-      <c r="W135" s="78"/>
-      <c r="X135" s="78"/>
-      <c r="Y135" s="78"/>
-      <c r="Z135" s="78"/>
-      <c r="AA135" s="78"/>
-      <c r="AB135" s="78"/>
-      <c r="AC135" s="78"/>
-      <c r="AD135" s="78"/>
-      <c r="AE135" s="78"/>
-      <c r="AF135" s="78"/>
-      <c r="AG135" s="78"/>
-      <c r="AH135" s="78"/>
-      <c r="AI135" s="78"/>
-      <c r="AJ135" s="78"/>
-      <c r="AK135" s="79"/>
+      <c r="K135" s="89"/>
+      <c r="L135" s="89"/>
+      <c r="M135" s="89"/>
+      <c r="N135" s="89"/>
+      <c r="O135" s="89"/>
+      <c r="P135" s="89"/>
+      <c r="Q135" s="89"/>
+      <c r="R135" s="89"/>
+      <c r="S135" s="89"/>
+      <c r="T135" s="89"/>
+      <c r="U135" s="89"/>
+      <c r="V135" s="89"/>
+      <c r="W135" s="89"/>
+      <c r="X135" s="89"/>
+      <c r="Y135" s="89"/>
+      <c r="Z135" s="89"/>
+      <c r="AA135" s="89"/>
+      <c r="AB135" s="89"/>
+      <c r="AC135" s="89"/>
+      <c r="AD135" s="89"/>
+      <c r="AE135" s="89"/>
+      <c r="AF135" s="89"/>
+      <c r="AG135" s="89"/>
+      <c r="AH135" s="89"/>
+      <c r="AI135" s="89"/>
+      <c r="AJ135" s="89"/>
+      <c r="AK135" s="92"/>
     </row>
     <row r="136" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="35" t="s">
+      <c r="F136" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="85"/>
-      <c r="K136" s="81"/>
-      <c r="L136" s="81"/>
-      <c r="M136" s="81"/>
-      <c r="N136" s="81"/>
-      <c r="O136" s="81"/>
-      <c r="P136" s="81"/>
-      <c r="Q136" s="81"/>
-      <c r="R136" s="81"/>
-      <c r="S136" s="81"/>
-      <c r="T136" s="81"/>
-      <c r="U136" s="81"/>
-      <c r="V136" s="81"/>
-      <c r="W136" s="81"/>
-      <c r="X136" s="81"/>
-      <c r="Y136" s="81"/>
-      <c r="Z136" s="81"/>
-      <c r="AA136" s="81"/>
-      <c r="AB136" s="81"/>
-      <c r="AC136" s="81"/>
-      <c r="AD136" s="81"/>
-      <c r="AE136" s="81"/>
-      <c r="AF136" s="81"/>
-      <c r="AG136" s="81"/>
-      <c r="AH136" s="81"/>
-      <c r="AI136" s="81"/>
-      <c r="AJ136" s="81"/>
-      <c r="AK136" s="82"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S136" s="22"/>
+      <c r="T136" s="22"/>
+      <c r="U136" s="22"/>
+      <c r="V136" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W136" s="22"/>
+      <c r="X136" s="22"/>
+      <c r="Y136" s="22"/>
+      <c r="Z136" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA136" s="22"/>
+      <c r="AB136" s="22"/>
+      <c r="AC136" s="22"/>
+      <c r="AD136" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE136" s="22"/>
+      <c r="AF136" s="22"/>
+      <c r="AG136" s="22"/>
+      <c r="AH136" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI136" s="22"/>
+      <c r="AJ136" s="22"/>
+      <c r="AK136" s="22"/>
     </row>
     <row r="139" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="33" t="str">
+      <c r="F139" s="8" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="33" t="str">
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="8" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="34"/>
-      <c r="N139" s="33" t="str">
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="8" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="34"/>
-      <c r="R139" s="33" t="str">
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="8" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="S139" s="17"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="34"/>
-      <c r="V139" s="33" t="str">
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="8" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="W139" s="17"/>
-      <c r="X139" s="17"/>
-      <c r="Y139" s="34"/>
-      <c r="Z139" s="33" t="str">
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="8" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
-      <c r="AA139" s="17"/>
-      <c r="AB139" s="17"/>
-      <c r="AC139" s="34"/>
-      <c r="AD139" s="33" t="str">
+      <c r="AA139" s="9"/>
+      <c r="AB139" s="9"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="8" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
-      <c r="AE139" s="17"/>
-      <c r="AF139" s="17"/>
-      <c r="AG139" s="34"/>
-      <c r="AH139" s="33" t="str">
+      <c r="AE139" s="9"/>
+      <c r="AF139" s="9"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="8" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
-      <c r="AI139" s="17"/>
-      <c r="AJ139" s="17"/>
-      <c r="AK139" s="34"/>
+      <c r="AI139" s="9"/>
+      <c r="AJ139" s="9"/>
+      <c r="AK139" s="10"/>
     </row>
     <row r="140" spans="3:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D140" s="24"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="72" t="s">
+      <c r="F140" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G140" s="73"/>
-      <c r="H140" s="73"/>
-      <c r="I140" s="73"/>
-      <c r="J140" s="83" t="s">
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K140" s="78"/>
-      <c r="L140" s="78"/>
-      <c r="M140" s="78"/>
-      <c r="N140" s="78"/>
-      <c r="O140" s="78"/>
-      <c r="P140" s="78"/>
-      <c r="Q140" s="78"/>
-      <c r="R140" s="78"/>
-      <c r="S140" s="78"/>
-      <c r="T140" s="78"/>
-      <c r="U140" s="78"/>
-      <c r="V140" s="78"/>
-      <c r="W140" s="78"/>
-      <c r="X140" s="78"/>
-      <c r="Y140" s="78"/>
-      <c r="Z140" s="78"/>
-      <c r="AA140" s="78"/>
-      <c r="AB140" s="78"/>
-      <c r="AC140" s="78"/>
-      <c r="AD140" s="78"/>
-      <c r="AE140" s="78"/>
-      <c r="AF140" s="78"/>
-      <c r="AG140" s="78"/>
-      <c r="AH140" s="78"/>
-      <c r="AI140" s="78"/>
-      <c r="AJ140" s="78"/>
-      <c r="AK140" s="79"/>
+      <c r="K140" s="89"/>
+      <c r="L140" s="89"/>
+      <c r="M140" s="89"/>
+      <c r="N140" s="89"/>
+      <c r="O140" s="89"/>
+      <c r="P140" s="89"/>
+      <c r="Q140" s="89"/>
+      <c r="R140" s="89"/>
+      <c r="S140" s="89"/>
+      <c r="T140" s="89"/>
+      <c r="U140" s="89"/>
+      <c r="V140" s="89"/>
+      <c r="W140" s="89"/>
+      <c r="X140" s="89"/>
+      <c r="Y140" s="89"/>
+      <c r="Z140" s="89"/>
+      <c r="AA140" s="89"/>
+      <c r="AB140" s="89"/>
+      <c r="AC140" s="89"/>
+      <c r="AD140" s="89"/>
+      <c r="AE140" s="89"/>
+      <c r="AF140" s="89"/>
+      <c r="AG140" s="89"/>
+      <c r="AH140" s="89"/>
+      <c r="AI140" s="89"/>
+      <c r="AJ140" s="89"/>
+      <c r="AK140" s="92"/>
     </row>
     <row r="141" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="35" t="s">
+      <c r="F141" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="85"/>
-      <c r="K141" s="81"/>
-      <c r="L141" s="81"/>
-      <c r="M141" s="81"/>
-      <c r="N141" s="81"/>
-      <c r="O141" s="81"/>
-      <c r="P141" s="81"/>
-      <c r="Q141" s="81"/>
-      <c r="R141" s="81"/>
-      <c r="S141" s="81"/>
-      <c r="T141" s="81"/>
-      <c r="U141" s="81"/>
-      <c r="V141" s="81"/>
-      <c r="W141" s="81"/>
-      <c r="X141" s="81"/>
-      <c r="Y141" s="81"/>
-      <c r="Z141" s="81"/>
-      <c r="AA141" s="81"/>
-      <c r="AB141" s="81"/>
-      <c r="AC141" s="81"/>
-      <c r="AD141" s="81"/>
-      <c r="AE141" s="81"/>
-      <c r="AF141" s="81"/>
-      <c r="AG141" s="81"/>
-      <c r="AH141" s="81"/>
-      <c r="AI141" s="81"/>
-      <c r="AJ141" s="81"/>
-      <c r="AK141" s="82"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="22"/>
+      <c r="J141" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S141" s="22"/>
+      <c r="T141" s="22"/>
+      <c r="U141" s="22"/>
+      <c r="V141" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W141" s="22"/>
+      <c r="X141" s="22"/>
+      <c r="Y141" s="22"/>
+      <c r="Z141" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA141" s="22"/>
+      <c r="AB141" s="22"/>
+      <c r="AC141" s="22"/>
+      <c r="AD141" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE141" s="22"/>
+      <c r="AF141" s="22"/>
+      <c r="AG141" s="22"/>
+      <c r="AH141" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI141" s="22"/>
+      <c r="AJ141" s="22"/>
+      <c r="AK141" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="340">
+  <mergeCells count="392">
+    <mergeCell ref="J140:AK140"/>
+    <mergeCell ref="J141:M141"/>
+    <mergeCell ref="N141:Q141"/>
+    <mergeCell ref="R141:U141"/>
+    <mergeCell ref="V141:Y141"/>
+    <mergeCell ref="Z141:AC141"/>
+    <mergeCell ref="AD141:AG141"/>
+    <mergeCell ref="AH141:AK141"/>
+    <mergeCell ref="K70:AD70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="W71:Z71"/>
+    <mergeCell ref="AA71:AD71"/>
+    <mergeCell ref="N131:Q131"/>
+    <mergeCell ref="R131:U131"/>
+    <mergeCell ref="V131:Y131"/>
+    <mergeCell ref="Z131:AC131"/>
+    <mergeCell ref="AD131:AG131"/>
+    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="J135:AK135"/>
+    <mergeCell ref="J136:M136"/>
+    <mergeCell ref="N136:Q136"/>
+    <mergeCell ref="R136:U136"/>
+    <mergeCell ref="V136:Y136"/>
+    <mergeCell ref="Z136:AC136"/>
+    <mergeCell ref="AD136:AG136"/>
+    <mergeCell ref="AH136:AK136"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="AE85:AH85"/>
+    <mergeCell ref="C84:E85"/>
+    <mergeCell ref="G84:AL84"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="O88:AL88"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="J110:AC110"/>
+    <mergeCell ref="V111:Y111"/>
+    <mergeCell ref="Z111:AC111"/>
+    <mergeCell ref="N111:Q111"/>
+    <mergeCell ref="R111:U111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="J115:AK115"/>
+    <mergeCell ref="R116:U116"/>
+    <mergeCell ref="V116:Y116"/>
+    <mergeCell ref="Z116:AC116"/>
+    <mergeCell ref="AD116:AG116"/>
+    <mergeCell ref="AH116:AK116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="AM91:AN91"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="Y90:AB90"/>
+    <mergeCell ref="AC89:AL89"/>
+    <mergeCell ref="Y89:AB89"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AK91:AL91"/>
+    <mergeCell ref="AC90:AL90"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="S90:X90"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:Z69"/>
+    <mergeCell ref="AA69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="AI69:AL69"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="AI85:AL85"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="G82:AL82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="AI83:AL83"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="G78:AL78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="AI79:AL79"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="AE79:AH79"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="AI73:AL73"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="G76:AL76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="AE77:AH77"/>
+    <mergeCell ref="AI77:AL77"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="G48:AL48"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="G74:AL74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="AI75:AL75"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="AE70:AL70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AI71:AL71"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="G72:AL72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="W73:Z73"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="AA73:AD73"/>
+    <mergeCell ref="C54:E56"/>
+    <mergeCell ref="G54:AL54"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="O55:AH55"/>
+    <mergeCell ref="G49:N49"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="O49:AH49"/>
+    <mergeCell ref="O50:AH50"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="O56:AH56"/>
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="C51:E53"/>
+    <mergeCell ref="G51:AL51"/>
+    <mergeCell ref="G52:AL52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="W53:Z53"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="AI53:AL53"/>
+    <mergeCell ref="C48:E50"/>
+    <mergeCell ref="AE43:AL43"/>
+    <mergeCell ref="AE44:AH44"/>
+    <mergeCell ref="AI44:AL44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="AE42:AH42"/>
+    <mergeCell ref="AI42:AL42"/>
+    <mergeCell ref="K43:AD44"/>
+    <mergeCell ref="C45:E47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="G45:AL45"/>
+    <mergeCell ref="G46:AL46"/>
+    <mergeCell ref="W47:Z47"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AE47:AH47"/>
+    <mergeCell ref="AI47:AL47"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="N37:U37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:U35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="G24:V24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="G28:V28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="G22:V22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:V18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="E10:O10"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="E8:O8"/>
+    <mergeCell ref="G58:AL58"/>
+    <mergeCell ref="G59:AL59"/>
+    <mergeCell ref="C60:E62"/>
+    <mergeCell ref="G60:AL60"/>
+    <mergeCell ref="G61:AL61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="AI62:AL62"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="AD110:AK110"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="AD111:AG111"/>
+    <mergeCell ref="AH111:AK111"/>
+    <mergeCell ref="G57:AL57"/>
+    <mergeCell ref="C57:E59"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="R109:U109"/>
+    <mergeCell ref="V109:Y109"/>
+    <mergeCell ref="Z109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AK109"/>
+    <mergeCell ref="C63:E65"/>
+    <mergeCell ref="G63:AL63"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="O64:AH64"/>
+    <mergeCell ref="AI64:AL64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:AH65"/>
+    <mergeCell ref="AI65:AL65"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:Y114"/>
+    <mergeCell ref="Z114:AC114"/>
+    <mergeCell ref="AD114:AG114"/>
+    <mergeCell ref="AH114:AK114"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:Y119"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AG119"/>
+    <mergeCell ref="AH119:AK119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:AK120"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:Q121"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="R121:U121"/>
+    <mergeCell ref="V121:Y121"/>
+    <mergeCell ref="Z121:AC121"/>
+    <mergeCell ref="AD121:AG121"/>
+    <mergeCell ref="AH121:AK121"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="J129:M129"/>
+    <mergeCell ref="N129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:Y129"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="J125:AK125"/>
+    <mergeCell ref="J126:M126"/>
+    <mergeCell ref="N126:Q126"/>
+    <mergeCell ref="R126:U126"/>
+    <mergeCell ref="V126:Y126"/>
+    <mergeCell ref="Z126:AC126"/>
+    <mergeCell ref="AD126:AG126"/>
+    <mergeCell ref="AH126:AK126"/>
+    <mergeCell ref="J130:AK130"/>
+    <mergeCell ref="J131:M131"/>
     <mergeCell ref="R139:U139"/>
     <mergeCell ref="V139:Y139"/>
     <mergeCell ref="Z139:AC139"/>
@@ -19606,322 +20096,6 @@
     <mergeCell ref="F134:I134"/>
     <mergeCell ref="J134:M134"/>
     <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="F126:I126"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="J129:M129"/>
-    <mergeCell ref="N129:Q129"/>
-    <mergeCell ref="R129:U129"/>
-    <mergeCell ref="V129:Y129"/>
-    <mergeCell ref="Z129:AC129"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="V114:Y114"/>
-    <mergeCell ref="Z114:AC114"/>
-    <mergeCell ref="AD114:AG114"/>
-    <mergeCell ref="AH114:AK114"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="R119:U119"/>
-    <mergeCell ref="V119:Y119"/>
-    <mergeCell ref="Z119:AC119"/>
-    <mergeCell ref="AD119:AG119"/>
-    <mergeCell ref="AH119:AK119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="AD110:AK110"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="AD111:AG111"/>
-    <mergeCell ref="AH111:AK111"/>
-    <mergeCell ref="G57:AL57"/>
-    <mergeCell ref="C57:E59"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="R109:U109"/>
-    <mergeCell ref="V109:Y109"/>
-    <mergeCell ref="Z109:AC109"/>
-    <mergeCell ref="AD109:AG109"/>
-    <mergeCell ref="AH109:AK109"/>
-    <mergeCell ref="C63:E65"/>
-    <mergeCell ref="G63:AL63"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="O64:AH64"/>
-    <mergeCell ref="AI64:AL64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:AH65"/>
-    <mergeCell ref="AI65:AL65"/>
-    <mergeCell ref="G58:AL58"/>
-    <mergeCell ref="G59:AL59"/>
-    <mergeCell ref="C60:E62"/>
-    <mergeCell ref="G60:AL60"/>
-    <mergeCell ref="G61:AL61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="AI62:AL62"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:O12"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="E4:O4"/>
-    <mergeCell ref="E5:O5"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="E8:O8"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:V18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="G22:V22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="G24:V24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="G28:V28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:U35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="N37:U37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="C45:E47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="G45:AL45"/>
-    <mergeCell ref="G46:AL46"/>
-    <mergeCell ref="W47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AE47:AH47"/>
-    <mergeCell ref="AI47:AL47"/>
-    <mergeCell ref="AE43:AL43"/>
-    <mergeCell ref="AE44:AH44"/>
-    <mergeCell ref="AI44:AL44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="AE42:AH42"/>
-    <mergeCell ref="AI42:AL42"/>
-    <mergeCell ref="K43:AD44"/>
-    <mergeCell ref="C54:E56"/>
-    <mergeCell ref="G54:AL54"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="O55:AH55"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="O49:AH49"/>
-    <mergeCell ref="O50:AH50"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="O56:AH56"/>
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="C51:E53"/>
-    <mergeCell ref="G51:AL51"/>
-    <mergeCell ref="G52:AL52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="W53:Z53"/>
-    <mergeCell ref="AA53:AD53"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="AI53:AL53"/>
-    <mergeCell ref="C48:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="G48:AL48"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="G74:AL74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="AI75:AL75"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="AE70:AL70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AI71:AL71"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="G72:AL72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="O73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="W73:Z73"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="AA73:AD73"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="AI73:AL73"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="G76:AL76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="W77:Z77"/>
-    <mergeCell ref="AA77:AD77"/>
-    <mergeCell ref="AE77:AH77"/>
-    <mergeCell ref="AI77:AL77"/>
-    <mergeCell ref="AI83:AL83"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="G78:AL78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="AI79:AL79"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="AA79:AD79"/>
-    <mergeCell ref="AE79:AH79"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W69:Z69"/>
-    <mergeCell ref="AA69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="AI69:AL69"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="AI85:AL85"/>
-    <mergeCell ref="O75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="W75:Z75"/>
-    <mergeCell ref="AA75:AD75"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="S79:V79"/>
-    <mergeCell ref="G82:AL82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="AM91:AN91"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="Y90:AB90"/>
-    <mergeCell ref="AC89:AL89"/>
-    <mergeCell ref="Y89:AB89"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AK91:AL91"/>
-    <mergeCell ref="AC90:AL90"/>
-    <mergeCell ref="S89:X89"/>
-    <mergeCell ref="S90:X90"/>
-    <mergeCell ref="K70:AD71"/>
-    <mergeCell ref="J110:AC111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="J115:AK116"/>
-    <mergeCell ref="J120:AK121"/>
-    <mergeCell ref="J125:AK126"/>
-    <mergeCell ref="J130:AK131"/>
-    <mergeCell ref="J135:AK136"/>
-    <mergeCell ref="J140:AK141"/>
-    <mergeCell ref="O88:AL88"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="AA85:AD85"/>
-    <mergeCell ref="AE85:AH85"/>
-    <mergeCell ref="C84:E85"/>
-    <mergeCell ref="G84:AL84"/>
-    <mergeCell ref="C80:E81"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="AE83:AH83"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
